--- a/STORE_model/reference_pro99_axenic.xlsx
+++ b/STORE_model/reference_pro99_axenic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -31,13 +31,16 @@
     <t>Group</t>
   </si>
   <si>
+    <t>full name</t>
+  </si>
+  <si>
     <t>predicted</t>
   </si>
   <si>
     <t>ref_Bp</t>
   </si>
   <si>
-    <t>full name</t>
+    <t>id</t>
   </si>
   <si>
     <t>t</t>
@@ -414,13 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +451,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>44935.5625</v>
       </c>
@@ -457,28 +463,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0.335</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
         <v>7982430.454594015</v>
       </c>
-      <c r="G2">
-        <v>14.25434009748931</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2">
+      <c r="H2">
+        <v>33.26012689414173</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>44936.45138888889</v>
       </c>
@@ -486,28 +495,31 @@
         <v>0.8888888888905058</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0.531</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
         <v>12652747.97429678</v>
       </c>
-      <c r="G3">
-        <v>22.59419281124426</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3">
+      <c r="H3">
+        <v>52.71978322623659</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3">
         <v>76800.0000001397</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>44937.49652777778</v>
       </c>
@@ -515,28 +527,31 @@
         <v>1.934027777781012</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0.719</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
         <v>17132440.28911372</v>
       </c>
-      <c r="G4">
-        <v>30.59364337341736</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4">
+      <c r="H4">
+        <v>71.38516787130716</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4">
         <v>167100.0000002794</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>44938.68472222222</v>
       </c>
@@ -544,28 +559,31 @@
         <v>3.122222222220444</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1.261</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
         <v>30047297.92012851</v>
       </c>
-      <c r="G5">
-        <v>53.65588914308664</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5">
+      <c r="H5">
+        <v>125.1970746672021</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5">
         <v>269759.9999998463</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>44939.77013888889</v>
       </c>
@@ -573,28 +591,31 @@
         <v>4.207638888889051</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>1.784</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
         <v>42509420.68953947</v>
       </c>
-      <c r="G6">
-        <v>75.90967980274907</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6">
+      <c r="H6">
+        <v>177.1225862064145</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6">
         <v>363540.000000014</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>44940.97638888889</v>
       </c>
@@ -602,28 +623,31 @@
         <v>5.413888888891961</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>3.184</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
         <v>75868831.54455924</v>
       </c>
-      <c r="G7">
-        <v>135.4800563295701</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7">
+      <c r="H7">
+        <v>316.1201314356636</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7">
         <v>467760.0000002654</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>44941.65763888889</v>
       </c>
@@ -631,28 +655,31 @@
         <v>6.09513888888614</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>3.944</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
         <v>93978226.00871281</v>
       </c>
-      <c r="G8">
-        <v>167.8182607298443</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8">
+      <c r="H8">
+        <v>391.5759417029701</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8">
         <v>526619.9999997625</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>44942.55069444444</v>
       </c>
@@ -660,28 +687,31 @@
         <v>6.988194444442343</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>4.975</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
         <v>118545049.2883738</v>
       </c>
-      <c r="G9">
-        <v>211.6875880149532</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9">
+      <c r="H9">
+        <v>493.9377053682241</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9">
         <v>603779.9999998184</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>44943.53125</v>
       </c>
@@ -689,28 +719,31 @@
         <v>7.96875</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>5.574</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
         <v>132818111.5042001</v>
       </c>
-      <c r="G10">
-        <v>237.1751991146431</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10">
+      <c r="H10">
+        <v>553.4087979341671</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10">
         <v>688500</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>44944.55347222222</v>
       </c>
@@ -718,28 +751,31 @@
         <v>8.990972222221899</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>6.429</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
         <v>153191180.2763729</v>
       </c>
-      <c r="G11">
-        <v>273.5556790649517</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11">
+      <c r="H11">
+        <v>638.2965844848871</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11">
         <v>776819.9999999721</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>44945.68888888889</v>
       </c>
@@ -747,28 +783,31 @@
         <v>10.12638888888614</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>5.98</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
         <v>142492340.6521558</v>
       </c>
-      <c r="G12">
-        <v>254.4506083074212</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12">
+      <c r="H12">
+        <v>593.7180860506494</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12">
         <v>874919.9999997625</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>44946.51597222222</v>
       </c>
@@ -776,28 +815,31 @@
         <v>10.95347222222335</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>6.348</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
         <v>151261100.0769039</v>
       </c>
-      <c r="G13">
-        <v>270.1091072801856</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13">
+      <c r="H13">
+        <v>630.2545836537662</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13">
         <v>946380.0000000978</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>44948.41527777778</v>
       </c>
@@ -805,28 +847,31 @@
         <v>12.8527777777781</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>5.062</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
         <v>120618098.3915072</v>
       </c>
-      <c r="G14">
-        <v>215.3894614134057</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14">
+      <c r="H14">
+        <v>502.5754099646132</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14">
         <v>1110480.000000028</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>44949.55972222222</v>
       </c>
@@ -834,28 +879,31 @@
         <v>13.99722222222044</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>4.238</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
         <v>100983702.288267</v>
       </c>
-      <c r="G15">
-        <v>180.3280398004768</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15">
+      <c r="H15">
+        <v>420.7654262011124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15">
         <v>1209359.999999846</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>44950.57916666667</v>
       </c>
@@ -863,28 +911,31 @@
         <v>15.01666666667006</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>3.998</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
         <v>95264946.14169216</v>
       </c>
-      <c r="G16">
-        <v>170.1159752530218</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16">
+      <c r="H16">
+        <v>396.937275590384</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16">
         <v>1297440.000000293</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>44951.51458333333</v>
       </c>
@@ -892,28 +943,31 @@
         <v>15.95208333332994</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>3.172</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
         <v>75582893.73723049</v>
       </c>
-      <c r="G17">
-        <v>134.9694531021973</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17">
+      <c r="H17">
+        <v>314.9287239051271</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17">
         <v>1378259.999999707</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>44952.46666666667</v>
       </c>
@@ -921,28 +975,31 @@
         <v>16.90416666666715</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>1.996</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
         <v>47560988.61901389</v>
       </c>
-      <c r="G18">
-        <v>84.93033681966767</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18">
+      <c r="H18">
+        <v>198.1707859125579</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18">
         <v>1460520.000000042</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>44953.53541666667</v>
       </c>
@@ -950,28 +1007,31 @@
         <v>17.9729166666657</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>1.967</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
         <v>46869972.25130277</v>
       </c>
-      <c r="G19">
-        <v>83.69637902018354</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19">
+      <c r="H19">
+        <v>195.2915510470949</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19">
         <v>1552859.999999916</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>44954.88125</v>
       </c>
@@ -979,28 +1039,31 @@
         <v>19.31874999999854</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>3.328</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
         <v>79300085.23250411</v>
       </c>
-      <c r="G20">
-        <v>141.6072950580431</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20">
+      <c r="H20">
+        <v>330.4170218021005</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20">
         <v>1669139.999999874</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>44955.57083333333</v>
       </c>
@@ -1008,28 +1071,31 @@
         <v>20.00833333333139</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>2.036</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
         <v>48514114.64344303</v>
       </c>
-      <c r="G21">
-        <v>86.63234757757685</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21">
+      <c r="H21">
+        <v>202.1421443476793</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21">
         <v>1728719.999999832</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>44956.57291666666</v>
       </c>
@@ -1037,28 +1103,31 @@
         <v>21.01041666666424</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>1.744</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
         <v>41556294.66511033</v>
       </c>
-      <c r="G22">
-        <v>74.2076690448399</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22">
+      <c r="H22">
+        <v>173.1512277712931</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22">
         <v>1815299.99999979</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>44957.75902777778</v>
       </c>
@@ -1066,28 +1135,31 @@
         <v>22.1965277777781</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>2.416</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
         <v>57568811.87551982</v>
       </c>
-      <c r="G23">
-        <v>102.801449777714</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23">
+      <c r="H23">
+        <v>239.8700494813326</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23">
         <v>1917780.000000028</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>44958.575</v>
       </c>
@@ -1095,28 +1167,31 @@
         <v>23.01249999999709</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>1.914</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
         <v>45607080.26893416</v>
       </c>
-      <c r="G24">
-        <v>81.44121476595387</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
+        <v>190.029501120559</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24">
         <v>1988279.999999749</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>44959.67708333334</v>
       </c>
@@ -1124,28 +1199,31 @@
         <v>24.11458333333576</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>2.242</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
         <v>53422713.66925307</v>
       </c>
-      <c r="G25">
-        <v>95.39770298080907</v>
-      </c>
-      <c r="H25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25">
+      <c r="H25">
+        <v>222.5946402885545</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25">
         <v>2083500.00000021</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>44961.85555555556</v>
       </c>
@@ -1153,28 +1231,31 @@
         <v>26.29305555555766</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>2.247</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
         <v>53541854.42230672</v>
       </c>
-      <c r="G26">
-        <v>95.61045432554772</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26">
+      <c r="H26">
+        <v>223.0910600929447</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26">
         <v>2271720.000000182</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>44962.64583333334</v>
       </c>
@@ -1182,28 +1263,31 @@
         <v>27.08333333333576</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>2.272</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
         <v>54137558.18757492</v>
       </c>
-      <c r="G27">
-        <v>96.67421104924094</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27">
+      <c r="H27">
+        <v>225.5731591148955</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27">
         <v>2340000.00000021</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>44964.70763888889</v>
       </c>
@@ -1211,28 +1295,31 @@
         <v>29.14513888888905</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>1.523</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
         <v>36290273.38013935</v>
       </c>
-      <c r="G28">
-        <v>64.80405960739171</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28">
+      <c r="H28">
+        <v>151.2094724172473</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28">
         <v>2518140.000000014</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>44965.68333333333</v>
       </c>
@@ -1240,28 +1327,31 @@
         <v>30.1208333333343</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>1.178</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
         <v>28069561.41943806</v>
       </c>
-      <c r="G29">
-        <v>50.12421682042511</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29">
+      <c r="H29">
+        <v>116.9565059143252</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29">
         <v>2602440.000000084</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>44967.51805555556</v>
       </c>
@@ -1269,28 +1359,31 @@
         <v>31.9555555555562</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>0.8080000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
         <v>19253145.69346855</v>
       </c>
-      <c r="G30">
-        <v>34.38061730976527</v>
-      </c>
-      <c r="H30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30">
+      <c r="H30">
+        <v>80.22144038945228</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30">
         <v>2760960.000000056</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>44970.70625</v>
       </c>
@@ -1298,28 +1391,31 @@
         <v>35.14375000000291</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>0.496</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
         <v>11818762.70292129</v>
       </c>
-      <c r="G31">
-        <v>21.10493339807373</v>
-      </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31">
+      <c r="H31">
+        <v>49.24484459550536</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31">
         <v>3036420.000000251</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>44971.57569444444</v>
       </c>
@@ -1327,28 +1423,31 @@
         <v>36.0131944444438</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>0.411</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
         <v>9793369.901009373</v>
       </c>
-      <c r="G32">
-        <v>17.48816053751674</v>
-      </c>
-      <c r="H32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32">
+      <c r="H32">
+        <v>40.80570792087239</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32">
         <v>3111539.999999944</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>44972.51458333333</v>
       </c>
@@ -1356,28 +1455,31 @@
         <v>36.95208333332994</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>0.408</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
         <v>9721885.449177187</v>
       </c>
-      <c r="G33">
-        <v>17.36050973067355</v>
-      </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33">
+      <c r="H33">
+        <v>40.50785603823828</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33">
         <v>3192659.999999707</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>44973.59305555555</v>
       </c>
@@ -1385,28 +1487,31 @@
         <v>38.03055555555329</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>0.335</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
         <v>7982430.454594015</v>
       </c>
-      <c r="G34">
-        <v>14.25434009748931</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34">
+      <c r="H34">
+        <v>33.26012689414173</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34">
         <v>3285839.999999804</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>44974.65277777778</v>
       </c>
@@ -1414,28 +1519,31 @@
         <v>39.09027777778101</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>0.26</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
         <v>6195319.158789385</v>
       </c>
-      <c r="G35">
-        <v>11.06306992640962</v>
-      </c>
-      <c r="H35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35">
+      <c r="H35">
+        <v>25.8138298282891</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35">
         <v>3377400.000000279</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>44976.40625</v>
       </c>
@@ -1443,28 +1551,31 @@
         <v>40.84375</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>0.212</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36">
         <v>5051567.929474421</v>
       </c>
-      <c r="G36">
-        <v>9.02065701691861</v>
-      </c>
-      <c r="H36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36">
+      <c r="H36">
+        <v>21.04819970614342</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36">
         <v>3528900</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>44977.51041666666</v>
       </c>
@@ -1472,28 +1583,31 @@
         <v>41.94791666666424</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>0.22</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
         <v>5242193.134360248</v>
       </c>
-      <c r="G37">
-        <v>9.361059168500445</v>
-      </c>
-      <c r="H37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37">
+      <c r="H37">
+        <v>21.8424713931677</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37">
         <v>3624299.99999979</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>44978.54861111111</v>
       </c>
@@ -1501,28 +1615,31 @@
         <v>42.98611111110949</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>0.232</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38">
         <v>5528130.941688989</v>
       </c>
-      <c r="G38">
-        <v>9.871662395873196</v>
-      </c>
-      <c r="H38" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38">
+      <c r="H38">
+        <v>23.03387892370412</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38">
         <v>3713999.99999986</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>44979.49305555555</v>
       </c>
@@ -1530,28 +1647,31 @@
         <v>43.93055555555475</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>0.22</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39">
         <v>5242193.134360248</v>
       </c>
-      <c r="G39">
-        <v>9.361059168500445</v>
-      </c>
-      <c r="H39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39">
+      <c r="H39">
+        <v>21.8424713931677</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39">
         <v>3795599.99999993</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>44981.51875</v>
       </c>
@@ -1559,28 +1679,31 @@
         <v>45.95625000000291</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>0.204</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
         <v>4860942.724588593</v>
       </c>
-      <c r="G40">
-        <v>8.680254865336774</v>
-      </c>
-      <c r="H40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40">
+      <c r="H40">
+        <v>20.25392801911914</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40">
         <v>3970620.000000251</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>44983.44375</v>
       </c>
@@ -1588,28 +1711,31 @@
         <v>47.88124999999854</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>0.161</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41">
         <v>3836332.248327273</v>
       </c>
-      <c r="G41">
-        <v>6.850593300584417</v>
-      </c>
-      <c r="H41" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41">
+      <c r="H41">
+        <v>15.98471770136364</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41">
         <v>4136939.999999874</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>44985.73333333333</v>
       </c>
@@ -1617,28 +1743,31 @@
         <v>50.17083333332994</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>0.131</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42">
         <v>3121487.730005421</v>
       </c>
-      <c r="G42">
-        <v>5.574085232152538</v>
-      </c>
-      <c r="H42" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42">
+      <c r="H42">
+        <v>13.00619887502259</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42">
         <v>4334759.999999707</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>44986.67847222222</v>
       </c>
@@ -1646,28 +1775,31 @@
         <v>51.1159722222219</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>0.142</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43">
         <v>3383597.386723433</v>
       </c>
-      <c r="G43">
-        <v>6.042138190577559</v>
-      </c>
-      <c r="H43" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43">
+      <c r="H43">
+        <v>14.09832244468097</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43">
         <v>4416419.999999972</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>44987.57222222222</v>
       </c>
@@ -1675,28 +1807,31 @@
         <v>52.00972222222481</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>0.151</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
         <v>3598050.742219989</v>
       </c>
-      <c r="G44">
-        <v>6.425090611107124</v>
-      </c>
-      <c r="H44" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44">
+      <c r="H44">
+        <v>14.99187809258329</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44">
         <v>4493640.000000224</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>44990.54722222222</v>
       </c>
@@ -1704,28 +1839,31 @@
         <v>54.98472222222335</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>0.147</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
         <v>3502738.139777075</v>
       </c>
-      <c r="G45">
-        <v>6.254889535316206</v>
-      </c>
-      <c r="H45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45">
+      <c r="H45">
+        <v>14.59474224907115</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45">
         <v>4750680.000000098</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>44991.45763888889</v>
       </c>
@@ -1733,28 +1871,31 @@
         <v>55.89513888888905</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>0.148</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46">
         <v>3526566.290387803</v>
       </c>
-      <c r="G46">
-        <v>6.297439804263935</v>
-      </c>
-      <c r="H46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46">
+      <c r="H46">
+        <v>14.69402620994918</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46">
         <v>4829340.000000014</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>44993.53611111111</v>
       </c>
@@ -1762,28 +1903,31 @@
         <v>57.9736111111124</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>0.174</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
         <v>4146098.206266742</v>
       </c>
-      <c r="G47">
-        <v>7.403746796904898</v>
-      </c>
-      <c r="H47" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47">
+      <c r="H47">
+        <v>17.27540919277809</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47">
         <v>5008920.000000112</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>44994.53472222222</v>
       </c>
@@ -1791,28 +1935,31 @@
         <v>58.97222222221899</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>0.142</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48">
         <v>3383597.386723433</v>
       </c>
-      <c r="G48">
-        <v>6.042138190577559</v>
-      </c>
-      <c r="H48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48">
+      <c r="H48">
+        <v>14.09832244468097</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48">
         <v>5095199.999999721</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>44997.58958333333</v>
       </c>
@@ -1820,28 +1967,31 @@
         <v>62.0270833333343</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>0.175</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49">
         <v>4169926.35687747</v>
       </c>
-      <c r="G49">
-        <v>7.446297065852626</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49">
+      <c r="H49">
+        <v>17.37469315365612</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49">
         <v>5359140.000000084</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>44998.4375</v>
       </c>
@@ -1849,28 +1999,31 @@
         <v>62.875</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>0.121</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
         <v>2883206.223898137</v>
       </c>
-      <c r="G50">
-        <v>5.148582542675245</v>
-      </c>
-      <c r="H50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50">
+      <c r="H50">
+        <v>12.01335926624224</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50">
         <v>5432400</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" s="2">
         <v>45001.55486111111</v>
       </c>
@@ -1878,28 +2031,31 @@
         <v>65.99236111110804</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>0.129</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51">
         <v>3073831.428783964</v>
       </c>
-      <c r="G51">
-        <v>5.48898469425708</v>
-      </c>
-      <c r="H51" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51">
+      <c r="H51">
+        <v>12.80763095326652</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51">
         <v>5701739.999999735</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" s="2">
         <v>45005.64375</v>
       </c>
@@ -1907,28 +2063,31 @@
         <v>70.08125000000291</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>0.113</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52">
         <v>2692581.01901231</v>
       </c>
-      <c r="G52">
-        <v>4.808180391093411</v>
-      </c>
-      <c r="H52" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52">
+      <c r="H52">
+        <v>11.21908757921796</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52">
         <v>6055020.000000251</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" s="2">
         <v>45007.44583333333</v>
       </c>
@@ -1936,28 +2095,31 @@
         <v>71.88333333333139</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>0.119</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53">
         <v>2835549.92267668</v>
       </c>
-      <c r="G53">
-        <v>5.063482004779786</v>
-      </c>
-      <c r="H53" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53">
+      <c r="H53">
+        <v>11.81479134448617</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53">
         <v>6210719.999999832</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54" s="2">
         <v>45011.62777777778</v>
       </c>
@@ -1965,28 +2127,31 @@
         <v>76.06527777777956</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>0.062</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54">
         <v>1477345.337865161</v>
       </c>
-      <c r="G54">
-        <v>2.638116674759216</v>
-      </c>
-      <c r="H54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54">
+      <c r="H54">
+        <v>6.15560557443817</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54">
         <v>6572040.000000154</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55" s="2">
         <v>45015.625</v>
       </c>
@@ -1994,28 +2159,31 @@
         <v>80.0625</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>0.08500000000000001</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55">
         <v>2025392.801911914</v>
       </c>
-      <c r="G55">
-        <v>3.61677286055699</v>
-      </c>
-      <c r="H55" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55">
+      <c r="H55">
+        <v>8.439136674632977</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55">
         <v>6917400</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" s="2">
         <v>45019.49305555555</v>
       </c>
@@ -2023,28 +2191,31 @@
         <v>83.93055555555475</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>0.091</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56">
         <v>2168361.705576284</v>
       </c>
-      <c r="G56">
-        <v>3.872074474243365</v>
-      </c>
-      <c r="H56" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56">
+      <c r="H56">
+        <v>9.034840439901185</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56">
         <v>7251599.99999993</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57" s="2">
         <v>45021.35902777778</v>
       </c>
@@ -2052,28 +2223,31 @@
         <v>85.79652777777665</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>0.136</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57">
         <v>3240628.483059063</v>
       </c>
-      <c r="G57">
-        <v>5.786836576891185</v>
-      </c>
-      <c r="H57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57">
+      <c r="H57">
+        <v>13.50261867941276</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57">
         <v>7412819.999999902</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58" s="2">
         <v>45027.48472222222</v>
       </c>
@@ -2081,28 +2255,31 @@
         <v>91.92222222222335</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>0.114</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58">
         <v>2716409.169623038</v>
       </c>
-      <c r="G58">
-        <v>4.85073066004114</v>
-      </c>
-      <c r="H58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58">
+      <c r="H58">
+        <v>11.31837154009599</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58">
         <v>7942080.000000098</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59" s="2">
         <v>45029.48055555556</v>
       </c>
@@ -2110,28 +2287,31 @@
         <v>93.91805555555766</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>0.095</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59">
         <v>2263674.308019198</v>
       </c>
-      <c r="G59">
-        <v>4.042275550034282</v>
-      </c>
-      <c r="H59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59">
+      <c r="H59">
+        <v>9.431976283413325</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59">
         <v>8114520.000000182</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60" s="2">
         <v>44935.5625</v>
       </c>
@@ -2139,28 +2319,31 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>0.334</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60">
         <v>7958602.303983287</v>
       </c>
-      <c r="G60">
-        <v>14.21178982854159</v>
-      </c>
-      <c r="H60" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60">
+      <c r="H60">
+        <v>33.1608429332637</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" s="2">
         <v>44936.45138888889</v>
       </c>
@@ -2168,28 +2351,31 @@
         <v>0.8888888888905058</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>0.46</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61">
         <v>10960949.28093507</v>
       </c>
-      <c r="G61">
-        <v>19.57312371595548</v>
-      </c>
-      <c r="H61" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61">
+      <c r="H61">
+        <v>45.67062200389611</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61">
         <v>76800.0000001397</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" s="2">
         <v>44937.49652777778</v>
       </c>
@@ -2197,28 +2383,31 @@
         <v>1.934027777781012</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>0.801</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62">
         <v>19086348.63919345</v>
       </c>
-      <c r="G62">
-        <v>34.08276542713116</v>
-      </c>
-      <c r="H62" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62">
+      <c r="H62">
+        <v>79.52645266330605</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62">
         <v>167100.0000002794</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" s="2">
         <v>44938.68472222222</v>
       </c>
@@ -2226,28 +2415,31 @@
         <v>3.122222222220444</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63">
         <v>1.255</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63">
         <v>29904329.01646414</v>
       </c>
-      <c r="G63">
-        <v>53.40058752940026</v>
-      </c>
-      <c r="H63" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63">
+      <c r="H63">
+        <v>124.6013709019339</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63">
         <v>269759.9999998463</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64" s="2">
         <v>44939.77013888889</v>
       </c>
@@ -2255,28 +2447,31 @@
         <v>4.207638888889051</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>1.967</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64">
         <v>46869972.25130277</v>
       </c>
-      <c r="G64">
-        <v>83.69637902018354</v>
-      </c>
-      <c r="H64" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64">
+      <c r="H64">
+        <v>195.2915510470949</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64">
         <v>363540.000000014</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" s="2">
         <v>44940.97638888889</v>
       </c>
@@ -2284,28 +2479,31 @@
         <v>5.413888888891961</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65">
         <v>3.121</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65">
         <v>74367658.05608334</v>
       </c>
-      <c r="G65">
-        <v>132.7993893858631</v>
-      </c>
-      <c r="H65" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65">
+      <c r="H65">
+        <v>309.8652419003473</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65">
         <v>467760.0000002654</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="A66" s="2">
         <v>44941.65763888889</v>
       </c>
@@ -2313,28 +2511,31 @@
         <v>6.09513888888614</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <v>3.799</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66">
         <v>90523144.17015719</v>
       </c>
-      <c r="G66">
-        <v>161.6484717324236</v>
-      </c>
-      <c r="H66" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66">
+      <c r="H66">
+        <v>377.179767375655</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66">
         <v>526619.9999997625</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" s="2">
         <v>44942.55069444444</v>
       </c>
@@ -2342,28 +2543,31 @@
         <v>6.988194444442343</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>5.094</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67">
         <v>121380599.2110505</v>
       </c>
-      <c r="G67">
-        <v>216.751070019733</v>
-      </c>
-      <c r="H67" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67">
+      <c r="H67">
+        <v>505.7524967127104</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67">
         <v>603779.9999998184</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" s="2">
         <v>44943.53125</v>
       </c>
@@ -2371,28 +2575,31 @@
         <v>7.96875</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D68">
         <v>5.77</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68">
         <v>137488429.0239029</v>
       </c>
-      <c r="G68">
-        <v>245.515051828398</v>
-      </c>
-      <c r="H68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68">
+      <c r="H68">
+        <v>572.868454266262</v>
+      </c>
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68">
         <v>688500</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" s="2">
         <v>44944.55347222222</v>
       </c>
@@ -2400,28 +2607,31 @@
         <v>8.990972222221899</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>6.412</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69">
         <v>152786101.7159905</v>
       </c>
-      <c r="G69">
-        <v>272.8323244928402</v>
-      </c>
-      <c r="H69" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69">
+      <c r="H69">
+        <v>636.6087571499604</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69">
         <v>776819.9999999721</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" s="2">
         <v>44945.68888888889</v>
       </c>
@@ -2429,28 +2639,31 @@
         <v>10.12638888888614</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>5.598</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70">
         <v>133389987.1188576</v>
       </c>
-      <c r="G70">
-        <v>238.1964055693886</v>
-      </c>
-      <c r="H70" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70">
+      <c r="H70">
+        <v>555.7916129952399</v>
+      </c>
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70">
         <v>874919.9999997625</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" s="2">
         <v>44946.51597222222</v>
       </c>
@@ -2458,28 +2671,31 @@
         <v>10.95347222222335</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>5.863</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71">
         <v>139704447.0307006</v>
       </c>
-      <c r="G71">
-        <v>249.4722268405368</v>
-      </c>
-      <c r="H71" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71">
+      <c r="H71">
+        <v>582.1018626279193</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71">
         <v>946380.0000000978</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" s="2">
         <v>44948.41527777778</v>
       </c>
@@ -2487,28 +2703,31 @@
         <v>12.8527777777781</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>4.42</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72">
         <v>105320425.6994195</v>
       </c>
-      <c r="G72">
-        <v>188.0721887489635</v>
-      </c>
-      <c r="H72" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72">
+      <c r="H72">
+        <v>438.8351070809147</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72">
         <v>1110480.000000028</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" s="2">
         <v>44949.55972222222</v>
       </c>
@@ -2516,28 +2735,31 @@
         <v>13.99722222222044</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>3.739</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73">
         <v>89093455.1335135</v>
       </c>
-      <c r="G73">
-        <v>159.0954555955599</v>
-      </c>
-      <c r="H73" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73">
+      <c r="H73">
+        <v>371.2227297229729</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73">
         <v>1209359.999999846</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" s="2">
         <v>44950.57916666667</v>
       </c>
@@ -2545,28 +2767,31 @@
         <v>15.01666666667006</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>4.042</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74">
         <v>96313384.76856419</v>
       </c>
-      <c r="G74">
-        <v>171.9881870867218</v>
-      </c>
-      <c r="H74" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74">
+      <c r="H74">
+        <v>401.3057698690175</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74">
         <v>1297440.000000293</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" s="2">
         <v>44951.51458333333</v>
       </c>
@@ -2574,28 +2799,31 @@
         <v>15.95208333332994</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>3.441</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75">
         <v>81992666.25151643</v>
       </c>
-      <c r="G75">
-        <v>146.4154754491365</v>
-      </c>
-      <c r="H75" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75">
+      <c r="H75">
+        <v>341.6361093813185</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75">
         <v>1378259.999999707</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" s="2">
         <v>44952.46666666667</v>
       </c>
@@ -2603,28 +2831,31 @@
         <v>16.90416666666715</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>2.179</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76">
         <v>51921540.18077718</v>
       </c>
-      <c r="G76">
-        <v>92.71703603710213</v>
-      </c>
-      <c r="H76" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76">
+      <c r="H76">
+        <v>216.3397507532383</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76">
         <v>1460520.000000042</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" s="2">
         <v>44953.53541666667</v>
       </c>
@@ -2632,28 +2863,31 @@
         <v>17.9729166666657</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D77">
         <v>2.029</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77">
         <v>48347317.58916792</v>
       </c>
-      <c r="G77">
-        <v>86.33449569494273</v>
-      </c>
-      <c r="H77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77">
+      <c r="H77">
+        <v>201.447156621533</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77">
         <v>1552859.999999916</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" s="2">
         <v>44954.88125</v>
       </c>
@@ -2661,28 +2895,31 @@
         <v>19.31874999999854</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>3.39</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78">
         <v>80777430.57036929</v>
       </c>
-      <c r="G78">
-        <v>144.2454117328023</v>
-      </c>
-      <c r="H78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78">
+      <c r="H78">
+        <v>336.5726273765387</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78">
         <v>1669139.999999874</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" s="2">
         <v>44955.57083333333</v>
       </c>
@@ -2690,28 +2927,31 @@
         <v>20.00833333333139</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>2.033</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79">
         <v>48442630.19161084</v>
       </c>
-      <c r="G79">
-        <v>86.50469677073364</v>
-      </c>
-      <c r="H79" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79">
+      <c r="H79">
+        <v>201.8442924650452</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79">
         <v>1728719.999999832</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" s="2">
         <v>44956.57291666666</v>
       </c>
@@ -2719,28 +2959,31 @@
         <v>21.01041666666424</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>1.791</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80">
         <v>42676217.74381457</v>
       </c>
-      <c r="G80">
-        <v>76.20753168538316</v>
-      </c>
-      <c r="H80" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80">
+      <c r="H80">
+        <v>177.8175739325607</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80">
         <v>1815299.99999979</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" s="2">
         <v>44957.75902777778</v>
       </c>
@@ -2748,28 +2991,31 @@
         <v>22.1965277777781</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>2.696</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81">
         <v>64240694.04652377</v>
       </c>
-      <c r="G81">
-        <v>114.7155250830782</v>
-      </c>
-      <c r="H81" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81">
+      <c r="H81">
+        <v>267.6695585271824</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81">
         <v>1917780.000000028</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" s="2">
         <v>44958.575</v>
       </c>
@@ -2777,28 +3023,31 @@
         <v>23.01249999999709</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>2.053</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82">
         <v>48919193.20382541</v>
       </c>
-      <c r="G82">
-        <v>87.35570214968824</v>
-      </c>
-      <c r="H82" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82">
+      <c r="H82">
+        <v>203.8299716826059</v>
+      </c>
+      <c r="I82" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82">
         <v>1988279.999999749</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" s="2">
         <v>44959.67708333334</v>
       </c>
@@ -2806,28 +3055,31 @@
         <v>24.11458333333576</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>2.301</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83">
         <v>54828574.55528606</v>
       </c>
-      <c r="G83">
-        <v>97.90816884872513</v>
-      </c>
-      <c r="H83" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83">
+      <c r="H83">
+        <v>228.4523939803586</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83">
         <v>2083500.00000021</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>44961.85555555556</v>
       </c>
@@ -2835,28 +3087,31 @@
         <v>26.29305555555766</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D84">
         <v>2.099</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84">
         <v>50015288.13191892</v>
       </c>
-      <c r="G84">
-        <v>89.3130145212838</v>
-      </c>
-      <c r="H84" t="s">
-        <v>12</v>
-      </c>
-      <c r="I84">
+      <c r="H84">
+        <v>208.3970338829955</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84">
         <v>2271720.000000182</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>44962.64583333334</v>
       </c>
@@ -2864,28 +3119,31 @@
         <v>27.08333333333576</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D85">
         <v>2.022</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85">
         <v>48180520.53489282</v>
       </c>
-      <c r="G85">
-        <v>86.03664381230863</v>
-      </c>
-      <c r="H85" t="s">
-        <v>12</v>
-      </c>
-      <c r="I85">
+      <c r="H85">
+        <v>200.7521688953867</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85">
         <v>2340000.00000021</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>44964.70763888889</v>
       </c>
@@ -2893,28 +3151,31 @@
         <v>29.14513888888905</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>0.975</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86">
         <v>23232446.84546019</v>
       </c>
-      <c r="G86">
-        <v>41.48651222403606</v>
-      </c>
-      <c r="H86" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86">
+      <c r="H86">
+        <v>96.80186185608413</v>
+      </c>
+      <c r="I86" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86">
         <v>2518140.000000014</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87" s="2">
         <v>44965.68333333333</v>
       </c>
@@ -2922,28 +3183,31 @@
         <v>30.1208333333343</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>0.747</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87">
         <v>17799628.50621412</v>
       </c>
-      <c r="G87">
-        <v>31.78505090395378</v>
-      </c>
-      <c r="H87" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87">
+      <c r="H87">
+        <v>74.16511877589214</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87">
         <v>2602440.000000084</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" s="2">
         <v>44967.51805555556</v>
       </c>
@@ -2951,28 +3215,31 @@
         <v>31.9555555555562</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>0.53</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88">
         <v>12628919.82368605</v>
       </c>
-      <c r="G88">
-        <v>22.55164254229653</v>
-      </c>
-      <c r="H88" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88">
+      <c r="H88">
+        <v>52.62049926535856</v>
+      </c>
+      <c r="I88" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88">
         <v>2760960.000000056</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" s="2">
         <v>44970.70625</v>
       </c>
@@ -2980,28 +3247,31 @@
         <v>35.14375000000291</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>0.343</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89">
         <v>8173055.659479843</v>
       </c>
-      <c r="G89">
-        <v>14.59474224907115</v>
-      </c>
-      <c r="H89" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89">
+      <c r="H89">
+        <v>34.05439858116601</v>
+      </c>
+      <c r="I89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89">
         <v>3036420.000000251</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90" s="2">
         <v>44971.57569444444</v>
       </c>
@@ -3009,28 +3279,31 @@
         <v>36.0131944444438</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D90">
         <v>0.326</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90">
         <v>7767977.09909746</v>
       </c>
-      <c r="G90">
-        <v>13.87138767695975</v>
-      </c>
-      <c r="H90" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90">
+      <c r="H90">
+        <v>32.36657124623942</v>
+      </c>
+      <c r="I90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90">
         <v>3111539.999999944</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91" s="2">
         <v>44972.51458333333</v>
       </c>
@@ -3038,28 +3311,31 @@
         <v>36.95208333332994</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>0.285</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91">
         <v>6791022.924057594</v>
       </c>
-      <c r="G91">
-        <v>12.12682665010285</v>
-      </c>
-      <c r="H91" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91">
+      <c r="H91">
+        <v>28.29592885023997</v>
+      </c>
+      <c r="I91" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91">
         <v>3192659.999999707</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92" s="2">
         <v>44973.59305555555</v>
       </c>
@@ -3067,28 +3343,31 @@
         <v>38.03055555555329</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>0.249</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92">
         <v>5933209.502071372</v>
       </c>
-      <c r="G92">
-        <v>10.59501696798459</v>
-      </c>
-      <c r="H92" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92">
+      <c r="H92">
+        <v>24.72170625863072</v>
+      </c>
+      <c r="I92" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92">
         <v>3285839.999999804</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" s="2">
         <v>44974.65277777778</v>
       </c>
@@ -3096,28 +3375,31 @@
         <v>39.09027777778101</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D93">
         <v>0.209</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93">
         <v>4980083.477642235</v>
       </c>
-      <c r="G93">
-        <v>8.89300621007542</v>
-      </c>
-      <c r="H93" t="s">
-        <v>12</v>
-      </c>
-      <c r="I93">
+      <c r="H93">
+        <v>20.75034782350932</v>
+      </c>
+      <c r="I93" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93">
         <v>3377400.000000279</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" s="2">
         <v>44976.40625</v>
       </c>
@@ -3125,28 +3407,31 @@
         <v>40.84375</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D94">
         <v>0.158</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94">
         <v>3764847.796495087</v>
       </c>
-      <c r="G94">
-        <v>6.722942493741228</v>
-      </c>
-      <c r="H94" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94">
+      <c r="H94">
+        <v>15.68686581872953</v>
+      </c>
+      <c r="I94" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94">
         <v>3528900</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" s="2">
         <v>44977.51041666666</v>
       </c>
@@ -3154,28 +3439,31 @@
         <v>41.94791666666424</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D95">
         <v>0.191</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95">
         <v>4551176.766649125</v>
       </c>
-      <c r="G95">
-        <v>8.127101369016296</v>
-      </c>
-      <c r="H95" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95">
+      <c r="H95">
+        <v>18.96323652770469</v>
+      </c>
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95">
         <v>3624299.99999979</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96" s="2">
         <v>44978.54861111111</v>
       </c>
@@ -3183,28 +3471,31 @@
         <v>42.98611111110949</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D96">
         <v>0.222</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96">
         <v>5289849.435581706</v>
       </c>
-      <c r="G96">
-        <v>9.446159706395905</v>
-      </c>
-      <c r="H96" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96">
+      <c r="H96">
+        <v>22.04103931492377</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96">
         <v>3713999.99999986</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:10">
       <c r="A97" s="2">
         <v>44979.49305555555</v>
       </c>
@@ -3212,28 +3503,31 @@
         <v>43.93055555555475</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D97">
         <v>0.171</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97">
         <v>4074613.754434557</v>
       </c>
-      <c r="G97">
-        <v>7.276095990061711</v>
-      </c>
-      <c r="H97" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97">
+      <c r="H97">
+        <v>16.97755731014399</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97">
         <v>3795599.99999993</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:10">
       <c r="A98" s="2">
         <v>44981.51875</v>
       </c>
@@ -3241,28 +3535,31 @@
         <v>45.95625000000291</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D98">
         <v>0.132</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98">
         <v>3145315.880616149</v>
       </c>
-      <c r="G98">
-        <v>5.616635501100268</v>
-      </c>
-      <c r="H98" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98">
+      <c r="H98">
+        <v>13.10548283590062</v>
+      </c>
+      <c r="I98" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98">
         <v>3970620.000000251</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" s="2">
         <v>44983.44375</v>
       </c>
@@ -3270,28 +3567,31 @@
         <v>47.88124999999854</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D99">
         <v>0.132</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99">
         <v>3145315.880616149</v>
       </c>
-      <c r="G99">
-        <v>5.616635501100268</v>
-      </c>
-      <c r="H99" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99">
+      <c r="H99">
+        <v>13.10548283590062</v>
+      </c>
+      <c r="I99" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99">
         <v>4136939.999999874</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" s="2">
         <v>44985.73333333333</v>
       </c>
@@ -3299,28 +3599,31 @@
         <v>50.17083333332994</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D100">
         <v>0.121</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100">
         <v>2883206.223898137</v>
       </c>
-      <c r="G100">
-        <v>5.148582542675245</v>
-      </c>
-      <c r="H100" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100">
+      <c r="H100">
+        <v>12.01335926624224</v>
+      </c>
+      <c r="I100" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100">
         <v>4334759.999999707</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101" s="2">
         <v>44986.67847222222</v>
       </c>
@@ -3328,28 +3631,31 @@
         <v>51.1159722222219</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D101">
         <v>0.15</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101">
         <v>3574222.59160926</v>
       </c>
-      <c r="G101">
-        <v>6.382540342159394</v>
-      </c>
-      <c r="H101" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101">
+      <c r="H101">
+        <v>14.89259413170525</v>
+      </c>
+      <c r="I101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101">
         <v>4416419.999999972</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10">
       <c r="A102" s="2">
         <v>44987.57222222222</v>
       </c>
@@ -3357,28 +3663,31 @@
         <v>52.00972222222481</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D102">
         <v>0.107</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102">
         <v>2549612.115347939</v>
       </c>
-      <c r="G102">
-        <v>4.552878777407035</v>
-      </c>
-      <c r="H102" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102">
+      <c r="H102">
+        <v>10.62338381394975</v>
+      </c>
+      <c r="I102" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102">
         <v>4493640.000000224</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103" s="2">
         <v>44990.54722222222</v>
       </c>
@@ -3386,28 +3695,31 @@
         <v>54.98472222222335</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D103">
         <v>0.135</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103">
         <v>3216800.332448334</v>
       </c>
-      <c r="G103">
-        <v>5.744286307943455</v>
-      </c>
-      <c r="H103" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103">
+      <c r="H103">
+        <v>13.40333471853473</v>
+      </c>
+      <c r="I103" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103">
         <v>4750680.000000098</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104" s="2">
         <v>44991.45763888889</v>
       </c>
@@ -3415,28 +3727,31 @@
         <v>55.89513888888905</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D104">
         <v>0.163</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104">
         <v>3883988.54954873</v>
       </c>
-      <c r="G104">
-        <v>6.935693838479875</v>
-      </c>
-      <c r="H104" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104">
+      <c r="H104">
+        <v>16.18328562311971</v>
+      </c>
+      <c r="I104" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104">
         <v>4829340.000000014</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105" s="2">
         <v>44993.53611111111</v>
       </c>
@@ -3444,28 +3759,31 @@
         <v>57.9736111111124</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D105">
         <v>0.114</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105">
         <v>2716409.169623038</v>
       </c>
-      <c r="G105">
-        <v>4.85073066004114</v>
-      </c>
-      <c r="H105" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105">
+      <c r="H105">
+        <v>11.31837154009599</v>
+      </c>
+      <c r="I105" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105">
         <v>5008920.000000112</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106" s="2">
         <v>44994.53472222222</v>
       </c>
@@ -3473,28 +3791,31 @@
         <v>58.97222222221899</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D106">
         <v>0.146</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106">
         <v>3478909.989166346</v>
       </c>
-      <c r="G106">
-        <v>6.212339266368477</v>
-      </c>
-      <c r="H106" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106">
+      <c r="H106">
+        <v>14.49545828819311</v>
+      </c>
+      <c r="I106" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106">
         <v>5095199.999999721</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:10">
       <c r="A107" s="2">
         <v>44997.58958333333</v>
       </c>
@@ -3502,28 +3823,31 @@
         <v>62.0270833333343</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D107">
         <v>0.161</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107">
         <v>3836332.248327273</v>
       </c>
-      <c r="G107">
-        <v>6.850593300584417</v>
-      </c>
-      <c r="H107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I107">
+      <c r="H107">
+        <v>15.98471770136364</v>
+      </c>
+      <c r="I107" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107">
         <v>5359140.000000084</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:10">
       <c r="A108" s="2">
         <v>44998.4375</v>
       </c>
@@ -3531,28 +3855,31 @@
         <v>62.875</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D108">
         <v>0.082</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108">
         <v>1953908.350079729</v>
       </c>
-      <c r="G108">
-        <v>3.489122053713802</v>
-      </c>
-      <c r="H108" t="s">
-        <v>12</v>
-      </c>
-      <c r="I108">
+      <c r="H108">
+        <v>8.141284791998871</v>
+      </c>
+      <c r="I108" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108">
         <v>5432400</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:10">
       <c r="A109" s="2">
         <v>45001.55486111111</v>
       </c>
@@ -3560,28 +3887,31 @@
         <v>65.99236111110804</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D109">
         <v>0.163</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109">
         <v>3883988.54954873</v>
       </c>
-      <c r="G109">
-        <v>6.935693838479875</v>
-      </c>
-      <c r="H109" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109">
+      <c r="H109">
+        <v>16.18328562311971</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109">
         <v>5701739.999999735</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:10">
       <c r="A110" s="2">
         <v>45005.64375</v>
       </c>
@@ -3589,28 +3919,31 @@
         <v>70.08125000000291</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D110">
         <v>0.13</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110">
         <v>3097659.579394693</v>
       </c>
-      <c r="G110">
-        <v>5.531534963204809</v>
-      </c>
-      <c r="H110" t="s">
-        <v>12</v>
-      </c>
-      <c r="I110">
+      <c r="H110">
+        <v>12.90691491414455</v>
+      </c>
+      <c r="I110" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110">
         <v>6055020.000000251</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:10">
       <c r="A111" s="2">
         <v>45007.44583333333</v>
       </c>
@@ -3618,28 +3951,31 @@
         <v>71.88333333333139</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D111">
         <v>0.08500000000000001</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111">
         <v>2025392.801911914</v>
       </c>
-      <c r="G111">
-        <v>3.61677286055699</v>
-      </c>
-      <c r="H111" t="s">
-        <v>12</v>
-      </c>
-      <c r="I111">
+      <c r="H111">
+        <v>8.439136674632977</v>
+      </c>
+      <c r="I111" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111">
         <v>6210719.999999832</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:10">
       <c r="A112" s="2">
         <v>45011.62777777778</v>
       </c>
@@ -3647,28 +3983,31 @@
         <v>76.06527777777956</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D112">
         <v>0.129</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112">
         <v>3073831.428783964</v>
       </c>
-      <c r="G112">
-        <v>5.48898469425708</v>
-      </c>
-      <c r="H112" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112">
+      <c r="H112">
+        <v>12.80763095326652</v>
+      </c>
+      <c r="I112" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112">
         <v>6572040.000000154</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:10">
       <c r="A113" s="2">
         <v>45015.625</v>
       </c>
@@ -3676,28 +4015,31 @@
         <v>80.0625</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D113">
         <v>0.115</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113">
         <v>2740237.320233766</v>
       </c>
-      <c r="G113">
-        <v>4.893280928988869</v>
-      </c>
-      <c r="H113" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113">
+      <c r="H113">
+        <v>11.41765550097403</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113">
         <v>6917400</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:10">
       <c r="A114" s="2">
         <v>45019.49305555555</v>
       </c>
@@ -3705,28 +4047,31 @@
         <v>83.93055555555475</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D114">
         <v>0.113</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114">
         <v>2692581.01901231</v>
       </c>
-      <c r="G114">
-        <v>4.808180391093411</v>
-      </c>
-      <c r="H114" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114">
+      <c r="H114">
+        <v>11.21908757921796</v>
+      </c>
+      <c r="I114" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114">
         <v>7251599.99999993</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:10">
       <c r="A115" s="2">
         <v>45021.35902777778</v>
       </c>
@@ -3734,28 +4079,31 @@
         <v>85.79652777777665</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D115">
         <v>0.14</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115">
         <v>3335941.085501977</v>
       </c>
-      <c r="G115">
-        <v>5.957037652682102</v>
-      </c>
-      <c r="H115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I115">
+      <c r="H115">
+        <v>13.8997545229249</v>
+      </c>
+      <c r="I115" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115">
         <v>7412819.999999902</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:10">
       <c r="A116" s="2">
         <v>45027.48472222222</v>
       </c>
@@ -3763,28 +4111,31 @@
         <v>91.92222222222335</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D116">
         <v>0.13</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116">
         <v>3097659.579394693</v>
       </c>
-      <c r="G116">
-        <v>5.531534963204809</v>
-      </c>
-      <c r="H116" t="s">
-        <v>12</v>
-      </c>
-      <c r="I116">
+      <c r="H116">
+        <v>12.90691491414455</v>
+      </c>
+      <c r="I116" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116">
         <v>7942080.000000098</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:10">
       <c r="A117" s="2">
         <v>45029.48055555556</v>
       </c>
@@ -3792,28 +4143,31 @@
         <v>93.91805555555766</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D117">
         <v>0.123</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117">
         <v>2930862.525119593</v>
       </c>
-      <c r="G117">
-        <v>5.233683080570703</v>
-      </c>
-      <c r="H117" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117">
+      <c r="H117">
+        <v>12.21192718799831</v>
+      </c>
+      <c r="I117" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117">
         <v>8114520.000000182</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:10">
       <c r="A118" s="2">
         <v>44935.5625</v>
       </c>
@@ -3821,28 +4175,31 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118">
         <v>0.318</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118">
         <v>7577351.894211632</v>
       </c>
-      <c r="G118">
-        <v>13.53098552537792</v>
-      </c>
-      <c r="H118" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118">
+      <c r="H118">
+        <v>31.57229955921514</v>
+      </c>
+      <c r="I118" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:10">
       <c r="A119" s="2">
         <v>44936.45138888889</v>
       </c>
@@ -3850,28 +4207,31 @@
         <v>0.8888888888905058</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119">
         <v>0.459</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119">
         <v>10937121.13032434</v>
       </c>
-      <c r="G119">
-        <v>19.53057344700775</v>
-      </c>
-      <c r="H119" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119">
+      <c r="H119">
+        <v>45.57133804301807</v>
+      </c>
+      <c r="I119" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119">
         <v>76800.0000001397</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:10">
       <c r="A120" s="2">
         <v>44937.49652777778</v>
       </c>
@@ -3879,28 +4239,31 @@
         <v>1.934027777781012</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120">
         <v>0.715</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120">
         <v>17037127.68667081</v>
       </c>
-      <c r="G120">
-        <v>30.42344229762644</v>
-      </c>
-      <c r="H120" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120">
+      <c r="H120">
+        <v>70.98803202779503</v>
+      </c>
+      <c r="I120" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120">
         <v>167100.0000002794</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:10">
       <c r="A121" s="2">
         <v>44938.68472222222</v>
       </c>
@@ -3908,28 +4271,31 @@
         <v>3.122222222220444</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121">
         <v>1.308</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121">
         <v>31167220.99883275</v>
       </c>
-      <c r="G121">
-        <v>55.65575178362992</v>
-      </c>
-      <c r="H121" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121">
+      <c r="H121">
+        <v>129.8634208284698</v>
+      </c>
+      <c r="I121" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121">
         <v>269759.9999998463</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:10">
       <c r="A122" s="2">
         <v>44939.77013888889</v>
       </c>
@@ -3937,28 +4303,31 @@
         <v>4.207638888889051</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122">
         <v>1.998</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122">
         <v>47608644.92023534</v>
       </c>
-      <c r="G122">
-        <v>85.01543735756313</v>
-      </c>
-      <c r="H122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122">
+      <c r="H122">
+        <v>198.3693538343139</v>
+      </c>
+      <c r="I122" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122">
         <v>363540.000000014</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:10">
       <c r="A123" s="2">
         <v>44940.97638888889</v>
       </c>
@@ -3966,28 +4335,31 @@
         <v>5.413888888891961</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123">
         <v>3.179</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123">
         <v>75749690.79150559</v>
       </c>
-      <c r="G123">
-        <v>135.2673049848314</v>
-      </c>
-      <c r="H123" t="s">
-        <v>12</v>
-      </c>
-      <c r="I123">
+      <c r="H123">
+        <v>315.6237116312733</v>
+      </c>
+      <c r="I123" t="s">
+        <v>13</v>
+      </c>
+      <c r="J123">
         <v>467760.0000002654</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:10">
       <c r="A124" s="2">
         <v>44941.65763888889</v>
       </c>
@@ -3995,28 +4367,31 @@
         <v>6.09513888888614</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124">
         <v>3.955</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124">
         <v>94240335.66543083</v>
       </c>
-      <c r="G124">
-        <v>168.2863136882694</v>
-      </c>
-      <c r="H124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I124">
+      <c r="H124">
+        <v>392.6680652726285</v>
+      </c>
+      <c r="I124" t="s">
+        <v>13</v>
+      </c>
+      <c r="J124">
         <v>526619.9999997625</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:10">
       <c r="A125" s="2">
         <v>44942.55069444444</v>
       </c>
@@ -4024,28 +4399,31 @@
         <v>6.988194444442343</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125">
         <v>5.277</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125">
         <v>125741150.7728138</v>
       </c>
-      <c r="G125">
-        <v>224.5377692371675</v>
-      </c>
-      <c r="H125" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125">
+      <c r="H125">
+        <v>523.9214615533908</v>
+      </c>
+      <c r="I125" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125">
         <v>603779.9999998184</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:10">
       <c r="A126" s="2">
         <v>44943.53125</v>
       </c>
@@ -4053,28 +4431,31 @@
         <v>7.96875</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126">
         <v>5.419</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126">
         <v>129124748.1595372</v>
       </c>
-      <c r="G126">
-        <v>230.579907427745</v>
-      </c>
-      <c r="H126" t="s">
-        <v>12</v>
-      </c>
-      <c r="I126">
+      <c r="H126">
+        <v>538.0197839980717</v>
+      </c>
+      <c r="I126" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126">
         <v>688500</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:10">
       <c r="A127" s="2">
         <v>44944.55347222222</v>
       </c>
@@ -4082,28 +4463,31 @@
         <v>8.990972222221899</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127">
         <v>6.472</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127">
         <v>154215790.7526342</v>
       </c>
-      <c r="G127">
-        <v>275.385340629704</v>
-      </c>
-      <c r="H127" t="s">
-        <v>12</v>
-      </c>
-      <c r="I127">
+      <c r="H127">
+        <v>642.5657948026426</v>
+      </c>
+      <c r="I127" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127">
         <v>776819.9999999721</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:10">
       <c r="A128" s="2">
         <v>44945.68888888889</v>
       </c>
@@ -4111,28 +4495,31 @@
         <v>10.12638888888614</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128">
         <v>5.591</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128">
         <v>133223190.0645825</v>
       </c>
-      <c r="G128">
-        <v>237.8985536867545</v>
-      </c>
-      <c r="H128" t="s">
-        <v>12</v>
-      </c>
-      <c r="I128">
+      <c r="H128">
+        <v>555.0966252690938</v>
+      </c>
+      <c r="I128" t="s">
+        <v>13</v>
+      </c>
+      <c r="J128">
         <v>874919.9999997625</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:10">
       <c r="A129" s="2">
         <v>44946.51597222222</v>
       </c>
@@ -4140,28 +4527,31 @@
         <v>10.95347222222335</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129">
         <v>5.905</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129">
         <v>140705229.3563512</v>
       </c>
-      <c r="G129">
-        <v>251.2593381363415</v>
-      </c>
-      <c r="H129" t="s">
-        <v>12</v>
-      </c>
-      <c r="I129">
+      <c r="H129">
+        <v>586.2717889847968</v>
+      </c>
+      <c r="I129" t="s">
+        <v>13</v>
+      </c>
+      <c r="J129">
         <v>946380.0000000978</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:10">
       <c r="A130" s="2">
         <v>44948.41527777778</v>
       </c>
@@ -4169,28 +4559,31 @@
         <v>12.8527777777781</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130">
         <v>3.723</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130">
         <v>88712204.72374183</v>
       </c>
-      <c r="G130">
-        <v>158.4146512923961</v>
-      </c>
-      <c r="H130" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130">
+      <c r="H130">
+        <v>369.6341863489243</v>
+      </c>
+      <c r="I130" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130">
         <v>1110480.000000028</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:10">
       <c r="A131" s="2">
         <v>44949.55972222222</v>
       </c>
@@ -4198,28 +4591,31 @@
         <v>13.99722222222044</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D131">
         <v>3.371</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131">
         <v>80324695.70876545</v>
       </c>
-      <c r="G131">
-        <v>143.4369566227955</v>
-      </c>
-      <c r="H131" t="s">
-        <v>12</v>
-      </c>
-      <c r="I131">
+      <c r="H131">
+        <v>334.686232119856</v>
+      </c>
+      <c r="I131" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131">
         <v>1209359.999999846</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:10">
       <c r="A132" s="2">
         <v>44950.57916666667</v>
       </c>
@@ -4227,28 +4623,31 @@
         <v>15.01666666667006</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D132">
         <v>3.728</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132">
         <v>88831345.47679548</v>
       </c>
-      <c r="G132">
-        <v>158.6274026371348</v>
-      </c>
-      <c r="H132" t="s">
-        <v>12</v>
-      </c>
-      <c r="I132">
+      <c r="H132">
+        <v>370.1306061533145</v>
+      </c>
+      <c r="I132" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132">
         <v>1297440.000000293</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:10">
       <c r="A133" s="2">
         <v>44951.51458333333</v>
       </c>
@@ -4256,28 +4655,31 @@
         <v>15.95208333332994</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133">
         <v>2.904</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133">
         <v>69196949.37355527</v>
       </c>
-      <c r="G133">
-        <v>123.5659810242059</v>
-      </c>
-      <c r="H133" t="s">
-        <v>12</v>
-      </c>
-      <c r="I133">
+      <c r="H133">
+        <v>288.3206223898136</v>
+      </c>
+      <c r="I133" t="s">
+        <v>13</v>
+      </c>
+      <c r="J133">
         <v>1378259.999999707</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:10">
       <c r="A134" s="2">
         <v>44952.46666666667</v>
       </c>
@@ -4285,28 +4687,31 @@
         <v>16.90416666666715</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134">
         <v>2.092</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134">
         <v>49848491.07764382</v>
       </c>
-      <c r="G134">
-        <v>89.01516263864968</v>
-      </c>
-      <c r="H134" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134">
+      <c r="H134">
+        <v>207.7020461568493</v>
+      </c>
+      <c r="I134" t="s">
+        <v>13</v>
+      </c>
+      <c r="J134">
         <v>1460520.000000042</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:10">
       <c r="A135" s="2">
         <v>44953.53541666667</v>
       </c>
@@ -4314,28 +4719,31 @@
         <v>17.9729166666657</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135">
         <v>1.917</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135">
         <v>45678564.72076635</v>
       </c>
-      <c r="G135">
-        <v>81.56886557279707</v>
-      </c>
-      <c r="H135" t="s">
-        <v>12</v>
-      </c>
-      <c r="I135">
+      <c r="H135">
+        <v>190.3273530031931</v>
+      </c>
+      <c r="I135" t="s">
+        <v>13</v>
+      </c>
+      <c r="J135">
         <v>1552859.999999916</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:10">
       <c r="A136" s="2">
         <v>44954.88125</v>
       </c>
@@ -4343,28 +4751,31 @@
         <v>19.31874999999854</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136">
         <v>3.342</v>
       </c>
       <c r="E136" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136">
         <v>79633679.34105432</v>
       </c>
-      <c r="G136">
-        <v>142.2029988233113</v>
-      </c>
-      <c r="H136" t="s">
-        <v>12</v>
-      </c>
-      <c r="I136">
+      <c r="H136">
+        <v>331.806997254393</v>
+      </c>
+      <c r="I136" t="s">
+        <v>13</v>
+      </c>
+      <c r="J136">
         <v>1669139.999999874</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:10">
       <c r="A137" s="2">
         <v>44955.57083333333</v>
       </c>
@@ -4372,28 +4783,31 @@
         <v>20.00833333333139</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D137">
         <v>1.96</v>
       </c>
       <c r="E137" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137">
         <v>46703175.19702767</v>
       </c>
-      <c r="G137">
-        <v>83.39852713754942</v>
-      </c>
-      <c r="H137" t="s">
-        <v>12</v>
-      </c>
-      <c r="I137">
+      <c r="H137">
+        <v>194.5965633209486</v>
+      </c>
+      <c r="I137" t="s">
+        <v>13</v>
+      </c>
+      <c r="J137">
         <v>1728719.999999832</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:10">
       <c r="A138" s="2">
         <v>44956.57291666666</v>
       </c>
@@ -4401,28 +4815,31 @@
         <v>21.01041666666424</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D138">
         <v>1.641</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138">
         <v>39101995.15220531</v>
       </c>
-      <c r="G138">
-        <v>69.82499134322379</v>
-      </c>
-      <c r="H138" t="s">
-        <v>12</v>
-      </c>
-      <c r="I138">
+      <c r="H138">
+        <v>162.9249798008555</v>
+      </c>
+      <c r="I138" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138">
         <v>1815299.99999979</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:10">
       <c r="A139" s="2">
         <v>44957.75902777778</v>
       </c>
@@ -4430,28 +4847,31 @@
         <v>22.1965277777781</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D139">
         <v>2.519</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139">
         <v>60023111.38842484</v>
       </c>
-      <c r="G139">
-        <v>107.1841274793301</v>
-      </c>
-      <c r="H139" t="s">
-        <v>12</v>
-      </c>
-      <c r="I139">
+      <c r="H139">
+        <v>250.0962974517702</v>
+      </c>
+      <c r="I139" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139">
         <v>1917780.000000028</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:10">
       <c r="A140" s="2">
         <v>44958.575</v>
       </c>
@@ -4459,28 +4879,31 @@
         <v>23.01249999999709</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D140">
         <v>2.075</v>
       </c>
       <c r="E140" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140">
         <v>49443412.51726144</v>
       </c>
-      <c r="G140">
-        <v>88.29180806653829</v>
-      </c>
-      <c r="H140" t="s">
-        <v>12</v>
-      </c>
-      <c r="I140">
+      <c r="H140">
+        <v>206.0142188219227</v>
+      </c>
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140">
         <v>1988279.999999749</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:10">
       <c r="A141" s="2">
         <v>44959.67708333334</v>
       </c>
@@ -4488,28 +4911,31 @@
         <v>24.11458333333576</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141">
         <v>2.08</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141">
         <v>49562553.27031508</v>
       </c>
-      <c r="G141">
-        <v>88.50455941127694</v>
-      </c>
-      <c r="H141" t="s">
-        <v>12</v>
-      </c>
-      <c r="I141">
+      <c r="H141">
+        <v>206.5106386263128</v>
+      </c>
+      <c r="I141" t="s">
+        <v>13</v>
+      </c>
+      <c r="J141">
         <v>2083500.00000021</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:10">
       <c r="A142" s="2">
         <v>44961.85555555556</v>
       </c>
@@ -4517,28 +4943,31 @@
         <v>26.29305555555766</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142">
         <v>1.96</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142">
         <v>46703175.19702767</v>
       </c>
-      <c r="G142">
-        <v>83.39852713754942</v>
-      </c>
-      <c r="H142" t="s">
-        <v>12</v>
-      </c>
-      <c r="I142">
+      <c r="H142">
+        <v>194.5965633209486</v>
+      </c>
+      <c r="I142" t="s">
+        <v>13</v>
+      </c>
+      <c r="J142">
         <v>2271720.000000182</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:10">
       <c r="A143" s="2">
         <v>44962.64583333334</v>
       </c>
@@ -4546,28 +4975,31 @@
         <v>27.08333333333576</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143">
         <v>1.678</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143">
         <v>39983636.72480226</v>
       </c>
-      <c r="G143">
-        <v>71.39935129428974</v>
-      </c>
-      <c r="H143" t="s">
-        <v>12</v>
-      </c>
-      <c r="I143">
+      <c r="H143">
+        <v>166.5984863533427</v>
+      </c>
+      <c r="I143" t="s">
+        <v>13</v>
+      </c>
+      <c r="J143">
         <v>2340000.00000021</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:10">
       <c r="A144" s="2">
         <v>44964.70763888889</v>
       </c>
@@ -4575,28 +5007,31 @@
         <v>29.14513888888905</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144">
         <v>0.768</v>
       </c>
       <c r="E144" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144">
         <v>18300019.66903941</v>
       </c>
-      <c r="G144">
-        <v>32.6786065518561</v>
-      </c>
-      <c r="H144" t="s">
-        <v>12</v>
-      </c>
-      <c r="I144">
+      <c r="H144">
+        <v>76.25008195433089</v>
+      </c>
+      <c r="I144" t="s">
+        <v>13</v>
+      </c>
+      <c r="J144">
         <v>2518140.000000014</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:10">
       <c r="A145" s="2">
         <v>44965.68333333333</v>
       </c>
@@ -4604,28 +5039,31 @@
         <v>30.1208333333343</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D145">
         <v>0.761</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145">
         <v>18133222.61476431</v>
       </c>
-      <c r="G145">
-        <v>32.38075466922199</v>
-      </c>
-      <c r="H145" t="s">
-        <v>12</v>
-      </c>
-      <c r="I145">
+      <c r="H145">
+        <v>75.55509422818464</v>
+      </c>
+      <c r="I145" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145">
         <v>2602440.000000084</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:10">
       <c r="A146" s="2">
         <v>44967.51805555556</v>
       </c>
@@ -4633,28 +5071,31 @@
         <v>31.9555555555562</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D146">
         <v>0.547</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146">
         <v>13033998.38406844</v>
       </c>
-      <c r="G146">
-        <v>23.27499711440793</v>
-      </c>
-      <c r="H146" t="s">
-        <v>12</v>
-      </c>
-      <c r="I146">
+      <c r="H146">
+        <v>54.30832660028515</v>
+      </c>
+      <c r="I146" t="s">
+        <v>13</v>
+      </c>
+      <c r="J146">
         <v>2760960.000000056</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:10">
       <c r="A147" s="2">
         <v>44970.70625</v>
       </c>
@@ -4662,28 +5103,31 @@
         <v>35.14375000000291</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D147">
         <v>0.379</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147">
         <v>9030869.081466064</v>
       </c>
-      <c r="G147">
-        <v>16.1265519311894</v>
-      </c>
-      <c r="H147" t="s">
-        <v>12</v>
-      </c>
-      <c r="I147">
+      <c r="H147">
+        <v>37.62862117277527</v>
+      </c>
+      <c r="I147" t="s">
+        <v>13</v>
+      </c>
+      <c r="J147">
         <v>3036420.000000251</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:10">
       <c r="A148" s="2">
         <v>44971.57569444444</v>
       </c>
@@ -4691,28 +5135,31 @@
         <v>36.0131944444438</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148">
         <v>0.32</v>
       </c>
       <c r="E148" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148">
         <v>7625008.195433089</v>
       </c>
-      <c r="G148">
-        <v>13.61608606327337</v>
-      </c>
-      <c r="H148" t="s">
-        <v>12</v>
-      </c>
-      <c r="I148">
+      <c r="H148">
+        <v>31.7708674809712</v>
+      </c>
+      <c r="I148" t="s">
+        <v>13</v>
+      </c>
+      <c r="J148">
         <v>3111539.999999944</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:10">
       <c r="A149" s="2">
         <v>44972.51458333333</v>
       </c>
@@ -4720,28 +5167,31 @@
         <v>36.95208333332994</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149">
         <v>0.224</v>
       </c>
       <c r="E149" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149">
         <v>5337505.736803162</v>
       </c>
-      <c r="G149">
-        <v>9.531260244291362</v>
-      </c>
-      <c r="H149" t="s">
-        <v>12</v>
-      </c>
-      <c r="I149">
+      <c r="H149">
+        <v>22.23960723667984</v>
+      </c>
+      <c r="I149" t="s">
+        <v>13</v>
+      </c>
+      <c r="J149">
         <v>3192659.999999707</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:10">
       <c r="A150" s="2">
         <v>44973.59305555555</v>
       </c>
@@ -4749,28 +5199,31 @@
         <v>38.03055555555329</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150">
         <v>0.251</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150">
         <v>5980865.803292829</v>
       </c>
-      <c r="G150">
-        <v>10.68011750588005</v>
-      </c>
-      <c r="H150" t="s">
-        <v>12</v>
-      </c>
-      <c r="I150">
+      <c r="H150">
+        <v>24.92027418038679</v>
+      </c>
+      <c r="I150" t="s">
+        <v>13</v>
+      </c>
+      <c r="J150">
         <v>3285839.999999804</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:10">
       <c r="A151" s="2">
         <v>44974.65277777778</v>
       </c>
@@ -4778,28 +5231,31 @@
         <v>39.09027777778101</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D151">
         <v>0.229</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151">
         <v>5456646.489856804</v>
       </c>
-      <c r="G151">
-        <v>9.744011589030007</v>
-      </c>
-      <c r="H151" t="s">
-        <v>12</v>
-      </c>
-      <c r="I151">
+      <c r="H151">
+        <v>22.73602704107002</v>
+      </c>
+      <c r="I151" t="s">
+        <v>13</v>
+      </c>
+      <c r="J151">
         <v>3377400.000000279</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:10">
       <c r="A152" s="2">
         <v>44976.40625</v>
       </c>
@@ -4807,28 +5263,31 @@
         <v>40.84375</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D152">
         <v>0.209</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152">
         <v>4980083.477642235</v>
       </c>
-      <c r="G152">
-        <v>8.89300621007542</v>
-      </c>
-      <c r="H152" t="s">
-        <v>12</v>
-      </c>
-      <c r="I152">
+      <c r="H152">
+        <v>20.75034782350932</v>
+      </c>
+      <c r="I152" t="s">
+        <v>13</v>
+      </c>
+      <c r="J152">
         <v>3528900</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:10">
       <c r="A153" s="2">
         <v>44977.51041666666</v>
       </c>
@@ -4836,28 +5295,31 @@
         <v>41.94791666666424</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D153">
         <v>0.196</v>
       </c>
       <c r="E153" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153">
         <v>4670317.519702767</v>
       </c>
-      <c r="G153">
-        <v>8.339852713754942</v>
-      </c>
-      <c r="H153" t="s">
-        <v>12</v>
-      </c>
-      <c r="I153">
+      <c r="H153">
+        <v>19.45965633209486</v>
+      </c>
+      <c r="I153" t="s">
+        <v>13</v>
+      </c>
+      <c r="J153">
         <v>3624299.99999979</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:10">
       <c r="A154" s="2">
         <v>44978.54861111111</v>
       </c>
@@ -4865,28 +5327,31 @@
         <v>42.98611111110949</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D154">
         <v>0.203</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154">
         <v>4837114.573977866</v>
       </c>
-      <c r="G154">
-        <v>8.63770459638905</v>
-      </c>
-      <c r="H154" t="s">
-        <v>12</v>
-      </c>
-      <c r="I154">
+      <c r="H154">
+        <v>20.15464405824111</v>
+      </c>
+      <c r="I154" t="s">
+        <v>13</v>
+      </c>
+      <c r="J154">
         <v>3713999.99999986</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:10">
       <c r="A155" s="2">
         <v>44979.49305555555</v>
       </c>
@@ -4894,28 +5359,31 @@
         <v>43.93055555555475</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D155">
         <v>0.162</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155">
         <v>3860160.398938001</v>
       </c>
-      <c r="G155">
-        <v>6.893143569532145</v>
-      </c>
-      <c r="H155" t="s">
-        <v>12</v>
-      </c>
-      <c r="I155">
+      <c r="H155">
+        <v>16.08400166224167</v>
+      </c>
+      <c r="I155" t="s">
+        <v>13</v>
+      </c>
+      <c r="J155">
         <v>3795599.99999993</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:10">
       <c r="A156" s="2">
         <v>44981.51875</v>
       </c>
@@ -4923,28 +5391,31 @@
         <v>45.95625000000291</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D156">
         <v>0.158</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156">
         <v>3764847.796495087</v>
       </c>
-      <c r="G156">
-        <v>6.722942493741228</v>
-      </c>
-      <c r="H156" t="s">
-        <v>12</v>
-      </c>
-      <c r="I156">
+      <c r="H156">
+        <v>15.68686581872953</v>
+      </c>
+      <c r="I156" t="s">
+        <v>13</v>
+      </c>
+      <c r="J156">
         <v>3970620.000000251</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:10">
       <c r="A157" s="2">
         <v>44983.44375</v>
       </c>
@@ -4952,28 +5423,31 @@
         <v>47.88124999999854</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D157">
         <v>0.162</v>
       </c>
       <c r="E157" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157">
         <v>3860160.398938001</v>
       </c>
-      <c r="G157">
-        <v>6.893143569532145</v>
-      </c>
-      <c r="H157" t="s">
-        <v>12</v>
-      </c>
-      <c r="I157">
+      <c r="H157">
+        <v>16.08400166224167</v>
+      </c>
+      <c r="I157" t="s">
+        <v>13</v>
+      </c>
+      <c r="J157">
         <v>4136939.999999874</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:10">
       <c r="A158" s="2">
         <v>44985.73333333333</v>
       </c>
@@ -4981,28 +5455,31 @@
         <v>50.17083333332994</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D158">
         <v>0.153</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158">
         <v>3645707.043441446</v>
       </c>
-      <c r="G158">
-        <v>6.510191149002583</v>
-      </c>
-      <c r="H158" t="s">
-        <v>12</v>
-      </c>
-      <c r="I158">
+      <c r="H158">
+        <v>15.19044601433936</v>
+      </c>
+      <c r="I158" t="s">
+        <v>13</v>
+      </c>
+      <c r="J158">
         <v>4334759.999999707</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:10">
       <c r="A159" s="2">
         <v>44986.67847222222</v>
       </c>
@@ -5010,28 +5487,31 @@
         <v>51.1159722222219</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D159">
         <v>0.162</v>
       </c>
       <c r="E159" t="s">
-        <v>12</v>
-      </c>
-      <c r="F159">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159">
         <v>3860160.398938001</v>
       </c>
-      <c r="G159">
-        <v>6.893143569532145</v>
-      </c>
-      <c r="H159" t="s">
-        <v>12</v>
-      </c>
-      <c r="I159">
+      <c r="H159">
+        <v>16.08400166224167</v>
+      </c>
+      <c r="I159" t="s">
+        <v>13</v>
+      </c>
+      <c r="J159">
         <v>4416419.999999972</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:10">
       <c r="A160" s="2">
         <v>44987.57222222222</v>
       </c>
@@ -5039,28 +5519,31 @@
         <v>52.00972222222481</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D160">
         <v>0.102</v>
       </c>
       <c r="E160" t="s">
-        <v>12</v>
-      </c>
-      <c r="F160">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160">
         <v>2430471.362294297</v>
       </c>
-      <c r="G160">
-        <v>4.340127432668387</v>
-      </c>
-      <c r="H160" t="s">
-        <v>12</v>
-      </c>
-      <c r="I160">
+      <c r="H160">
+        <v>10.12696400955957</v>
+      </c>
+      <c r="I160" t="s">
+        <v>13</v>
+      </c>
+      <c r="J160">
         <v>4493640.000000224</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:10">
       <c r="A161" s="2">
         <v>44990.54722222222</v>
       </c>
@@ -5068,28 +5551,31 @@
         <v>54.98472222222335</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D161">
         <v>0.096</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161">
         <v>2287502.458629927</v>
       </c>
-      <c r="G161">
-        <v>4.084825818982012</v>
-      </c>
-      <c r="H161" t="s">
-        <v>12</v>
-      </c>
-      <c r="I161">
+      <c r="H161">
+        <v>9.531260244291362</v>
+      </c>
+      <c r="I161" t="s">
+        <v>13</v>
+      </c>
+      <c r="J161">
         <v>4750680.000000098</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:10">
       <c r="A162" s="2">
         <v>44991.45763888889</v>
       </c>
@@ -5097,28 +5583,31 @@
         <v>55.89513888888905</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D162">
         <v>0.124</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162">
         <v>2954690.675730322</v>
       </c>
-      <c r="G162">
-        <v>5.276233349518432</v>
-      </c>
-      <c r="H162" t="s">
-        <v>12</v>
-      </c>
-      <c r="I162">
+      <c r="H162">
+        <v>12.31121114887634</v>
+      </c>
+      <c r="I162" t="s">
+        <v>13</v>
+      </c>
+      <c r="J162">
         <v>4829340.000000014</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:10">
       <c r="A163" s="2">
         <v>44993.53611111111</v>
       </c>
@@ -5126,28 +5615,31 @@
         <v>57.9736111111124</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D163">
         <v>0.127</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163">
         <v>3026175.127562507</v>
       </c>
-      <c r="G163">
-        <v>5.40388415636162</v>
-      </c>
-      <c r="H163" t="s">
-        <v>12</v>
-      </c>
-      <c r="I163">
+      <c r="H163">
+        <v>12.60906303151044</v>
+      </c>
+      <c r="I163" t="s">
+        <v>13</v>
+      </c>
+      <c r="J163">
         <v>5008920.000000112</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:10">
       <c r="A164" s="2">
         <v>44994.53472222222</v>
       </c>
@@ -5155,28 +5647,31 @@
         <v>58.97222222221899</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D164">
         <v>0.148</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164">
         <v>3526566.290387803</v>
       </c>
-      <c r="G164">
-        <v>6.297439804263935</v>
-      </c>
-      <c r="H164" t="s">
-        <v>12</v>
-      </c>
-      <c r="I164">
+      <c r="H164">
+        <v>14.69402620994918</v>
+      </c>
+      <c r="I164" t="s">
+        <v>13</v>
+      </c>
+      <c r="J164">
         <v>5095199.999999721</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:10">
       <c r="A165" s="2">
         <v>44997.58958333333</v>
       </c>
@@ -5184,28 +5679,31 @@
         <v>62.0270833333343</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D165">
         <v>0.136</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165">
         <v>3240628.483059063</v>
       </c>
-      <c r="G165">
-        <v>5.786836576891185</v>
-      </c>
-      <c r="H165" t="s">
-        <v>12</v>
-      </c>
-      <c r="I165">
+      <c r="H165">
+        <v>13.50261867941276</v>
+      </c>
+      <c r="I165" t="s">
+        <v>13</v>
+      </c>
+      <c r="J165">
         <v>5359140.000000084</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:10">
       <c r="A166" s="2">
         <v>44998.4375</v>
       </c>
@@ -5213,28 +5711,31 @@
         <v>62.875</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D166">
         <v>0.129</v>
       </c>
       <c r="E166" t="s">
-        <v>12</v>
-      </c>
-      <c r="F166">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166">
         <v>3073831.428783964</v>
       </c>
-      <c r="G166">
-        <v>5.48898469425708</v>
-      </c>
-      <c r="H166" t="s">
-        <v>12</v>
-      </c>
-      <c r="I166">
+      <c r="H166">
+        <v>12.80763095326652</v>
+      </c>
+      <c r="I166" t="s">
+        <v>13</v>
+      </c>
+      <c r="J166">
         <v>5432400</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:10">
       <c r="A167" s="2">
         <v>45001.55486111111</v>
       </c>
@@ -5242,28 +5743,31 @@
         <v>65.99236111110804</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D167">
         <v>0.115</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
-      </c>
-      <c r="F167">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167">
         <v>2740237.320233766</v>
       </c>
-      <c r="G167">
-        <v>4.893280928988869</v>
-      </c>
-      <c r="H167" t="s">
-        <v>12</v>
-      </c>
-      <c r="I167">
+      <c r="H167">
+        <v>11.41765550097403</v>
+      </c>
+      <c r="I167" t="s">
+        <v>13</v>
+      </c>
+      <c r="J167">
         <v>5701739.999999735</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:10">
       <c r="A168" s="2">
         <v>45005.64375</v>
       </c>
@@ -5271,28 +5775,31 @@
         <v>70.08125000000291</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D168">
         <v>0.134</v>
       </c>
       <c r="E168" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168">
         <v>3192972.181837606</v>
       </c>
-      <c r="G168">
-        <v>5.701736038995727</v>
-      </c>
-      <c r="H168" t="s">
-        <v>12</v>
-      </c>
-      <c r="I168">
+      <c r="H168">
+        <v>13.30405075765669</v>
+      </c>
+      <c r="I168" t="s">
+        <v>13</v>
+      </c>
+      <c r="J168">
         <v>6055020.000000251</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:10">
       <c r="A169" s="2">
         <v>45007.44583333333</v>
       </c>
@@ -5300,28 +5807,31 @@
         <v>71.88333333333139</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D169">
         <v>0.155</v>
       </c>
       <c r="E169" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169">
         <v>3693363.344662902</v>
       </c>
-      <c r="G169">
-        <v>6.595291686898041</v>
-      </c>
-      <c r="H169" t="s">
-        <v>12</v>
-      </c>
-      <c r="I169">
+      <c r="H169">
+        <v>15.38901393609543</v>
+      </c>
+      <c r="I169" t="s">
+        <v>13</v>
+      </c>
+      <c r="J169">
         <v>6210719.999999832</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:10">
       <c r="A170" s="2">
         <v>45011.62777777778</v>
       </c>
@@ -5329,28 +5839,31 @@
         <v>76.06527777777956</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D170">
         <v>0.101</v>
       </c>
       <c r="E170" t="s">
-        <v>12</v>
-      </c>
-      <c r="F170">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170">
         <v>2406643.211683569</v>
       </c>
-      <c r="G170">
-        <v>4.297577163720659</v>
-      </c>
-      <c r="H170" t="s">
-        <v>12</v>
-      </c>
-      <c r="I170">
+      <c r="H170">
+        <v>10.02768004868154</v>
+      </c>
+      <c r="I170" t="s">
+        <v>13</v>
+      </c>
+      <c r="J170">
         <v>6572040.000000154</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:10">
       <c r="A171" s="2">
         <v>45015.625</v>
       </c>
@@ -5358,28 +5871,31 @@
         <v>80.0625</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D171">
         <v>0.105</v>
       </c>
       <c r="E171" t="s">
-        <v>12</v>
-      </c>
-      <c r="F171">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171">
         <v>2501955.814126482</v>
       </c>
-      <c r="G171">
-        <v>4.467778239511576</v>
-      </c>
-      <c r="H171" t="s">
-        <v>12</v>
-      </c>
-      <c r="I171">
+      <c r="H171">
+        <v>10.42481589219368</v>
+      </c>
+      <c r="I171" t="s">
+        <v>13</v>
+      </c>
+      <c r="J171">
         <v>6917400</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:10">
       <c r="A172" s="2">
         <v>45019.49305555555</v>
       </c>
@@ -5387,28 +5903,31 @@
         <v>83.93055555555475</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D172">
         <v>0.129</v>
       </c>
       <c r="E172" t="s">
-        <v>12</v>
-      </c>
-      <c r="F172">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172">
         <v>3073831.428783964</v>
       </c>
-      <c r="G172">
-        <v>5.48898469425708</v>
-      </c>
-      <c r="H172" t="s">
-        <v>12</v>
-      </c>
-      <c r="I172">
+      <c r="H172">
+        <v>12.80763095326652</v>
+      </c>
+      <c r="I172" t="s">
+        <v>13</v>
+      </c>
+      <c r="J172">
         <v>7251599.99999993</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:10">
       <c r="A173" s="2">
         <v>45021.35902777778</v>
       </c>
@@ -5416,28 +5935,31 @@
         <v>85.79652777777665</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D173">
         <v>0.096</v>
       </c>
       <c r="E173" t="s">
-        <v>12</v>
-      </c>
-      <c r="F173">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173">
         <v>2287502.458629927</v>
       </c>
-      <c r="G173">
-        <v>4.084825818982012</v>
-      </c>
-      <c r="H173" t="s">
-        <v>12</v>
-      </c>
-      <c r="I173">
+      <c r="H173">
+        <v>9.531260244291362</v>
+      </c>
+      <c r="I173" t="s">
+        <v>13</v>
+      </c>
+      <c r="J173">
         <v>7412819.999999902</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:10">
       <c r="A174" s="2">
         <v>45027.48472222222</v>
       </c>
@@ -5445,28 +5967,31 @@
         <v>91.92222222222335</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D174">
         <v>0.1</v>
       </c>
       <c r="E174" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174">
         <v>2382815.06107284</v>
       </c>
-      <c r="G174">
-        <v>4.25502689477293</v>
-      </c>
-      <c r="H174" t="s">
-        <v>12</v>
-      </c>
-      <c r="I174">
+      <c r="H174">
+        <v>9.928396087803501</v>
+      </c>
+      <c r="I174" t="s">
+        <v>13</v>
+      </c>
+      <c r="J174">
         <v>7942080.000000098</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:10">
       <c r="A175" s="2">
         <v>45029.48055555556</v>
       </c>
@@ -5474,24 +5999,27 @@
         <v>93.91805555555766</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D175">
         <v>0.081</v>
       </c>
       <c r="E175" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175">
         <v>1930080.199469001</v>
       </c>
-      <c r="G175">
-        <v>3.446571784766073</v>
-      </c>
-      <c r="H175" t="s">
-        <v>12</v>
-      </c>
-      <c r="I175">
+      <c r="H175">
+        <v>8.042000831120836</v>
+      </c>
+      <c r="I175" t="s">
+        <v>13</v>
+      </c>
+      <c r="J175">
         <v>8114520.000000182</v>
       </c>
     </row>

--- a/STORE_model/reference_pro99_axenic.xlsx
+++ b/STORE_model/reference_pro99_axenic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -31,13 +31,19 @@
     <t>Group</t>
   </si>
   <si>
+    <t>full name</t>
+  </si>
+  <si>
     <t>predicted</t>
   </si>
   <si>
-    <t>ref_Bp</t>
+    <t>ref_Bp[N]</t>
   </si>
   <si>
-    <t>full name</t>
+    <t>ref_Bp[C]</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>t</t>
@@ -414,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +454,14 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>44935.5625</v>
       </c>
@@ -457,28 +469,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0.335</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>7982430.454594015</v>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>14.25434009748931</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
+        <v>7982430.454594016</v>
+      </c>
+      <c r="H2">
+        <v>7.127170048744658</v>
       </c>
       <c r="I2">
+        <v>47.21750157293336</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>44936.45138888889</v>
       </c>
@@ -486,28 +504,34 @@
         <v>0.8888888888905058</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>0.531</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
         <v>12652747.97429678</v>
       </c>
-      <c r="G3">
-        <v>22.59419281124426</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
+      <c r="H3">
+        <v>11.29709640562213</v>
       </c>
       <c r="I3">
+        <v>74.84326368724662</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
         <v>76800.0000001397</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>44937.49652777778</v>
       </c>
@@ -515,28 +539,34 @@
         <v>1.934027777781012</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>0.719</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
         <v>17132440.28911372</v>
       </c>
-      <c r="G4">
-        <v>30.59364337341736</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
+      <c r="H4">
+        <v>15.29682168670868</v>
       </c>
       <c r="I4">
+        <v>101.341443674445</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
         <v>167100.0000002794</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>44938.68472222222</v>
       </c>
@@ -544,28 +574,34 @@
         <v>3.122222222220444</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>1.261</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>30047297.92012851</v>
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>53.65588914308664</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
+        <v>30047297.92012852</v>
+      </c>
+      <c r="H5">
+        <v>26.82794457154332</v>
       </c>
       <c r="I5">
+        <v>177.7351327864745</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
         <v>269759.9999998463</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>44939.77013888889</v>
       </c>
@@ -573,28 +609,34 @@
         <v>4.207638888889051</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>1.784</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>42509420.68953947</v>
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>75.90967980274907</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
+        <v>42509420.68953948</v>
+      </c>
+      <c r="H6">
+        <v>37.95483990137454</v>
       </c>
       <c r="I6">
+        <v>251.4508143466063</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
         <v>363540.000000014</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>44940.97638888889</v>
       </c>
@@ -602,28 +644,34 @@
         <v>5.413888888891961</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>3.184</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
         <v>75868831.54455924</v>
       </c>
-      <c r="G7">
-        <v>135.4800563295701</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
+      <c r="H7">
+        <v>67.74002816478504</v>
       </c>
       <c r="I7">
+        <v>448.7776865917009</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7">
         <v>467760.0000002654</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>44941.65763888889</v>
       </c>
@@ -631,28 +679,34 @@
         <v>6.09513888888614</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>3.944</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>93978226.00871281</v>
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>167.8182607298443</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
+        <v>93978226.00871283</v>
+      </c>
+      <c r="H8">
+        <v>83.90913036492218</v>
       </c>
       <c r="I8">
+        <v>555.8979886676094</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8">
         <v>526619.9999997625</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>44942.55069444444</v>
       </c>
@@ -660,28 +714,34 @@
         <v>6.988194444442343</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>4.975</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
         <v>118545049.2883738</v>
       </c>
-      <c r="G9">
-        <v>211.6875880149532</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
+      <c r="H9">
+        <v>105.8437940074766</v>
       </c>
       <c r="I9">
+        <v>701.2151352995327</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9">
         <v>603779.9999998184</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>44943.53125</v>
       </c>
@@ -689,28 +749,34 @@
         <v>7.96875</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>5.574</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
         <v>132818111.5042001</v>
       </c>
-      <c r="G10">
-        <v>237.1751991146431</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
+      <c r="H10">
+        <v>118.5875995573216</v>
       </c>
       <c r="I10">
+        <v>785.6428470672554</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10">
         <v>688500</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>44944.55347222222</v>
       </c>
@@ -718,28 +784,34 @@
         <v>8.990972222221899</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>6.429</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
         <v>153191180.2763729</v>
       </c>
-      <c r="G11">
-        <v>273.5556790649517</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
+      <c r="H11">
+        <v>136.7778395324759</v>
       </c>
       <c r="I11">
+        <v>906.1531869026526</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11">
         <v>776819.9999999721</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>44945.68888888889</v>
       </c>
@@ -747,28 +819,34 @@
         <v>10.12638888888614</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>5.98</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12">
-        <v>142492340.6521558</v>
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>254.4506083074212</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
+        <v>142492340.6521559</v>
+      </c>
+      <c r="H12">
+        <v>127.2253041537106</v>
       </c>
       <c r="I12">
+        <v>842.8676400183327</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12">
         <v>874919.9999997625</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>44946.51597222222</v>
       </c>
@@ -776,28 +854,34 @@
         <v>10.95347222222335</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>6.348</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
         <v>151261100.0769039</v>
       </c>
-      <c r="G13">
-        <v>270.1091072801856</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
+      <c r="H13">
+        <v>135.0545536400928</v>
       </c>
       <c r="I13">
+        <v>894.736417865615</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13">
         <v>946380.0000000978</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>44948.41527777778</v>
       </c>
@@ -805,28 +889,34 @@
         <v>12.8527777777781</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>5.062</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
         <v>120618098.3915072</v>
       </c>
-      <c r="G14">
-        <v>215.3894614134057</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
+      <c r="H14">
+        <v>107.6947307067029</v>
       </c>
       <c r="I14">
+        <v>713.4775909319065</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14">
         <v>1110480.000000028</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>44949.55972222222</v>
       </c>
@@ -834,28 +924,34 @@
         <v>13.99722222222044</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>4.238</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
         <v>100983702.288267</v>
       </c>
-      <c r="G15">
-        <v>180.3280398004768</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
+      <c r="H15">
+        <v>90.1640199002384</v>
       </c>
       <c r="I15">
+        <v>597.3366318390794</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15">
         <v>1209359.999999846</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>44950.57916666667</v>
       </c>
@@ -863,28 +959,34 @@
         <v>15.01666666667006</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>3.998</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>95264946.14169216</v>
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>170.1159752530218</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
+        <v>95264946.14169218</v>
+      </c>
+      <c r="H16">
+        <v>85.05798762651088</v>
       </c>
       <c r="I16">
+        <v>563.5091680256346</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16">
         <v>1297440.000000293</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>44951.51458333333</v>
       </c>
@@ -892,28 +994,34 @@
         <v>15.95208333332994</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>3.172</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <v>75582893.73723049</v>
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
       </c>
       <c r="G17">
-        <v>134.9694531021973</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
+        <v>75582893.73723051</v>
+      </c>
+      <c r="H17">
+        <v>67.48472655109867</v>
       </c>
       <c r="I17">
+        <v>447.0863134010287</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17">
         <v>1378259.999999707</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>44952.46666666667</v>
       </c>
@@ -921,28 +1029,34 @@
         <v>16.90416666666715</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>1.996</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18">
-        <v>47560988.61901389</v>
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
       </c>
       <c r="G18">
-        <v>84.93033681966767</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
+        <v>47560988.6190139</v>
+      </c>
+      <c r="H18">
+        <v>42.46516840983384</v>
       </c>
       <c r="I18">
+        <v>281.3317407151492</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18">
         <v>1460520.000000042</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>44953.53541666667</v>
       </c>
@@ -950,28 +1064,34 @@
         <v>17.9729166666657</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>1.967</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19">
-        <v>46869972.25130277</v>
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
       </c>
       <c r="G19">
-        <v>83.69637902018354</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
+        <v>46869972.25130278</v>
+      </c>
+      <c r="H19">
+        <v>41.84818951009178</v>
       </c>
       <c r="I19">
+        <v>277.244255504358</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19">
         <v>1552859.999999916</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>44954.88125</v>
       </c>
@@ -979,28 +1099,34 @@
         <v>19.31874999999854</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>3.328</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20">
-        <v>79300085.23250411</v>
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
       </c>
       <c r="G20">
-        <v>141.6072950580431</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
+        <v>79300085.23250413</v>
+      </c>
+      <c r="H20">
+        <v>70.80364752902156</v>
       </c>
       <c r="I20">
+        <v>469.0741648797679</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20">
         <v>1669139.999999874</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>44955.57083333333</v>
       </c>
@@ -1008,28 +1134,34 @@
         <v>20.00833333333139</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>2.036</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
         <v>48514114.64344303</v>
       </c>
-      <c r="G21">
-        <v>86.63234757757685</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
+      <c r="H21">
+        <v>43.31617378878843</v>
       </c>
       <c r="I21">
+        <v>286.9696513507234</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21">
         <v>1728719.999999832</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>44956.57291666666</v>
       </c>
@@ -1037,28 +1169,34 @@
         <v>21.01041666666424</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>1.744</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22">
-        <v>41556294.66511033</v>
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>74.2076690448399</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
+        <v>41556294.66511034</v>
+      </c>
+      <c r="H22">
+        <v>37.10383452241996</v>
       </c>
       <c r="I22">
+        <v>245.8129037110322</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22">
         <v>1815299.99999979</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>44957.75902777778</v>
       </c>
@@ -1066,28 +1204,34 @@
         <v>22.1965277777781</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>2.416</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23">
-        <v>57568811.87551982</v>
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>102.801449777714</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
+        <v>57568811.87551983</v>
+      </c>
+      <c r="H23">
+        <v>51.400724888857</v>
       </c>
       <c r="I23">
+        <v>340.5298023886776</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23">
         <v>1917780.000000028</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>44958.575</v>
       </c>
@@ -1095,28 +1239,34 @@
         <v>23.01249999999709</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>1.914</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24">
-        <v>45607080.26893416</v>
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
       </c>
       <c r="G24">
-        <v>81.44121476595387</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
+        <v>45607080.26893417</v>
+      </c>
+      <c r="H24">
+        <v>40.72060738297694</v>
       </c>
       <c r="I24">
+        <v>269.7740239122223</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24">
         <v>1988279.999999749</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>44959.67708333334</v>
       </c>
@@ -1124,28 +1274,34 @@
         <v>24.11458333333576</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>2.242</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>53422713.66925307</v>
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
       </c>
       <c r="G25">
-        <v>95.39770298080907</v>
-      </c>
-      <c r="H25" t="s">
-        <v>12</v>
+        <v>53422713.66925308</v>
+      </c>
+      <c r="H25">
+        <v>47.69885149040454</v>
       </c>
       <c r="I25">
+        <v>316.0048911239301</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25">
         <v>2083500.00000021</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>44961.85555555556</v>
       </c>
@@ -1153,28 +1309,34 @@
         <v>26.29305555555766</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <v>2.247</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
         <v>53541854.42230672</v>
       </c>
-      <c r="G26">
-        <v>95.61045432554772</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
+      <c r="H26">
+        <v>47.80522716277387</v>
       </c>
       <c r="I26">
+        <v>316.7096299533769</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26">
         <v>2271720.000000182</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>44962.64583333334</v>
       </c>
@@ -1182,28 +1344,34 @@
         <v>27.08333333333576</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>2.272</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27">
-        <v>54137558.18757492</v>
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
       </c>
       <c r="G27">
-        <v>96.67421104924094</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
+        <v>54137558.18757493</v>
+      </c>
+      <c r="H27">
+        <v>48.33710552462048</v>
       </c>
       <c r="I27">
+        <v>320.2333241006107</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27">
         <v>2340000.00000021</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>44964.70763888889</v>
       </c>
@@ -1211,28 +1379,34 @@
         <v>29.14513888888905</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>1.523</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28">
-        <v>36290273.38013935</v>
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>64.80405960739171</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
+        <v>36290273.38013936</v>
+      </c>
+      <c r="H28">
+        <v>32.40202980369586</v>
       </c>
       <c r="I28">
+        <v>214.6634474494851</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28">
         <v>2518140.000000014</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>44965.68333333333</v>
       </c>
@@ -1240,28 +1414,34 @@
         <v>30.1208333333343</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>1.178</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29">
         <v>28069561.41943806</v>
       </c>
-      <c r="G29">
-        <v>50.12421682042511</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
+      <c r="H29">
+        <v>25.06210841021256</v>
       </c>
       <c r="I29">
+        <v>166.0364682176582</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29">
         <v>2602440.000000084</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>44967.51805555556</v>
       </c>
@@ -1269,28 +1449,34 @@
         <v>31.9555555555562</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>0.8080000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30">
         <v>19253145.69346855</v>
       </c>
-      <c r="G30">
-        <v>34.38061730976527</v>
-      </c>
-      <c r="H30" t="s">
-        <v>12</v>
+      <c r="H30">
+        <v>17.19030865488264</v>
       </c>
       <c r="I30">
+        <v>113.8857948385975</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30">
         <v>2760960.000000056</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>44970.70625</v>
       </c>
@@ -1298,28 +1484,34 @@
         <v>35.14375000000291</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>0.496</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31">
         <v>11818762.70292129</v>
       </c>
-      <c r="G31">
-        <v>21.10493339807373</v>
-      </c>
-      <c r="H31" t="s">
-        <v>12</v>
+      <c r="H31">
+        <v>10.55246669903687</v>
       </c>
       <c r="I31">
+        <v>69.91009188111924</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31">
         <v>3036420.000000251</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>44971.57569444444</v>
       </c>
@@ -1327,28 +1519,34 @@
         <v>36.0131944444438</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>0.411</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32">
         <v>9793369.901009373</v>
       </c>
-      <c r="G32">
-        <v>17.48816053751674</v>
-      </c>
-      <c r="H32" t="s">
-        <v>12</v>
+      <c r="H32">
+        <v>8.744080268758371</v>
       </c>
       <c r="I32">
+        <v>57.92953178052421</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32">
         <v>3111539.999999944</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>44972.51458333333</v>
       </c>
@@ -1356,28 +1554,34 @@
         <v>36.95208333332994</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>0.408</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33">
-        <v>9721885.449177187</v>
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
       </c>
       <c r="G33">
-        <v>17.36050973067355</v>
-      </c>
-      <c r="H33" t="s">
-        <v>12</v>
+        <v>9721885.449177189</v>
+      </c>
+      <c r="H33">
+        <v>8.680254865336776</v>
       </c>
       <c r="I33">
+        <v>57.50668848285614</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33">
         <v>3192659.999999707</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>44973.59305555555</v>
       </c>
@@ -1385,28 +1589,34 @@
         <v>38.03055555555329</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>0.335</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34">
-        <v>7982430.454594015</v>
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>14.25434009748931</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
+        <v>7982430.454594016</v>
+      </c>
+      <c r="H34">
+        <v>7.127170048744658</v>
       </c>
       <c r="I34">
+        <v>47.21750157293336</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34">
         <v>3285839.999999804</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>44974.65277777778</v>
       </c>
@@ -1414,28 +1624,34 @@
         <v>39.09027777778101</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>0.26</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35">
-        <v>6195319.158789385</v>
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
       </c>
       <c r="G35">
-        <v>11.06306992640962</v>
-      </c>
-      <c r="H35" t="s">
-        <v>12</v>
+        <v>6195319.158789386</v>
+      </c>
+      <c r="H35">
+        <v>5.53153496320481</v>
       </c>
       <c r="I35">
+        <v>36.64641913123187</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35">
         <v>3377400.000000279</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>44976.40625</v>
       </c>
@@ -1443,28 +1659,34 @@
         <v>40.84375</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>0.212</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36">
-        <v>5051567.929474421</v>
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
       </c>
       <c r="G36">
-        <v>9.02065701691861</v>
-      </c>
-      <c r="H36" t="s">
-        <v>12</v>
+        <v>5051567.929474422</v>
+      </c>
+      <c r="H36">
+        <v>4.510328508459306</v>
       </c>
       <c r="I36">
+        <v>29.8809263685429</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36">
         <v>3528900</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>44977.51041666666</v>
       </c>
@@ -1472,28 +1694,34 @@
         <v>41.94791666666424</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>0.22</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37">
-        <v>5242193.134360248</v>
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
       </c>
       <c r="G37">
-        <v>9.361059168500445</v>
-      </c>
-      <c r="H37" t="s">
-        <v>12</v>
+        <v>5242193.134360249</v>
+      </c>
+      <c r="H37">
+        <v>4.680529584250223</v>
       </c>
       <c r="I37">
+        <v>31.00850849565773</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37">
         <v>3624299.99999979</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>44978.54861111111</v>
       </c>
@@ -1501,28 +1729,34 @@
         <v>42.98611111110949</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>0.232</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38">
-        <v>5528130.941688989</v>
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
       </c>
       <c r="G38">
-        <v>9.871662395873196</v>
-      </c>
-      <c r="H38" t="s">
-        <v>12</v>
+        <v>5528130.94168899</v>
+      </c>
+      <c r="H38">
+        <v>4.935831197936599</v>
       </c>
       <c r="I38">
+        <v>32.69988168632997</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38">
         <v>3713999.99999986</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>44979.49305555555</v>
       </c>
@@ -1530,28 +1764,34 @@
         <v>43.93055555555475</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <v>0.22</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39">
-        <v>5242193.134360248</v>
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
       </c>
       <c r="G39">
-        <v>9.361059168500445</v>
-      </c>
-      <c r="H39" t="s">
-        <v>12</v>
+        <v>5242193.134360249</v>
+      </c>
+      <c r="H39">
+        <v>4.680529584250223</v>
       </c>
       <c r="I39">
+        <v>31.00850849565773</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39">
         <v>3795599.99999993</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>44981.51875</v>
       </c>
@@ -1559,28 +1799,34 @@
         <v>45.95625000000291</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>0.204</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40">
-        <v>4860942.724588593</v>
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
       </c>
       <c r="G40">
-        <v>8.680254865336774</v>
-      </c>
-      <c r="H40" t="s">
-        <v>12</v>
+        <v>4860942.724588594</v>
+      </c>
+      <c r="H40">
+        <v>4.340127432668388</v>
       </c>
       <c r="I40">
+        <v>28.75334424142807</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40">
         <v>3970620.000000251</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>44983.44375</v>
       </c>
@@ -1588,28 +1834,34 @@
         <v>47.88124999999854</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>0.161</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41">
         <v>3836332.248327273</v>
       </c>
-      <c r="G41">
-        <v>6.850593300584417</v>
-      </c>
-      <c r="H41" t="s">
-        <v>12</v>
+      <c r="H41">
+        <v>3.425296650292209</v>
       </c>
       <c r="I41">
+        <v>22.69259030818588</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41">
         <v>4136939.999999874</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>44985.73333333333</v>
       </c>
@@ -1617,28 +1869,34 @@
         <v>50.17083333332994</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>0.131</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42">
         <v>3121487.730005421</v>
       </c>
-      <c r="G42">
-        <v>5.574085232152538</v>
-      </c>
-      <c r="H42" t="s">
-        <v>12</v>
+      <c r="H42">
+        <v>2.78704261607627</v>
       </c>
       <c r="I42">
+        <v>18.46415733150529</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42">
         <v>4334759.999999707</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>44986.67847222222</v>
       </c>
@@ -1646,28 +1904,34 @@
         <v>51.1159722222219</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>0.142</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43">
         <v>3383597.386723433</v>
       </c>
-      <c r="G43">
-        <v>6.042138190577559</v>
-      </c>
-      <c r="H43" t="s">
-        <v>12</v>
+      <c r="H43">
+        <v>3.02106909528878</v>
       </c>
       <c r="I43">
+        <v>20.01458275628817</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43">
         <v>4416419.999999972</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>44987.57222222222</v>
       </c>
@@ -1675,28 +1939,34 @@
         <v>52.00972222222481</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>0.151</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44">
         <v>3598050.742219989</v>
       </c>
-      <c r="G44">
-        <v>6.425090611107124</v>
-      </c>
-      <c r="H44" t="s">
-        <v>12</v>
+      <c r="H44">
+        <v>3.212545305553562</v>
       </c>
       <c r="I44">
+        <v>21.28311264929235</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44">
         <v>4493640.000000224</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>44990.54722222222</v>
       </c>
@@ -1704,28 +1974,34 @@
         <v>54.98472222222335</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>0.147</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45">
         <v>3502738.139777075</v>
       </c>
-      <c r="G45">
-        <v>6.254889535316206</v>
-      </c>
-      <c r="H45" t="s">
-        <v>12</v>
+      <c r="H45">
+        <v>3.127444767658103</v>
       </c>
       <c r="I45">
+        <v>20.71932158573494</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45">
         <v>4750680.000000098</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>44991.45763888889</v>
       </c>
@@ -1733,28 +2009,34 @@
         <v>55.89513888888905</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>0.148</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46">
-        <v>3526566.290387803</v>
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
       </c>
       <c r="G46">
-        <v>6.297439804263935</v>
-      </c>
-      <c r="H46" t="s">
-        <v>12</v>
+        <v>3526566.290387804</v>
+      </c>
+      <c r="H46">
+        <v>3.148719902131968</v>
       </c>
       <c r="I46">
+        <v>20.86026935162429</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46">
         <v>4829340.000000014</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>44993.53611111111</v>
       </c>
@@ -1762,28 +2044,34 @@
         <v>57.9736111111124</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D47">
         <v>0.174</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47">
         <v>4146098.206266742</v>
       </c>
-      <c r="G47">
-        <v>7.403746796904898</v>
-      </c>
-      <c r="H47" t="s">
-        <v>12</v>
+      <c r="H47">
+        <v>3.701873398452449</v>
       </c>
       <c r="I47">
+        <v>24.52491126474748</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47">
         <v>5008920.000000112</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>44994.53472222222</v>
       </c>
@@ -1791,28 +2079,34 @@
         <v>58.97222222221899</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>0.142</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48">
         <v>3383597.386723433</v>
       </c>
-      <c r="G48">
-        <v>6.042138190577559</v>
-      </c>
-      <c r="H48" t="s">
-        <v>12</v>
+      <c r="H48">
+        <v>3.02106909528878</v>
       </c>
       <c r="I48">
+        <v>20.01458275628817</v>
+      </c>
+      <c r="J48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48">
         <v>5095199.999999721</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>44997.58958333333</v>
       </c>
@@ -1820,28 +2114,34 @@
         <v>62.0270833333343</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D49">
         <v>0.175</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49">
-        <v>4169926.35687747</v>
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
       </c>
       <c r="G49">
-        <v>7.446297065852626</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
+        <v>4169926.356877471</v>
+      </c>
+      <c r="H49">
+        <v>3.723148532926314</v>
       </c>
       <c r="I49">
+        <v>24.66585903063683</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49">
         <v>5359140.000000084</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>44998.4375</v>
       </c>
@@ -1849,28 +2149,34 @@
         <v>62.875</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>0.121</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50">
         <v>2883206.223898137</v>
       </c>
-      <c r="G50">
-        <v>5.148582542675245</v>
-      </c>
-      <c r="H50" t="s">
-        <v>12</v>
+      <c r="H50">
+        <v>2.574291271337623</v>
       </c>
       <c r="I50">
+        <v>17.05467967261175</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50">
         <v>5432400</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>45001.55486111111</v>
       </c>
@@ -1878,28 +2184,34 @@
         <v>65.99236111110804</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>0.129</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51">
         <v>3073831.428783964</v>
       </c>
-      <c r="G51">
-        <v>5.48898469425708</v>
-      </c>
-      <c r="H51" t="s">
-        <v>12</v>
+      <c r="H51">
+        <v>2.74449234712854</v>
       </c>
       <c r="I51">
+        <v>18.18226179972658</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51">
         <v>5701739.999999735</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>45005.64375</v>
       </c>
@@ -1907,28 +2219,34 @@
         <v>70.08125000000291</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>0.113</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52">
         <v>2692581.01901231</v>
       </c>
-      <c r="G52">
-        <v>4.808180391093411</v>
-      </c>
-      <c r="H52" t="s">
-        <v>12</v>
+      <c r="H52">
+        <v>2.404090195546706</v>
       </c>
       <c r="I52">
+        <v>15.92709754549693</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52">
         <v>6055020.000000251</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>45007.44583333333</v>
       </c>
@@ -1936,28 +2254,34 @@
         <v>71.88333333333139</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D53">
         <v>0.119</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53">
         <v>2835549.92267668</v>
       </c>
-      <c r="G53">
-        <v>5.063482004779786</v>
-      </c>
-      <c r="H53" t="s">
-        <v>12</v>
+      <c r="H53">
+        <v>2.531741002389893</v>
       </c>
       <c r="I53">
+        <v>16.77278414083304</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53">
         <v>6210719.999999832</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>45011.62777777778</v>
       </c>
@@ -1965,28 +2289,34 @@
         <v>76.06527777777956</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <v>0.062</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54">
         <v>1477345.337865161</v>
       </c>
-      <c r="G54">
-        <v>2.638116674759216</v>
-      </c>
-      <c r="H54" t="s">
-        <v>12</v>
+      <c r="H54">
+        <v>1.319058337379608</v>
       </c>
       <c r="I54">
+        <v>8.738761485139905</v>
+      </c>
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54">
         <v>6572040.000000154</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>45015.625</v>
       </c>
@@ -1994,28 +2324,34 @@
         <v>80.0625</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D55">
         <v>0.08500000000000001</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55">
-        <v>2025392.801911914</v>
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
       </c>
       <c r="G55">
-        <v>3.61677286055699</v>
-      </c>
-      <c r="H55" t="s">
-        <v>12</v>
+        <v>2025392.801911915</v>
+      </c>
+      <c r="H55">
+        <v>1.808386430278496</v>
       </c>
       <c r="I55">
+        <v>11.98056010059503</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55">
         <v>6917400</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>45019.49305555555</v>
       </c>
@@ -2023,28 +2359,34 @@
         <v>83.93055555555475</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D56">
         <v>0.091</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56">
-        <v>2168361.705576284</v>
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
       </c>
       <c r="G56">
-        <v>3.872074474243365</v>
-      </c>
-      <c r="H56" t="s">
-        <v>12</v>
+        <v>2168361.705576285</v>
+      </c>
+      <c r="H56">
+        <v>1.936037237121683</v>
       </c>
       <c r="I56">
+        <v>12.82624669593115</v>
+      </c>
+      <c r="J56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56">
         <v>7251599.99999993</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>45021.35902777778</v>
       </c>
@@ -2052,28 +2394,34 @@
         <v>85.79652777777665</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D57">
         <v>0.136</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57">
-        <v>3240628.483059063</v>
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
       </c>
       <c r="G57">
-        <v>5.786836576891185</v>
-      </c>
-      <c r="H57" t="s">
-        <v>12</v>
+        <v>3240628.483059064</v>
+      </c>
+      <c r="H57">
+        <v>2.893418288445593</v>
       </c>
       <c r="I57">
+        <v>19.16889616095205</v>
+      </c>
+      <c r="J57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57">
         <v>7412819.999999902</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>45027.48472222222</v>
       </c>
@@ -2081,28 +2429,34 @@
         <v>91.92222222222335</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>0.114</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58">
         <v>2716409.169623038</v>
       </c>
-      <c r="G58">
-        <v>4.85073066004114</v>
-      </c>
-      <c r="H58" t="s">
-        <v>12</v>
+      <c r="H58">
+        <v>2.42536533002057</v>
       </c>
       <c r="I58">
+        <v>16.06804531138628</v>
+      </c>
+      <c r="J58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58">
         <v>7942080.000000098</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>45029.48055555556</v>
       </c>
@@ -2110,28 +2464,34 @@
         <v>93.91805555555766</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D59">
         <v>0.095</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59">
         <v>2263674.308019198</v>
       </c>
-      <c r="G59">
-        <v>4.042275550034282</v>
-      </c>
-      <c r="H59" t="s">
-        <v>12</v>
+      <c r="H59">
+        <v>2.021137775017142</v>
       </c>
       <c r="I59">
+        <v>13.39003775948856</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59">
         <v>8114520.000000182</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>44935.5625</v>
       </c>
@@ -2139,28 +2499,34 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D60">
         <v>0.334</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60">
-        <v>7958602.303983287</v>
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
       </c>
       <c r="G60">
-        <v>14.21178982854159</v>
-      </c>
-      <c r="H60" t="s">
-        <v>12</v>
+        <v>7958602.303983288</v>
+      </c>
+      <c r="H60">
+        <v>7.105894914270793</v>
       </c>
       <c r="I60">
+        <v>47.07655380704401</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>44936.45138888889</v>
       </c>
@@ -2168,28 +2534,34 @@
         <v>0.8888888888905058</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D61">
         <v>0.46</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61">
         <v>10960949.28093507</v>
       </c>
-      <c r="G61">
-        <v>19.57312371595548</v>
-      </c>
-      <c r="H61" t="s">
-        <v>12</v>
+      <c r="H61">
+        <v>9.786561857977739</v>
       </c>
       <c r="I61">
+        <v>64.83597230910253</v>
+      </c>
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61">
         <v>76800.0000001397</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>44937.49652777778</v>
       </c>
@@ -2197,28 +2569,34 @@
         <v>1.934027777781012</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>0.801</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62">
         <v>19086348.63919345</v>
       </c>
-      <c r="G62">
-        <v>34.08276542713116</v>
-      </c>
-      <c r="H62" t="s">
-        <v>12</v>
+      <c r="H62">
+        <v>17.04138271356559</v>
       </c>
       <c r="I62">
+        <v>112.899160477372</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62">
         <v>167100.0000002794</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>44938.68472222222</v>
       </c>
@@ -2226,28 +2604,34 @@
         <v>3.122222222220444</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>1.255</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63">
-        <v>29904329.01646414</v>
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
       </c>
       <c r="G63">
-        <v>53.40058752940026</v>
-      </c>
-      <c r="H63" t="s">
-        <v>12</v>
+        <v>29904329.01646415</v>
+      </c>
+      <c r="H63">
+        <v>26.70029376470014</v>
       </c>
       <c r="I63">
+        <v>176.8894461911384</v>
+      </c>
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63">
         <v>269759.9999998463</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>44939.77013888889</v>
       </c>
@@ -2255,28 +2639,34 @@
         <v>4.207638888889051</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>1.967</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64">
-        <v>46869972.25130277</v>
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
       </c>
       <c r="G64">
-        <v>83.69637902018354</v>
-      </c>
-      <c r="H64" t="s">
-        <v>12</v>
+        <v>46869972.25130278</v>
+      </c>
+      <c r="H64">
+        <v>41.84818951009178</v>
       </c>
       <c r="I64">
+        <v>277.244255504358</v>
+      </c>
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64">
         <v>363540.000000014</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>44940.97638888889</v>
       </c>
@@ -2284,28 +2674,34 @@
         <v>5.413888888891961</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>3.121</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65">
-        <v>74367658.05608334</v>
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
       </c>
       <c r="G65">
-        <v>132.7993893858631</v>
-      </c>
-      <c r="H65" t="s">
-        <v>12</v>
+        <v>74367658.05608335</v>
+      </c>
+      <c r="H65">
+        <v>66.39969469293158</v>
       </c>
       <c r="I65">
+        <v>439.8979773406717</v>
+      </c>
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65">
         <v>467760.0000002654</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>44941.65763888889</v>
       </c>
@@ -2313,28 +2709,34 @@
         <v>6.09513888888614</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D66">
         <v>3.799</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66">
-        <v>90523144.17015719</v>
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
       </c>
       <c r="G66">
-        <v>161.6484717324236</v>
-      </c>
-      <c r="H66" t="s">
-        <v>12</v>
+        <v>90523144.17015721</v>
+      </c>
+      <c r="H66">
+        <v>80.82423586621181</v>
       </c>
       <c r="I66">
+        <v>535.4605626136532</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66">
         <v>526619.9999997625</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>44942.55069444444</v>
       </c>
@@ -2342,28 +2744,34 @@
         <v>6.988194444442343</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>5.094</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67">
         <v>121380599.2110505</v>
       </c>
-      <c r="G67">
-        <v>216.751070019733</v>
-      </c>
-      <c r="H67" t="s">
-        <v>12</v>
+      <c r="H67">
+        <v>108.3755350098666</v>
       </c>
       <c r="I67">
+        <v>717.9879194403659</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67">
         <v>603779.9999998184</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>44943.53125</v>
       </c>
@@ -2371,28 +2779,34 @@
         <v>7.96875</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D68">
         <v>5.77</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68">
         <v>137488429.0239029</v>
       </c>
-      <c r="G68">
-        <v>245.515051828398</v>
-      </c>
-      <c r="H68" t="s">
-        <v>12</v>
+      <c r="H68">
+        <v>122.757525914199</v>
       </c>
       <c r="I68">
+        <v>813.2686091815685</v>
+      </c>
+      <c r="J68" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68">
         <v>688500</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>44944.55347222222</v>
       </c>
@@ -2400,28 +2814,34 @@
         <v>8.990972222221899</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>6.412</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69">
         <v>152786101.7159905</v>
       </c>
-      <c r="G69">
-        <v>272.8323244928402</v>
-      </c>
-      <c r="H69" t="s">
-        <v>12</v>
+      <c r="H69">
+        <v>136.4161622464201</v>
       </c>
       <c r="I69">
+        <v>903.7570748825334</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69">
         <v>776819.9999999721</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>44945.68888888889</v>
       </c>
@@ -2429,28 +2849,34 @@
         <v>10.12638888888614</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D70">
         <v>5.598</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70">
         <v>133389987.1188576</v>
       </c>
-      <c r="G70">
-        <v>238.1964055693886</v>
-      </c>
-      <c r="H70" t="s">
-        <v>12</v>
+      <c r="H70">
+        <v>119.0982027846943</v>
       </c>
       <c r="I70">
+        <v>789.0255934485998</v>
+      </c>
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70">
         <v>874919.9999997625</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>44946.51597222222</v>
       </c>
@@ -2458,28 +2884,34 @@
         <v>10.95347222222335</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D71">
         <v>5.863</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71">
-        <v>139704447.0307006</v>
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
       </c>
       <c r="G71">
-        <v>249.4722268405368</v>
-      </c>
-      <c r="H71" t="s">
-        <v>12</v>
+        <v>139704447.0307007</v>
+      </c>
+      <c r="H71">
+        <v>124.7361134202685</v>
       </c>
       <c r="I71">
+        <v>826.3767514092785</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71">
         <v>946380.0000000978</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>44948.41527777778</v>
       </c>
@@ -2487,28 +2919,34 @@
         <v>12.8527777777781</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>4.42</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72">
         <v>105320425.6994195</v>
       </c>
-      <c r="G72">
-        <v>188.0721887489635</v>
-      </c>
-      <c r="H72" t="s">
-        <v>12</v>
+      <c r="H72">
+        <v>94.03609437448175</v>
       </c>
       <c r="I72">
+        <v>622.9891252309416</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72">
         <v>1110480.000000028</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>44949.55972222222</v>
       </c>
@@ -2516,28 +2954,34 @@
         <v>13.99722222222044</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D73">
         <v>3.739</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73">
-        <v>89093455.1335135</v>
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
       </c>
       <c r="G73">
-        <v>159.0954555955599</v>
-      </c>
-      <c r="H73" t="s">
-        <v>12</v>
+        <v>89093455.13351351</v>
+      </c>
+      <c r="H73">
+        <v>79.54772779777993</v>
       </c>
       <c r="I73">
+        <v>527.003696660292</v>
+      </c>
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73">
         <v>1209359.999999846</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>44950.57916666667</v>
       </c>
@@ -2545,28 +2989,34 @@
         <v>15.01666666667006</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D74">
         <v>4.042</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74">
-        <v>96313384.76856419</v>
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
       </c>
       <c r="G74">
-        <v>171.9881870867218</v>
-      </c>
-      <c r="H74" t="s">
-        <v>12</v>
+        <v>96313384.76856421</v>
+      </c>
+      <c r="H74">
+        <v>85.99409354336092</v>
       </c>
       <c r="I74">
+        <v>569.7108697247661</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74">
         <v>1297440.000000293</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>44951.51458333333</v>
       </c>
@@ -2574,28 +3024,34 @@
         <v>15.95208333332994</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>3.441</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75">
-        <v>81992666.25151643</v>
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
       </c>
       <c r="G75">
-        <v>146.4154754491365</v>
-      </c>
-      <c r="H75" t="s">
-        <v>12</v>
+        <v>81992666.25151645</v>
+      </c>
+      <c r="H75">
+        <v>73.20773772456826</v>
       </c>
       <c r="I75">
+        <v>485.0012624252647</v>
+      </c>
+      <c r="J75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75">
         <v>1378259.999999707</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>44952.46666666667</v>
       </c>
@@ -2603,28 +3059,34 @@
         <v>16.90416666666715</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>2.179</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76">
-        <v>51921540.18077718</v>
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
       </c>
       <c r="G76">
-        <v>92.71703603710213</v>
-      </c>
-      <c r="H76" t="s">
-        <v>12</v>
+        <v>51921540.18077719</v>
+      </c>
+      <c r="H76">
+        <v>46.35851801855107</v>
       </c>
       <c r="I76">
+        <v>307.1251818729008</v>
+      </c>
+      <c r="J76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76">
         <v>1460520.000000042</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>44953.53541666667</v>
       </c>
@@ -2632,28 +3094,34 @@
         <v>17.9729166666657</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>2.029</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77">
-        <v>48347317.58916792</v>
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
       </c>
       <c r="G77">
-        <v>86.33449569494273</v>
-      </c>
-      <c r="H77" t="s">
-        <v>12</v>
+        <v>48347317.58916793</v>
+      </c>
+      <c r="H77">
+        <v>43.16724784747137</v>
       </c>
       <c r="I77">
+        <v>285.9830169894979</v>
+      </c>
+      <c r="J77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77">
         <v>1552859.999999916</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>44954.88125</v>
       </c>
@@ -2661,28 +3129,34 @@
         <v>19.31874999999854</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>3.39</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78">
-        <v>80777430.57036929</v>
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
       </c>
       <c r="G78">
-        <v>144.2454117328023</v>
-      </c>
-      <c r="H78" t="s">
-        <v>12</v>
+        <v>80777430.5703693</v>
+      </c>
+      <c r="H78">
+        <v>72.12270586640116</v>
       </c>
       <c r="I78">
+        <v>477.8129263649077</v>
+      </c>
+      <c r="J78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78">
         <v>1669139.999999874</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>44955.57083333333</v>
       </c>
@@ -2690,28 +3164,34 @@
         <v>20.00833333333139</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>2.033</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79">
         <v>48442630.19161084</v>
       </c>
-      <c r="G79">
-        <v>86.50469677073364</v>
-      </c>
-      <c r="H79" t="s">
-        <v>12</v>
+      <c r="H79">
+        <v>43.25234838536683</v>
       </c>
       <c r="I79">
+        <v>286.5468080530553</v>
+      </c>
+      <c r="J79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79">
         <v>1728719.999999832</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>44956.57291666666</v>
       </c>
@@ -2719,28 +3199,34 @@
         <v>21.01041666666424</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>1.791</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80">
         <v>42676217.74381457</v>
       </c>
-      <c r="G80">
-        <v>76.20753168538316</v>
-      </c>
-      <c r="H80" t="s">
-        <v>12</v>
+      <c r="H80">
+        <v>38.10376584269159</v>
       </c>
       <c r="I80">
+        <v>252.4374487078318</v>
+      </c>
+      <c r="J80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80">
         <v>1815299.99999979</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>44957.75902777778</v>
       </c>
@@ -2748,28 +3234,34 @@
         <v>22.1965277777781</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D81">
         <v>2.696</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81">
-        <v>64240694.04652377</v>
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
       </c>
       <c r="G81">
-        <v>114.7155250830782</v>
-      </c>
-      <c r="H81" t="s">
-        <v>12</v>
+        <v>64240694.04652379</v>
+      </c>
+      <c r="H81">
+        <v>57.3577625415391</v>
       </c>
       <c r="I81">
+        <v>379.9951768376965</v>
+      </c>
+      <c r="J81" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81">
         <v>1917780.000000028</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>44958.575</v>
       </c>
@@ -2777,28 +3269,34 @@
         <v>23.01249999999709</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D82">
         <v>2.053</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82">
         <v>48919193.20382541</v>
       </c>
-      <c r="G82">
-        <v>87.35570214968824</v>
-      </c>
-      <c r="H82" t="s">
-        <v>12</v>
+      <c r="H82">
+        <v>43.67785107484413</v>
       </c>
       <c r="I82">
+        <v>289.3657633708423</v>
+      </c>
+      <c r="J82" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82">
         <v>1988279.999999749</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>44959.67708333334</v>
       </c>
@@ -2806,28 +3304,34 @@
         <v>24.11458333333576</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>2.301</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83">
         <v>54828574.55528606</v>
       </c>
-      <c r="G83">
-        <v>97.90816884872513</v>
-      </c>
-      <c r="H83" t="s">
-        <v>12</v>
+      <c r="H83">
+        <v>48.95408442436257</v>
       </c>
       <c r="I83">
+        <v>324.320809311402</v>
+      </c>
+      <c r="J83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83">
         <v>2083500.00000021</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>44961.85555555556</v>
       </c>
@@ -2835,28 +3339,34 @@
         <v>26.29305555555766</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>2.099</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84">
-        <v>50015288.13191892</v>
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
       </c>
       <c r="G84">
-        <v>89.3130145212838</v>
-      </c>
-      <c r="H84" t="s">
-        <v>12</v>
+        <v>50015288.13191893</v>
+      </c>
+      <c r="H84">
+        <v>44.65650726064191</v>
       </c>
       <c r="I84">
+        <v>295.8493606017527</v>
+      </c>
+      <c r="J84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84">
         <v>2271720.000000182</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>44962.64583333334</v>
       </c>
@@ -2864,28 +3374,34 @@
         <v>27.08333333333576</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D85">
         <v>2.022</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85">
-        <v>48180520.53489282</v>
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
       </c>
       <c r="G85">
-        <v>86.03664381230863</v>
-      </c>
-      <c r="H85" t="s">
-        <v>12</v>
+        <v>48180520.53489283</v>
+      </c>
+      <c r="H85">
+        <v>43.01832190615432</v>
       </c>
       <c r="I85">
+        <v>284.9963826282724</v>
+      </c>
+      <c r="J85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85">
         <v>2340000.00000021</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>44964.70763888889</v>
       </c>
@@ -2893,28 +3409,34 @@
         <v>29.14513888888905</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D86">
         <v>0.975</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86">
-        <v>23232446.84546019</v>
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
       </c>
       <c r="G86">
-        <v>41.48651222403606</v>
-      </c>
-      <c r="H86" t="s">
-        <v>12</v>
+        <v>23232446.8454602</v>
+      </c>
+      <c r="H86">
+        <v>20.74325611201803</v>
       </c>
       <c r="I86">
+        <v>137.4240717421195</v>
+      </c>
+      <c r="J86" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86">
         <v>2518140.000000014</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>44965.68333333333</v>
       </c>
@@ -2922,28 +3444,34 @@
         <v>30.1208333333343</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>0.747</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87">
         <v>17799628.50621412</v>
       </c>
-      <c r="G87">
-        <v>31.78505090395378</v>
-      </c>
-      <c r="H87" t="s">
-        <v>12</v>
+      <c r="H87">
+        <v>15.89252545197689</v>
       </c>
       <c r="I87">
+        <v>105.2879811193469</v>
+      </c>
+      <c r="J87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87">
         <v>2602440.000000084</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>44967.51805555556</v>
       </c>
@@ -2951,28 +3479,34 @@
         <v>31.9555555555562</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D88">
         <v>0.53</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88">
-        <v>12628919.82368605</v>
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
       </c>
       <c r="G88">
-        <v>22.55164254229653</v>
-      </c>
-      <c r="H88" t="s">
-        <v>12</v>
+        <v>12628919.82368606</v>
+      </c>
+      <c r="H88">
+        <v>11.27582127114827</v>
       </c>
       <c r="I88">
+        <v>74.70231592135725</v>
+      </c>
+      <c r="J88" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88">
         <v>2760960.000000056</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>44970.70625</v>
       </c>
@@ -2980,28 +3514,34 @@
         <v>35.14375000000291</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>0.343</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89">
         <v>8173055.659479843</v>
       </c>
-      <c r="G89">
-        <v>14.59474224907115</v>
-      </c>
-      <c r="H89" t="s">
-        <v>12</v>
+      <c r="H89">
+        <v>7.297371124535576</v>
       </c>
       <c r="I89">
+        <v>48.34508370004819</v>
+      </c>
+      <c r="J89" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89">
         <v>3036420.000000251</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>44971.57569444444</v>
       </c>
@@ -3009,28 +3549,34 @@
         <v>36.0131944444438</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>0.326</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90">
-        <v>7767977.09909746</v>
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
       </c>
       <c r="G90">
-        <v>13.87138767695975</v>
-      </c>
-      <c r="H90" t="s">
-        <v>12</v>
+        <v>7767977.099097461</v>
+      </c>
+      <c r="H90">
+        <v>6.935693838479876</v>
       </c>
       <c r="I90">
+        <v>45.94897167992918</v>
+      </c>
+      <c r="J90" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90">
         <v>3111539.999999944</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>44972.51458333333</v>
       </c>
@@ -3038,28 +3584,34 @@
         <v>36.95208333332994</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D91">
         <v>0.285</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91">
-        <v>6791022.924057594</v>
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
       </c>
       <c r="G91">
-        <v>12.12682665010285</v>
-      </c>
-      <c r="H91" t="s">
-        <v>12</v>
+        <v>6791022.924057595</v>
+      </c>
+      <c r="H91">
+        <v>6.063413325051425</v>
       </c>
       <c r="I91">
+        <v>40.17011327846568</v>
+      </c>
+      <c r="J91" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91">
         <v>3192659.999999707</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>44973.59305555555</v>
       </c>
@@ -3067,28 +3619,34 @@
         <v>38.03055555555329</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D92">
         <v>0.249</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92">
-        <v>5933209.502071372</v>
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
       </c>
       <c r="G92">
-        <v>10.59501696798459</v>
-      </c>
-      <c r="H92" t="s">
-        <v>12</v>
+        <v>5933209.502071373</v>
+      </c>
+      <c r="H92">
+        <v>5.297508483992297</v>
       </c>
       <c r="I92">
+        <v>35.09599370644897</v>
+      </c>
+      <c r="J92" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92">
         <v>3285839.999999804</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>44974.65277777778</v>
       </c>
@@ -3096,28 +3654,34 @@
         <v>39.09027777778101</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D93">
         <v>0.209</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93">
-        <v>4980083.477642235</v>
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
       </c>
       <c r="G93">
-        <v>8.89300621007542</v>
-      </c>
-      <c r="H93" t="s">
-        <v>12</v>
+        <v>4980083.477642236</v>
+      </c>
+      <c r="H93">
+        <v>4.446503105037711</v>
       </c>
       <c r="I93">
+        <v>29.45808307087484</v>
+      </c>
+      <c r="J93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93">
         <v>3377400.000000279</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>44976.40625</v>
       </c>
@@ -3125,28 +3689,34 @@
         <v>40.84375</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D94">
         <v>0.158</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94">
-        <v>3764847.796495087</v>
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
       </c>
       <c r="G94">
-        <v>6.722942493741228</v>
-      </c>
-      <c r="H94" t="s">
-        <v>12</v>
+        <v>3764847.796495088</v>
+      </c>
+      <c r="H94">
+        <v>3.361471246870614</v>
       </c>
       <c r="I94">
+        <v>22.26974701051782</v>
+      </c>
+      <c r="J94" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94">
         <v>3528900</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>44977.51041666666</v>
       </c>
@@ -3154,28 +3724,34 @@
         <v>41.94791666666424</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>0.191</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95">
         <v>4551176.766649125</v>
       </c>
-      <c r="G95">
-        <v>8.127101369016296</v>
-      </c>
-      <c r="H95" t="s">
-        <v>12</v>
+      <c r="H95">
+        <v>4.063550684508148</v>
       </c>
       <c r="I95">
+        <v>26.92102328486648</v>
+      </c>
+      <c r="J95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95">
         <v>3624299.99999979</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>44978.54861111111</v>
       </c>
@@ -3183,28 +3759,34 @@
         <v>42.98611111110949</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D96">
         <v>0.222</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96">
         <v>5289849.435581706</v>
       </c>
-      <c r="G96">
-        <v>9.446159706395905</v>
-      </c>
-      <c r="H96" t="s">
-        <v>12</v>
+      <c r="H96">
+        <v>4.723079853197953</v>
       </c>
       <c r="I96">
+        <v>31.29040402743644</v>
+      </c>
+      <c r="J96" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96">
         <v>3713999.99999986</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>44979.49305555555</v>
       </c>
@@ -3212,28 +3794,34 @@
         <v>43.93055555555475</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>0.171</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97">
-        <v>4074613.754434557</v>
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
       </c>
       <c r="G97">
-        <v>7.276095990061711</v>
-      </c>
-      <c r="H97" t="s">
-        <v>12</v>
+        <v>4074613.754434558</v>
+      </c>
+      <c r="H97">
+        <v>3.638047995030856</v>
       </c>
       <c r="I97">
+        <v>24.10206796707942</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97">
         <v>3795599.99999993</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>44981.51875</v>
       </c>
@@ -3241,28 +3829,34 @@
         <v>45.95625000000291</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>0.132</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98">
-        <v>3145315.880616149</v>
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
       </c>
       <c r="G98">
-        <v>5.616635501100268</v>
-      </c>
-      <c r="H98" t="s">
-        <v>12</v>
+        <v>3145315.88061615</v>
+      </c>
+      <c r="H98">
+        <v>2.808317750550134</v>
       </c>
       <c r="I98">
+        <v>18.60510509739464</v>
+      </c>
+      <c r="J98" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98">
         <v>3970620.000000251</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>44983.44375</v>
       </c>
@@ -3270,28 +3864,34 @@
         <v>47.88124999999854</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D99">
         <v>0.132</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99">
-        <v>3145315.880616149</v>
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
       </c>
       <c r="G99">
-        <v>5.616635501100268</v>
-      </c>
-      <c r="H99" t="s">
-        <v>12</v>
+        <v>3145315.88061615</v>
+      </c>
+      <c r="H99">
+        <v>2.808317750550134</v>
       </c>
       <c r="I99">
+        <v>18.60510509739464</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99">
         <v>4136939.999999874</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>44985.73333333333</v>
       </c>
@@ -3299,28 +3899,34 @@
         <v>50.17083333332994</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D100">
         <v>0.121</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100">
         <v>2883206.223898137</v>
       </c>
-      <c r="G100">
-        <v>5.148582542675245</v>
-      </c>
-      <c r="H100" t="s">
-        <v>12</v>
+      <c r="H100">
+        <v>2.574291271337623</v>
       </c>
       <c r="I100">
+        <v>17.05467967261175</v>
+      </c>
+      <c r="J100" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100">
         <v>4334759.999999707</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>44986.67847222222</v>
       </c>
@@ -3328,28 +3934,34 @@
         <v>51.1159722222219</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>0.15</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101">
-        <v>3574222.59160926</v>
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
       </c>
       <c r="G101">
-        <v>6.382540342159394</v>
-      </c>
-      <c r="H101" t="s">
-        <v>12</v>
+        <v>3574222.591609261</v>
+      </c>
+      <c r="H101">
+        <v>3.191270171079697</v>
       </c>
       <c r="I101">
+        <v>21.14216488340299</v>
+      </c>
+      <c r="J101" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101">
         <v>4416419.999999972</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>44987.57222222222</v>
       </c>
@@ -3357,28 +3969,34 @@
         <v>52.00972222222481</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D102">
         <v>0.107</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102">
-        <v>2549612.115347939</v>
+        <v>14</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
       </c>
       <c r="G102">
-        <v>4.552878777407035</v>
-      </c>
-      <c r="H102" t="s">
-        <v>12</v>
+        <v>2549612.11534794</v>
+      </c>
+      <c r="H102">
+        <v>2.276439388703518</v>
       </c>
       <c r="I102">
+        <v>15.08141095016081</v>
+      </c>
+      <c r="J102" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102">
         <v>4493640.000000224</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>44990.54722222222</v>
       </c>
@@ -3386,28 +4004,34 @@
         <v>54.98472222222335</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D103">
         <v>0.135</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103">
-        <v>3216800.332448334</v>
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
       </c>
       <c r="G103">
-        <v>5.744286307943455</v>
-      </c>
-      <c r="H103" t="s">
-        <v>12</v>
+        <v>3216800.332448335</v>
+      </c>
+      <c r="H103">
+        <v>2.872143153971728</v>
       </c>
       <c r="I103">
+        <v>19.0279483950627</v>
+      </c>
+      <c r="J103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103">
         <v>4750680.000000098</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>44991.45763888889</v>
       </c>
@@ -3415,28 +4039,34 @@
         <v>55.89513888888905</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D104">
         <v>0.163</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104">
         <v>3883988.54954873</v>
       </c>
-      <c r="G104">
-        <v>6.935693838479875</v>
-      </c>
-      <c r="H104" t="s">
-        <v>12</v>
+      <c r="H104">
+        <v>3.467846919239938</v>
       </c>
       <c r="I104">
+        <v>22.97448583996459</v>
+      </c>
+      <c r="J104" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104">
         <v>4829340.000000014</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>44993.53611111111</v>
       </c>
@@ -3444,28 +4074,34 @@
         <v>57.9736111111124</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D105">
         <v>0.114</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105">
         <v>2716409.169623038</v>
       </c>
-      <c r="G105">
-        <v>4.85073066004114</v>
-      </c>
-      <c r="H105" t="s">
-        <v>12</v>
+      <c r="H105">
+        <v>2.42536533002057</v>
       </c>
       <c r="I105">
+        <v>16.06804531138628</v>
+      </c>
+      <c r="J105" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105">
         <v>5008920.000000112</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>44994.53472222222</v>
       </c>
@@ -3473,28 +4109,34 @@
         <v>58.97222222221899</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D106">
         <v>0.146</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106">
-        <v>3478909.989166346</v>
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
       </c>
       <c r="G106">
-        <v>6.212339266368477</v>
-      </c>
-      <c r="H106" t="s">
-        <v>12</v>
+        <v>3478909.989166347</v>
+      </c>
+      <c r="H106">
+        <v>3.106169633184239</v>
       </c>
       <c r="I106">
+        <v>20.57837381984558</v>
+      </c>
+      <c r="J106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106">
         <v>5095199.999999721</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>44997.58958333333</v>
       </c>
@@ -3502,28 +4144,34 @@
         <v>62.0270833333343</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D107">
         <v>0.161</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107">
         <v>3836332.248327273</v>
       </c>
-      <c r="G107">
-        <v>6.850593300584417</v>
-      </c>
-      <c r="H107" t="s">
-        <v>12</v>
+      <c r="H107">
+        <v>3.425296650292209</v>
       </c>
       <c r="I107">
+        <v>22.69259030818588</v>
+      </c>
+      <c r="J107" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107">
         <v>5359140.000000084</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>44998.4375</v>
       </c>
@@ -3531,28 +4179,34 @@
         <v>62.875</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>0.082</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108">
         <v>1953908.350079729</v>
       </c>
-      <c r="G108">
-        <v>3.489122053713802</v>
-      </c>
-      <c r="H108" t="s">
-        <v>12</v>
+      <c r="H108">
+        <v>1.744561026856901</v>
       </c>
       <c r="I108">
+        <v>11.55771680292697</v>
+      </c>
+      <c r="J108" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108">
         <v>5432400</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>45001.55486111111</v>
       </c>
@@ -3560,28 +4214,34 @@
         <v>65.99236111110804</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D109">
         <v>0.163</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109">
         <v>3883988.54954873</v>
       </c>
-      <c r="G109">
-        <v>6.935693838479875</v>
-      </c>
-      <c r="H109" t="s">
-        <v>12</v>
+      <c r="H109">
+        <v>3.467846919239938</v>
       </c>
       <c r="I109">
+        <v>22.97448583996459</v>
+      </c>
+      <c r="J109" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109">
         <v>5701739.999999735</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>45005.64375</v>
       </c>
@@ -3589,28 +4249,34 @@
         <v>70.08125000000291</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D110">
         <v>0.13</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110">
         <v>3097659.579394693</v>
       </c>
-      <c r="G110">
-        <v>5.531534963204809</v>
-      </c>
-      <c r="H110" t="s">
-        <v>12</v>
+      <c r="H110">
+        <v>2.765767481602405</v>
       </c>
       <c r="I110">
+        <v>18.32320956561593</v>
+      </c>
+      <c r="J110" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110">
         <v>6055020.000000251</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>45007.44583333333</v>
       </c>
@@ -3618,28 +4284,34 @@
         <v>71.88333333333139</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D111">
         <v>0.08500000000000001</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111">
-        <v>2025392.801911914</v>
+        <v>14</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
       </c>
       <c r="G111">
-        <v>3.61677286055699</v>
-      </c>
-      <c r="H111" t="s">
-        <v>12</v>
+        <v>2025392.801911915</v>
+      </c>
+      <c r="H111">
+        <v>1.808386430278496</v>
       </c>
       <c r="I111">
+        <v>11.98056010059503</v>
+      </c>
+      <c r="J111" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111">
         <v>6210719.999999832</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>45011.62777777778</v>
       </c>
@@ -3647,28 +4319,34 @@
         <v>76.06527777777956</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D112">
         <v>0.129</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112">
         <v>3073831.428783964</v>
       </c>
-      <c r="G112">
-        <v>5.48898469425708</v>
-      </c>
-      <c r="H112" t="s">
-        <v>12</v>
+      <c r="H112">
+        <v>2.74449234712854</v>
       </c>
       <c r="I112">
+        <v>18.18226179972658</v>
+      </c>
+      <c r="J112" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112">
         <v>6572040.000000154</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>45015.625</v>
       </c>
@@ -3676,28 +4354,34 @@
         <v>80.0625</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D113">
         <v>0.115</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113">
-        <v>2740237.320233766</v>
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
       </c>
       <c r="G113">
-        <v>4.893280928988869</v>
-      </c>
-      <c r="H113" t="s">
-        <v>12</v>
+        <v>2740237.320233767</v>
+      </c>
+      <c r="H113">
+        <v>2.446640464494435</v>
       </c>
       <c r="I113">
+        <v>16.20899307727563</v>
+      </c>
+      <c r="J113" t="s">
+        <v>14</v>
+      </c>
+      <c r="K113">
         <v>6917400</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>45019.49305555555</v>
       </c>
@@ -3705,28 +4389,34 @@
         <v>83.93055555555475</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D114">
         <v>0.113</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114">
         <v>2692581.01901231</v>
       </c>
-      <c r="G114">
-        <v>4.808180391093411</v>
-      </c>
-      <c r="H114" t="s">
-        <v>12</v>
+      <c r="H114">
+        <v>2.404090195546706</v>
       </c>
       <c r="I114">
+        <v>15.92709754549693</v>
+      </c>
+      <c r="J114" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114">
         <v>7251599.99999993</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>45021.35902777778</v>
       </c>
@@ -3734,28 +4424,34 @@
         <v>85.79652777777665</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D115">
         <v>0.14</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115">
+        <v>14</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115">
         <v>3335941.085501977</v>
       </c>
-      <c r="G115">
-        <v>5.957037652682102</v>
-      </c>
-      <c r="H115" t="s">
-        <v>12</v>
+      <c r="H115">
+        <v>2.978518826341051</v>
       </c>
       <c r="I115">
+        <v>19.73268722450947</v>
+      </c>
+      <c r="J115" t="s">
+        <v>14</v>
+      </c>
+      <c r="K115">
         <v>7412819.999999902</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>45027.48472222222</v>
       </c>
@@ -3763,28 +4459,34 @@
         <v>91.92222222222335</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D116">
         <v>0.13</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116">
         <v>3097659.579394693</v>
       </c>
-      <c r="G116">
-        <v>5.531534963204809</v>
-      </c>
-      <c r="H116" t="s">
-        <v>12</v>
+      <c r="H116">
+        <v>2.765767481602405</v>
       </c>
       <c r="I116">
+        <v>18.32320956561593</v>
+      </c>
+      <c r="J116" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116">
         <v>7942080.000000098</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>45029.48055555556</v>
       </c>
@@ -3792,28 +4494,34 @@
         <v>93.91805555555766</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D117">
         <v>0.123</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117">
-        <v>2930862.525119593</v>
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
       </c>
       <c r="G117">
-        <v>5.233683080570703</v>
-      </c>
-      <c r="H117" t="s">
-        <v>12</v>
+        <v>2930862.525119594</v>
+      </c>
+      <c r="H117">
+        <v>2.616841540285352</v>
       </c>
       <c r="I117">
+        <v>17.33657520439046</v>
+      </c>
+      <c r="J117" t="s">
+        <v>14</v>
+      </c>
+      <c r="K117">
         <v>8114520.000000182</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>44935.5625</v>
       </c>
@@ -3821,28 +4529,34 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D118">
         <v>0.318</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118">
-        <v>7577351.894211632</v>
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
       </c>
       <c r="G118">
-        <v>13.53098552537792</v>
-      </c>
-      <c r="H118" t="s">
-        <v>12</v>
+        <v>7577351.894211633</v>
+      </c>
+      <c r="H118">
+        <v>6.765492762688959</v>
       </c>
       <c r="I118">
+        <v>44.82138955281435</v>
+      </c>
+      <c r="J118" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>44936.45138888889</v>
       </c>
@@ -3850,28 +4564,34 @@
         <v>0.8888888888905058</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D119">
         <v>0.459</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119">
         <v>10937121.13032434</v>
       </c>
-      <c r="G119">
-        <v>19.53057344700775</v>
-      </c>
-      <c r="H119" t="s">
-        <v>12</v>
+      <c r="H119">
+        <v>9.765286723503875</v>
       </c>
       <c r="I119">
+        <v>64.69502454321318</v>
+      </c>
+      <c r="J119" t="s">
+        <v>14</v>
+      </c>
+      <c r="K119">
         <v>76800.0000001397</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>44937.49652777778</v>
       </c>
@@ -3879,28 +4599,34 @@
         <v>1.934027777781012</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D120">
         <v>0.715</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120">
+        <v>14</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120">
         <v>17037127.68667081</v>
       </c>
-      <c r="G120">
-        <v>30.42344229762644</v>
-      </c>
-      <c r="H120" t="s">
-        <v>12</v>
+      <c r="H120">
+        <v>15.21172114881323</v>
       </c>
       <c r="I120">
+        <v>100.7776526108876</v>
+      </c>
+      <c r="J120" t="s">
+        <v>14</v>
+      </c>
+      <c r="K120">
         <v>167100.0000002794</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>44938.68472222222</v>
       </c>
@@ -3908,28 +4634,34 @@
         <v>3.122222222220444</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D121">
         <v>1.308</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121">
         <v>31167220.99883275</v>
       </c>
-      <c r="G121">
-        <v>55.65575178362992</v>
-      </c>
-      <c r="H121" t="s">
-        <v>12</v>
+      <c r="H121">
+        <v>27.82787589181497</v>
       </c>
       <c r="I121">
+        <v>184.3596777832742</v>
+      </c>
+      <c r="J121" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121">
         <v>269759.9999998463</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>44939.77013888889</v>
       </c>
@@ -3937,28 +4669,34 @@
         <v>4.207638888889051</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D122">
         <v>1.998</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122">
-        <v>47608644.92023534</v>
+        <v>14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
       </c>
       <c r="G122">
-        <v>85.01543735756313</v>
-      </c>
-      <c r="H122" t="s">
-        <v>12</v>
+        <v>47608644.92023535</v>
+      </c>
+      <c r="H122">
+        <v>42.50771867878156</v>
       </c>
       <c r="I122">
+        <v>281.6136362469279</v>
+      </c>
+      <c r="J122" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122">
         <v>363540.000000014</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>44940.97638888889</v>
       </c>
@@ -3966,28 +4704,34 @@
         <v>5.413888888891961</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D123">
         <v>3.179</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123">
         <v>75749690.79150559</v>
       </c>
-      <c r="G123">
-        <v>135.2673049848314</v>
-      </c>
-      <c r="H123" t="s">
-        <v>12</v>
+      <c r="H123">
+        <v>67.63365249241571</v>
       </c>
       <c r="I123">
+        <v>448.072947762254</v>
+      </c>
+      <c r="J123" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123">
         <v>467760.0000002654</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>44941.65763888889</v>
       </c>
@@ -3995,28 +4739,34 @@
         <v>6.09513888888614</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D124">
         <v>3.955</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124">
-        <v>94240335.66543083</v>
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
       </c>
       <c r="G124">
-        <v>168.2863136882694</v>
-      </c>
-      <c r="H124" t="s">
-        <v>12</v>
+        <v>94240335.66543084</v>
+      </c>
+      <c r="H124">
+        <v>84.14315684413469</v>
       </c>
       <c r="I124">
+        <v>557.4484140923923</v>
+      </c>
+      <c r="J124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124">
         <v>526619.9999997625</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>44942.55069444444</v>
       </c>
@@ -4024,28 +4774,34 @@
         <v>6.988194444442343</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D125">
         <v>5.277</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125">
         <v>125741150.7728138</v>
       </c>
-      <c r="G125">
-        <v>224.5377692371675</v>
-      </c>
-      <c r="H125" t="s">
-        <v>12</v>
+      <c r="H125">
+        <v>112.2688846185838</v>
       </c>
       <c r="I125">
+        <v>743.7813605981174</v>
+      </c>
+      <c r="J125" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125">
         <v>603779.9999998184</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>44943.53125</v>
       </c>
@@ -4053,28 +4809,34 @@
         <v>7.96875</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D126">
         <v>5.419</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126">
         <v>129124748.1595372</v>
       </c>
-      <c r="G126">
-        <v>230.579907427745</v>
-      </c>
-      <c r="H126" t="s">
-        <v>12</v>
+      <c r="H126">
+        <v>115.2899537138725</v>
       </c>
       <c r="I126">
+        <v>763.7959433544056</v>
+      </c>
+      <c r="J126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126">
         <v>688500</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>44944.55347222222</v>
       </c>
@@ -4082,28 +4844,34 @@
         <v>8.990972222221899</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D127">
         <v>6.472</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127">
-        <v>154215790.7526342</v>
+        <v>14</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
       </c>
       <c r="G127">
-        <v>275.385340629704</v>
-      </c>
-      <c r="H127" t="s">
-        <v>12</v>
+        <v>154215790.7526343</v>
+      </c>
+      <c r="H127">
+        <v>137.692670314852</v>
       </c>
       <c r="I127">
+        <v>912.2139408358946</v>
+      </c>
+      <c r="J127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127">
         <v>776819.9999999721</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>44945.68888888889</v>
       </c>
@@ -4111,28 +4879,34 @@
         <v>10.12638888888614</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D128">
         <v>5.591</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128">
+        <v>14</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128">
         <v>133223190.0645825</v>
       </c>
-      <c r="G128">
-        <v>237.8985536867545</v>
-      </c>
-      <c r="H128" t="s">
-        <v>12</v>
+      <c r="H128">
+        <v>118.9492768433773</v>
       </c>
       <c r="I128">
+        <v>788.0389590873745</v>
+      </c>
+      <c r="J128" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128">
         <v>874919.9999997625</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>44946.51597222222</v>
       </c>
@@ -4140,28 +4914,34 @@
         <v>10.95347222222335</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D129">
         <v>5.905</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129">
         <v>140705229.3563512</v>
       </c>
-      <c r="G129">
-        <v>251.2593381363415</v>
-      </c>
-      <c r="H129" t="s">
-        <v>12</v>
+      <c r="H129">
+        <v>125.6296690681707</v>
       </c>
       <c r="I129">
+        <v>832.2965575766311</v>
+      </c>
+      <c r="J129" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129">
         <v>946380.0000000978</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>44948.41527777778</v>
       </c>
@@ -4169,28 +4949,34 @@
         <v>12.8527777777781</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D130">
         <v>3.723</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130">
-        <v>88712204.72374183</v>
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
       </c>
       <c r="G130">
-        <v>158.4146512923961</v>
-      </c>
-      <c r="H130" t="s">
-        <v>12</v>
+        <v>88712204.72374184</v>
+      </c>
+      <c r="H130">
+        <v>79.20732564619809</v>
       </c>
       <c r="I130">
+        <v>524.7485324060623</v>
+      </c>
+      <c r="J130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130">
         <v>1110480.000000028</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>44949.55972222222</v>
       </c>
@@ -4198,28 +4984,34 @@
         <v>13.99722222222044</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D131">
         <v>3.371</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131">
         <v>80324695.70876545</v>
       </c>
-      <c r="G131">
-        <v>143.4369566227955</v>
-      </c>
-      <c r="H131" t="s">
-        <v>12</v>
+      <c r="H131">
+        <v>71.71847831139773</v>
       </c>
       <c r="I131">
+        <v>475.13491881301</v>
+      </c>
+      <c r="J131" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131">
         <v>1209359.999999846</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>44950.57916666667</v>
       </c>
@@ -4227,28 +5019,34 @@
         <v>15.01666666667006</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D132">
         <v>3.728</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132">
-        <v>88831345.47679548</v>
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
       </c>
       <c r="G132">
-        <v>158.6274026371348</v>
-      </c>
-      <c r="H132" t="s">
-        <v>12</v>
+        <v>88831345.47679549</v>
+      </c>
+      <c r="H132">
+        <v>79.31370131856742</v>
       </c>
       <c r="I132">
+        <v>525.4532712355092</v>
+      </c>
+      <c r="J132" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132">
         <v>1297440.000000293</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>44951.51458333333</v>
       </c>
@@ -4256,28 +5054,34 @@
         <v>15.95208333332994</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D133">
         <v>2.904</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133">
-        <v>69196949.37355527</v>
+        <v>14</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
       </c>
       <c r="G133">
-        <v>123.5659810242059</v>
-      </c>
-      <c r="H133" t="s">
-        <v>12</v>
+        <v>69196949.37355529</v>
+      </c>
+      <c r="H133">
+        <v>61.78299051210295</v>
       </c>
       <c r="I133">
+        <v>409.3123121426821</v>
+      </c>
+      <c r="J133" t="s">
+        <v>14</v>
+      </c>
+      <c r="K133">
         <v>1378259.999999707</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>44952.46666666667</v>
       </c>
@@ -4285,28 +5089,34 @@
         <v>16.90416666666715</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D134">
         <v>2.092</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134">
-        <v>49848491.07764382</v>
+        <v>14</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
       </c>
       <c r="G134">
-        <v>89.01516263864968</v>
-      </c>
-      <c r="H134" t="s">
-        <v>12</v>
+        <v>49848491.07764383</v>
+      </c>
+      <c r="H134">
+        <v>44.50758131932485</v>
       </c>
       <c r="I134">
+        <v>294.8627262405271</v>
+      </c>
+      <c r="J134" t="s">
+        <v>14</v>
+      </c>
+      <c r="K134">
         <v>1460520.000000042</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>44953.53541666667</v>
       </c>
@@ -4314,28 +5124,34 @@
         <v>17.9729166666657</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D135">
         <v>1.917</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135">
         <v>45678564.72076635</v>
       </c>
-      <c r="G135">
-        <v>81.56886557279707</v>
-      </c>
-      <c r="H135" t="s">
-        <v>12</v>
+      <c r="H135">
+        <v>40.78443278639853</v>
       </c>
       <c r="I135">
+        <v>270.1968672098903</v>
+      </c>
+      <c r="J135" t="s">
+        <v>14</v>
+      </c>
+      <c r="K135">
         <v>1552859.999999916</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>44954.88125</v>
       </c>
@@ -4343,28 +5159,34 @@
         <v>19.31874999999854</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D136">
         <v>3.342</v>
       </c>
       <c r="E136" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136">
-        <v>79633679.34105432</v>
+        <v>14</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
       </c>
       <c r="G136">
-        <v>142.2029988233113</v>
-      </c>
-      <c r="H136" t="s">
-        <v>12</v>
+        <v>79633679.34105434</v>
+      </c>
+      <c r="H136">
+        <v>71.10149941165567</v>
       </c>
       <c r="I136">
+        <v>471.0474336022188</v>
+      </c>
+      <c r="J136" t="s">
+        <v>14</v>
+      </c>
+      <c r="K136">
         <v>1669139.999999874</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>44955.57083333333</v>
       </c>
@@ -4372,28 +5194,34 @@
         <v>20.00833333333139</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D137">
         <v>1.96</v>
       </c>
       <c r="E137" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137">
-        <v>46703175.19702767</v>
+        <v>14</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
       </c>
       <c r="G137">
-        <v>83.39852713754942</v>
-      </c>
-      <c r="H137" t="s">
-        <v>12</v>
+        <v>46703175.19702768</v>
+      </c>
+      <c r="H137">
+        <v>41.69926356877472</v>
       </c>
       <c r="I137">
+        <v>276.2576211431325</v>
+      </c>
+      <c r="J137" t="s">
+        <v>14</v>
+      </c>
+      <c r="K137">
         <v>1728719.999999832</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>44956.57291666666</v>
       </c>
@@ -4401,28 +5229,34 @@
         <v>21.01041666666424</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D138">
         <v>1.641</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138">
         <v>39101995.15220531</v>
       </c>
-      <c r="G138">
-        <v>69.82499134322379</v>
-      </c>
-      <c r="H138" t="s">
-        <v>12</v>
+      <c r="H138">
+        <v>34.91249567161189</v>
       </c>
       <c r="I138">
+        <v>231.2952838244288</v>
+      </c>
+      <c r="J138" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138">
         <v>1815299.99999979</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>44957.75902777778</v>
       </c>
@@ -4430,28 +5264,34 @@
         <v>22.1965277777781</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D139">
         <v>2.519</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139">
-        <v>60023111.38842484</v>
+        <v>14</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
       </c>
       <c r="G139">
-        <v>107.1841274793301</v>
-      </c>
-      <c r="H139" t="s">
-        <v>12</v>
+        <v>60023111.38842486</v>
+      </c>
+      <c r="H139">
+        <v>53.59206373966506</v>
       </c>
       <c r="I139">
+        <v>355.047422275281</v>
+      </c>
+      <c r="J139" t="s">
+        <v>14</v>
+      </c>
+      <c r="K139">
         <v>1917780.000000028</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>44958.575</v>
       </c>
@@ -4459,28 +5299,34 @@
         <v>23.01249999999709</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D140">
         <v>2.075</v>
       </c>
       <c r="E140" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140">
-        <v>49443412.51726144</v>
+        <v>14</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
       </c>
       <c r="G140">
-        <v>88.29180806653829</v>
-      </c>
-      <c r="H140" t="s">
-        <v>12</v>
+        <v>49443412.51726145</v>
+      </c>
+      <c r="H140">
+        <v>44.14590403326915</v>
       </c>
       <c r="I140">
+        <v>292.4666142204081</v>
+      </c>
+      <c r="J140" t="s">
+        <v>14</v>
+      </c>
+      <c r="K140">
         <v>1988279.999999749</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>44959.67708333334</v>
       </c>
@@ -4488,28 +5334,34 @@
         <v>24.11458333333576</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D141">
         <v>2.08</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141">
-        <v>49562553.27031508</v>
+        <v>14</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
       </c>
       <c r="G141">
-        <v>88.50455941127694</v>
-      </c>
-      <c r="H141" t="s">
-        <v>12</v>
+        <v>49562553.27031509</v>
+      </c>
+      <c r="H141">
+        <v>44.25227970563848</v>
       </c>
       <c r="I141">
+        <v>293.1713530498549</v>
+      </c>
+      <c r="J141" t="s">
+        <v>14</v>
+      </c>
+      <c r="K141">
         <v>2083500.00000021</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>44961.85555555556</v>
       </c>
@@ -4517,28 +5369,34 @@
         <v>26.29305555555766</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D142">
         <v>1.96</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142">
-        <v>46703175.19702767</v>
+        <v>14</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
       </c>
       <c r="G142">
-        <v>83.39852713754942</v>
-      </c>
-      <c r="H142" t="s">
-        <v>12</v>
+        <v>46703175.19702768</v>
+      </c>
+      <c r="H142">
+        <v>41.69926356877472</v>
       </c>
       <c r="I142">
+        <v>276.2576211431325</v>
+      </c>
+      <c r="J142" t="s">
+        <v>14</v>
+      </c>
+      <c r="K142">
         <v>2271720.000000182</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>44962.64583333334</v>
       </c>
@@ -4546,28 +5404,34 @@
         <v>27.08333333333576</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D143">
         <v>1.678</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143">
+        <v>14</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143">
         <v>39983636.72480226</v>
       </c>
-      <c r="G143">
-        <v>71.39935129428974</v>
-      </c>
-      <c r="H143" t="s">
-        <v>12</v>
+      <c r="H143">
+        <v>35.69967564714488</v>
       </c>
       <c r="I143">
+        <v>236.5103511623348</v>
+      </c>
+      <c r="J143" t="s">
+        <v>14</v>
+      </c>
+      <c r="K143">
         <v>2340000.00000021</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>44964.70763888889</v>
       </c>
@@ -4575,28 +5439,34 @@
         <v>29.14513888888905</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D144">
         <v>0.768</v>
       </c>
       <c r="E144" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144">
-        <v>18300019.66903941</v>
+        <v>14</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
       </c>
       <c r="G144">
-        <v>32.6786065518561</v>
-      </c>
-      <c r="H144" t="s">
-        <v>12</v>
+        <v>18300019.66903942</v>
+      </c>
+      <c r="H144">
+        <v>16.33930327592805</v>
       </c>
       <c r="I144">
+        <v>108.2478842030233</v>
+      </c>
+      <c r="J144" t="s">
+        <v>14</v>
+      </c>
+      <c r="K144">
         <v>2518140.000000014</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>44965.68333333333</v>
       </c>
@@ -4604,28 +5474,34 @@
         <v>30.1208333333343</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D145">
         <v>0.761</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145">
-        <v>18133222.61476431</v>
+        <v>14</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
       </c>
       <c r="G145">
-        <v>32.38075466922199</v>
-      </c>
-      <c r="H145" t="s">
-        <v>12</v>
+        <v>18133222.61476432</v>
+      </c>
+      <c r="H145">
+        <v>16.190377334611</v>
       </c>
       <c r="I145">
+        <v>107.2612498417979</v>
+      </c>
+      <c r="J145" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145">
         <v>2602440.000000084</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>44967.51805555556</v>
       </c>
@@ -4633,28 +5509,34 @@
         <v>31.9555555555562</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D146">
         <v>0.547</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146">
+        <v>14</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146">
         <v>13033998.38406844</v>
       </c>
-      <c r="G146">
-        <v>23.27499711440793</v>
-      </c>
-      <c r="H146" t="s">
-        <v>12</v>
+      <c r="H146">
+        <v>11.63749855720397</v>
       </c>
       <c r="I146">
+        <v>77.09842794147627</v>
+      </c>
+      <c r="J146" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146">
         <v>2760960.000000056</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>44970.70625</v>
       </c>
@@ -4662,28 +5544,34 @@
         <v>35.14375000000291</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D147">
         <v>0.379</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147">
-        <v>9030869.081466064</v>
+        <v>14</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
       </c>
       <c r="G147">
-        <v>16.1265519311894</v>
-      </c>
-      <c r="H147" t="s">
-        <v>12</v>
+        <v>9030869.081466066</v>
+      </c>
+      <c r="H147">
+        <v>8.063275965594704</v>
       </c>
       <c r="I147">
+        <v>53.41920327206491</v>
+      </c>
+      <c r="J147" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147">
         <v>3036420.000000251</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>44971.57569444444</v>
       </c>
@@ -4691,28 +5579,34 @@
         <v>36.0131944444438</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D148">
         <v>0.32</v>
       </c>
       <c r="E148" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148">
-        <v>7625008.195433089</v>
+        <v>14</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
       </c>
       <c r="G148">
-        <v>13.61608606327337</v>
-      </c>
-      <c r="H148" t="s">
-        <v>12</v>
+        <v>7625008.19543309</v>
+      </c>
+      <c r="H148">
+        <v>6.808043031636688</v>
       </c>
       <c r="I148">
+        <v>45.10328508459305</v>
+      </c>
+      <c r="J148" t="s">
+        <v>14</v>
+      </c>
+      <c r="K148">
         <v>3111539.999999944</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>44972.51458333333</v>
       </c>
@@ -4720,28 +5614,34 @@
         <v>36.95208333332994</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D149">
         <v>0.224</v>
       </c>
       <c r="E149" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149">
-        <v>5337505.736803162</v>
+        <v>14</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
       </c>
       <c r="G149">
-        <v>9.531260244291362</v>
-      </c>
-      <c r="H149" t="s">
-        <v>12</v>
+        <v>5337505.736803163</v>
+      </c>
+      <c r="H149">
+        <v>4.765630122145682</v>
       </c>
       <c r="I149">
+        <v>31.57229955921514</v>
+      </c>
+      <c r="J149" t="s">
+        <v>14</v>
+      </c>
+      <c r="K149">
         <v>3192659.999999707</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>44973.59305555555</v>
       </c>
@@ -4749,28 +5649,34 @@
         <v>38.03055555555329</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D150">
         <v>0.251</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150">
-        <v>5980865.803292829</v>
+        <v>14</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
       </c>
       <c r="G150">
-        <v>10.68011750588005</v>
-      </c>
-      <c r="H150" t="s">
-        <v>12</v>
+        <v>5980865.80329283</v>
+      </c>
+      <c r="H150">
+        <v>5.340058752940027</v>
       </c>
       <c r="I150">
+        <v>35.37788923822767</v>
+      </c>
+      <c r="J150" t="s">
+        <v>14</v>
+      </c>
+      <c r="K150">
         <v>3285839.999999804</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>44974.65277777778</v>
       </c>
@@ -4778,28 +5684,34 @@
         <v>39.09027777778101</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D151">
         <v>0.229</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151">
-        <v>5456646.489856804</v>
+        <v>14</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
       </c>
       <c r="G151">
-        <v>9.744011589030007</v>
-      </c>
-      <c r="H151" t="s">
-        <v>12</v>
+        <v>5456646.489856805</v>
+      </c>
+      <c r="H151">
+        <v>4.872005794515005</v>
       </c>
       <c r="I151">
+        <v>32.27703838866191</v>
+      </c>
+      <c r="J151" t="s">
+        <v>14</v>
+      </c>
+      <c r="K151">
         <v>3377400.000000279</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>44976.40625</v>
       </c>
@@ -4807,28 +5719,34 @@
         <v>40.84375</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D152">
         <v>0.209</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152">
-        <v>4980083.477642235</v>
+        <v>14</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
       </c>
       <c r="G152">
-        <v>8.89300621007542</v>
-      </c>
-      <c r="H152" t="s">
-        <v>12</v>
+        <v>4980083.477642236</v>
+      </c>
+      <c r="H152">
+        <v>4.446503105037711</v>
       </c>
       <c r="I152">
+        <v>29.45808307087484</v>
+      </c>
+      <c r="J152" t="s">
+        <v>14</v>
+      </c>
+      <c r="K152">
         <v>3528900</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>44977.51041666666</v>
       </c>
@@ -4836,28 +5754,34 @@
         <v>41.94791666666424</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D153">
         <v>0.196</v>
       </c>
       <c r="E153" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153">
-        <v>4670317.519702767</v>
+        <v>14</v>
+      </c>
+      <c r="F153" t="s">
+        <v>14</v>
       </c>
       <c r="G153">
-        <v>8.339852713754942</v>
-      </c>
-      <c r="H153" t="s">
-        <v>12</v>
+        <v>4670317.519702768</v>
+      </c>
+      <c r="H153">
+        <v>4.169926356877472</v>
       </c>
       <c r="I153">
+        <v>27.62576211431325</v>
+      </c>
+      <c r="J153" t="s">
+        <v>14</v>
+      </c>
+      <c r="K153">
         <v>3624299.99999979</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>44978.54861111111</v>
       </c>
@@ -4865,28 +5789,34 @@
         <v>42.98611111110949</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D154">
         <v>0.203</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154">
+        <v>14</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154">
         <v>4837114.573977866</v>
       </c>
-      <c r="G154">
-        <v>8.63770459638905</v>
-      </c>
-      <c r="H154" t="s">
-        <v>12</v>
+      <c r="H154">
+        <v>4.318852298194525</v>
       </c>
       <c r="I154">
+        <v>28.61239647553873</v>
+      </c>
+      <c r="J154" t="s">
+        <v>14</v>
+      </c>
+      <c r="K154">
         <v>3713999.99999986</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>44979.49305555555</v>
       </c>
@@ -4894,28 +5824,34 @@
         <v>43.93055555555475</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D155">
         <v>0.162</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155">
-        <v>3860160.398938001</v>
+        <v>14</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
       </c>
       <c r="G155">
-        <v>6.893143569532145</v>
-      </c>
-      <c r="H155" t="s">
-        <v>12</v>
+        <v>3860160.398938002</v>
+      </c>
+      <c r="H155">
+        <v>3.446571784766073</v>
       </c>
       <c r="I155">
+        <v>22.83353807407524</v>
+      </c>
+      <c r="J155" t="s">
+        <v>14</v>
+      </c>
+      <c r="K155">
         <v>3795599.99999993</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>44981.51875</v>
       </c>
@@ -4923,28 +5859,34 @@
         <v>45.95625000000291</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D156">
         <v>0.158</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156">
-        <v>3764847.796495087</v>
+        <v>14</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
       </c>
       <c r="G156">
-        <v>6.722942493741228</v>
-      </c>
-      <c r="H156" t="s">
-        <v>12</v>
+        <v>3764847.796495088</v>
+      </c>
+      <c r="H156">
+        <v>3.361471246870614</v>
       </c>
       <c r="I156">
+        <v>22.26974701051782</v>
+      </c>
+      <c r="J156" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156">
         <v>3970620.000000251</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>44983.44375</v>
       </c>
@@ -4952,28 +5894,34 @@
         <v>47.88124999999854</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D157">
         <v>0.162</v>
       </c>
       <c r="E157" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157">
-        <v>3860160.398938001</v>
+        <v>14</v>
+      </c>
+      <c r="F157" t="s">
+        <v>14</v>
       </c>
       <c r="G157">
-        <v>6.893143569532145</v>
-      </c>
-      <c r="H157" t="s">
-        <v>12</v>
+        <v>3860160.398938002</v>
+      </c>
+      <c r="H157">
+        <v>3.446571784766073</v>
       </c>
       <c r="I157">
+        <v>22.83353807407524</v>
+      </c>
+      <c r="J157" t="s">
+        <v>14</v>
+      </c>
+      <c r="K157">
         <v>4136939.999999874</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>44985.73333333333</v>
       </c>
@@ -4981,28 +5929,34 @@
         <v>50.17083333332994</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D158">
         <v>0.153</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158">
+        <v>14</v>
+      </c>
+      <c r="F158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158">
         <v>3645707.043441446</v>
       </c>
-      <c r="G158">
-        <v>6.510191149002583</v>
-      </c>
-      <c r="H158" t="s">
-        <v>12</v>
+      <c r="H158">
+        <v>3.255095574501292</v>
       </c>
       <c r="I158">
+        <v>21.56500818107106</v>
+      </c>
+      <c r="J158" t="s">
+        <v>14</v>
+      </c>
+      <c r="K158">
         <v>4334759.999999707</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>44986.67847222222</v>
       </c>
@@ -5010,28 +5964,34 @@
         <v>51.1159722222219</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D159">
         <v>0.162</v>
       </c>
       <c r="E159" t="s">
-        <v>12</v>
-      </c>
-      <c r="F159">
-        <v>3860160.398938001</v>
+        <v>14</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
       </c>
       <c r="G159">
-        <v>6.893143569532145</v>
-      </c>
-      <c r="H159" t="s">
-        <v>12</v>
+        <v>3860160.398938002</v>
+      </c>
+      <c r="H159">
+        <v>3.446571784766073</v>
       </c>
       <c r="I159">
+        <v>22.83353807407524</v>
+      </c>
+      <c r="J159" t="s">
+        <v>14</v>
+      </c>
+      <c r="K159">
         <v>4416419.999999972</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>44987.57222222222</v>
       </c>
@@ -5039,28 +5999,34 @@
         <v>52.00972222222481</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D160">
         <v>0.102</v>
       </c>
       <c r="E160" t="s">
-        <v>12</v>
-      </c>
-      <c r="F160">
+        <v>14</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160">
         <v>2430471.362294297</v>
       </c>
-      <c r="G160">
-        <v>4.340127432668387</v>
-      </c>
-      <c r="H160" t="s">
-        <v>12</v>
+      <c r="H160">
+        <v>2.170063716334194</v>
       </c>
       <c r="I160">
+        <v>14.37667212071404</v>
+      </c>
+      <c r="J160" t="s">
+        <v>14</v>
+      </c>
+      <c r="K160">
         <v>4493640.000000224</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>44990.54722222222</v>
       </c>
@@ -5068,28 +6034,34 @@
         <v>54.98472222222335</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D161">
         <v>0.096</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161">
+        <v>14</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161">
         <v>2287502.458629927</v>
       </c>
-      <c r="G161">
-        <v>4.084825818982012</v>
-      </c>
-      <c r="H161" t="s">
-        <v>12</v>
+      <c r="H161">
+        <v>2.042412909491007</v>
       </c>
       <c r="I161">
+        <v>13.53098552537792</v>
+      </c>
+      <c r="J161" t="s">
+        <v>14</v>
+      </c>
+      <c r="K161">
         <v>4750680.000000098</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>44991.45763888889</v>
       </c>
@@ -5097,28 +6069,34 @@
         <v>55.89513888888905</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D162">
         <v>0.124</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162">
+        <v>14</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162">
         <v>2954690.675730322</v>
       </c>
-      <c r="G162">
-        <v>5.276233349518432</v>
-      </c>
-      <c r="H162" t="s">
-        <v>12</v>
+      <c r="H162">
+        <v>2.638116674759217</v>
       </c>
       <c r="I162">
+        <v>17.47752297027981</v>
+      </c>
+      <c r="J162" t="s">
+        <v>14</v>
+      </c>
+      <c r="K162">
         <v>4829340.000000014</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>44993.53611111111</v>
       </c>
@@ -5126,28 +6104,34 @@
         <v>57.9736111111124</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D163">
         <v>0.127</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163">
-        <v>3026175.127562507</v>
+        <v>14</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
       </c>
       <c r="G163">
-        <v>5.40388415636162</v>
-      </c>
-      <c r="H163" t="s">
-        <v>12</v>
+        <v>3026175.127562508</v>
+      </c>
+      <c r="H163">
+        <v>2.701942078180811</v>
       </c>
       <c r="I163">
+        <v>17.90036626794787</v>
+      </c>
+      <c r="J163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K163">
         <v>5008920.000000112</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>44994.53472222222</v>
       </c>
@@ -5155,28 +6139,34 @@
         <v>58.97222222221899</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D164">
         <v>0.148</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164">
-        <v>3526566.290387803</v>
+        <v>14</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
       </c>
       <c r="G164">
-        <v>6.297439804263935</v>
-      </c>
-      <c r="H164" t="s">
-        <v>12</v>
+        <v>3526566.290387804</v>
+      </c>
+      <c r="H164">
+        <v>3.148719902131968</v>
       </c>
       <c r="I164">
+        <v>20.86026935162429</v>
+      </c>
+      <c r="J164" t="s">
+        <v>14</v>
+      </c>
+      <c r="K164">
         <v>5095199.999999721</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>44997.58958333333</v>
       </c>
@@ -5184,28 +6174,34 @@
         <v>62.0270833333343</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D165">
         <v>0.136</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165">
-        <v>3240628.483059063</v>
+        <v>14</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
       </c>
       <c r="G165">
-        <v>5.786836576891185</v>
-      </c>
-      <c r="H165" t="s">
-        <v>12</v>
+        <v>3240628.483059064</v>
+      </c>
+      <c r="H165">
+        <v>2.893418288445593</v>
       </c>
       <c r="I165">
+        <v>19.16889616095205</v>
+      </c>
+      <c r="J165" t="s">
+        <v>14</v>
+      </c>
+      <c r="K165">
         <v>5359140.000000084</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>44998.4375</v>
       </c>
@@ -5213,28 +6209,34 @@
         <v>62.875</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D166">
         <v>0.129</v>
       </c>
       <c r="E166" t="s">
-        <v>12</v>
-      </c>
-      <c r="F166">
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166">
         <v>3073831.428783964</v>
       </c>
-      <c r="G166">
-        <v>5.48898469425708</v>
-      </c>
-      <c r="H166" t="s">
-        <v>12</v>
+      <c r="H166">
+        <v>2.74449234712854</v>
       </c>
       <c r="I166">
+        <v>18.18226179972658</v>
+      </c>
+      <c r="J166" t="s">
+        <v>14</v>
+      </c>
+      <c r="K166">
         <v>5432400</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>45001.55486111111</v>
       </c>
@@ -5242,28 +6244,34 @@
         <v>65.99236111110804</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D167">
         <v>0.115</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
-      </c>
-      <c r="F167">
-        <v>2740237.320233766</v>
+        <v>14</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
       </c>
       <c r="G167">
-        <v>4.893280928988869</v>
-      </c>
-      <c r="H167" t="s">
-        <v>12</v>
+        <v>2740237.320233767</v>
+      </c>
+      <c r="H167">
+        <v>2.446640464494435</v>
       </c>
       <c r="I167">
+        <v>16.20899307727563</v>
+      </c>
+      <c r="J167" t="s">
+        <v>14</v>
+      </c>
+      <c r="K167">
         <v>5701739.999999735</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>45005.64375</v>
       </c>
@@ -5271,28 +6279,34 @@
         <v>70.08125000000291</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D168">
         <v>0.134</v>
       </c>
       <c r="E168" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168">
-        <v>3192972.181837606</v>
+        <v>14</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
       </c>
       <c r="G168">
-        <v>5.701736038995727</v>
-      </c>
-      <c r="H168" t="s">
-        <v>12</v>
+        <v>3192972.181837607</v>
+      </c>
+      <c r="H168">
+        <v>2.850868019497864</v>
       </c>
       <c r="I168">
+        <v>18.88700062917335</v>
+      </c>
+      <c r="J168" t="s">
+        <v>14</v>
+      </c>
+      <c r="K168">
         <v>6055020.000000251</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>45007.44583333333</v>
       </c>
@@ -5300,28 +6314,34 @@
         <v>71.88333333333139</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D169">
         <v>0.155</v>
       </c>
       <c r="E169" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169">
-        <v>3693363.344662902</v>
+        <v>14</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
       </c>
       <c r="G169">
-        <v>6.595291686898041</v>
-      </c>
-      <c r="H169" t="s">
-        <v>12</v>
+        <v>3693363.344662903</v>
+      </c>
+      <c r="H169">
+        <v>3.297645843449021</v>
       </c>
       <c r="I169">
+        <v>21.84690371284976</v>
+      </c>
+      <c r="J169" t="s">
+        <v>14</v>
+      </c>
+      <c r="K169">
         <v>6210719.999999832</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>45011.62777777778</v>
       </c>
@@ -5329,28 +6349,34 @@
         <v>76.06527777777956</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D170">
         <v>0.101</v>
       </c>
       <c r="E170" t="s">
-        <v>12</v>
-      </c>
-      <c r="F170">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170">
         <v>2406643.211683569</v>
       </c>
-      <c r="G170">
-        <v>4.297577163720659</v>
-      </c>
-      <c r="H170" t="s">
-        <v>12</v>
+      <c r="H170">
+        <v>2.14878858186033</v>
       </c>
       <c r="I170">
+        <v>14.23572435482468</v>
+      </c>
+      <c r="J170" t="s">
+        <v>14</v>
+      </c>
+      <c r="K170">
         <v>6572040.000000154</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>45015.625</v>
       </c>
@@ -5358,28 +6384,34 @@
         <v>80.0625</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D171">
         <v>0.105</v>
       </c>
       <c r="E171" t="s">
-        <v>12</v>
-      </c>
-      <c r="F171">
-        <v>2501955.814126482</v>
+        <v>14</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
       </c>
       <c r="G171">
-        <v>4.467778239511576</v>
-      </c>
-      <c r="H171" t="s">
-        <v>12</v>
+        <v>2501955.814126483</v>
+      </c>
+      <c r="H171">
+        <v>2.233889119755788</v>
       </c>
       <c r="I171">
+        <v>14.7995154183821</v>
+      </c>
+      <c r="J171" t="s">
+        <v>14</v>
+      </c>
+      <c r="K171">
         <v>6917400</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>45019.49305555555</v>
       </c>
@@ -5387,28 +6419,34 @@
         <v>83.93055555555475</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D172">
         <v>0.129</v>
       </c>
       <c r="E172" t="s">
-        <v>12</v>
-      </c>
-      <c r="F172">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172">
         <v>3073831.428783964</v>
       </c>
-      <c r="G172">
-        <v>5.48898469425708</v>
-      </c>
-      <c r="H172" t="s">
-        <v>12</v>
+      <c r="H172">
+        <v>2.74449234712854</v>
       </c>
       <c r="I172">
+        <v>18.18226179972658</v>
+      </c>
+      <c r="J172" t="s">
+        <v>14</v>
+      </c>
+      <c r="K172">
         <v>7251599.99999993</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>45021.35902777778</v>
       </c>
@@ -5416,28 +6454,34 @@
         <v>85.79652777777665</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D173">
         <v>0.096</v>
       </c>
       <c r="E173" t="s">
-        <v>12</v>
-      </c>
-      <c r="F173">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173">
         <v>2287502.458629927</v>
       </c>
-      <c r="G173">
-        <v>4.084825818982012</v>
-      </c>
-      <c r="H173" t="s">
-        <v>12</v>
+      <c r="H173">
+        <v>2.042412909491007</v>
       </c>
       <c r="I173">
+        <v>13.53098552537792</v>
+      </c>
+      <c r="J173" t="s">
+        <v>14</v>
+      </c>
+      <c r="K173">
         <v>7412819.999999902</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>45027.48472222222</v>
       </c>
@@ -5445,28 +6489,34 @@
         <v>91.92222222222335</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D174">
         <v>0.1</v>
       </c>
       <c r="E174" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174">
-        <v>2382815.06107284</v>
+        <v>14</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
       </c>
       <c r="G174">
-        <v>4.25502689477293</v>
-      </c>
-      <c r="H174" t="s">
-        <v>12</v>
+        <v>2382815.061072841</v>
+      </c>
+      <c r="H174">
+        <v>2.127513447386465</v>
       </c>
       <c r="I174">
+        <v>14.09477658893533</v>
+      </c>
+      <c r="J174" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174">
         <v>7942080.000000098</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>45029.48055555556</v>
       </c>
@@ -5474,24 +6524,30 @@
         <v>93.91805555555766</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D175">
         <v>0.081</v>
       </c>
       <c r="E175" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175">
         <v>1930080.199469001</v>
       </c>
-      <c r="G175">
-        <v>3.446571784766073</v>
-      </c>
-      <c r="H175" t="s">
-        <v>12</v>
+      <c r="H175">
+        <v>1.723285892383037</v>
       </c>
       <c r="I175">
+        <v>11.41676903703762</v>
+      </c>
+      <c r="J175" t="s">
+        <v>14</v>
+      </c>
+      <c r="K175">
         <v>8114520.000000182</v>
       </c>
     </row>

--- a/STORE_model/reference_pro99_axenic.xlsx
+++ b/STORE_model/reference_pro99_axenic.xlsx
@@ -481,13 +481,13 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>7982430.454594016</v>
+        <v>8798545.853809463</v>
       </c>
       <c r="H2">
-        <v>7.127170048744658</v>
+        <v>7.855844512329879</v>
       </c>
       <c r="I2">
-        <v>47.21750157293336</v>
+        <v>52.04496989418545</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -516,13 +516,13 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>12652747.97429678</v>
+        <v>13946351.78618754</v>
       </c>
       <c r="H3">
-        <v>11.29709640562213</v>
+        <v>12.45209980909602</v>
       </c>
       <c r="I3">
-        <v>74.84326368724662</v>
+        <v>82.49516123526111</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -551,13 +551,13 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>17132440.28911372</v>
+        <v>18884043.19071344</v>
       </c>
       <c r="H4">
-        <v>15.29682168670868</v>
+        <v>16.86075284885129</v>
       </c>
       <c r="I4">
-        <v>101.341443674445</v>
+        <v>111.7024876236398</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -586,13 +586,13 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <v>30047297.92012852</v>
+        <v>33119302.45269771</v>
       </c>
       <c r="H5">
-        <v>26.82794457154332</v>
+        <v>29.57080576133724</v>
       </c>
       <c r="I5">
-        <v>177.7351327864745</v>
+        <v>195.9065881688592</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -621,13 +621,13 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>42509420.68953948</v>
+        <v>46855539.71103308</v>
       </c>
       <c r="H6">
-        <v>37.95483990137454</v>
+        <v>41.83530331342239</v>
       </c>
       <c r="I6">
-        <v>251.4508143466063</v>
+        <v>277.1588844514234</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -656,13 +656,13 @@
         <v>14</v>
       </c>
       <c r="G7">
-        <v>75868831.54455924</v>
+        <v>83625582.08516218</v>
       </c>
       <c r="H7">
-        <v>67.74002816478504</v>
+        <v>74.66569829032338</v>
       </c>
       <c r="I7">
-        <v>448.7776865917009</v>
+        <v>494.6602511733924</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -691,13 +691,13 @@
         <v>14</v>
       </c>
       <c r="G8">
-        <v>93978226.00871283</v>
+        <v>103586462.231118</v>
       </c>
       <c r="H8">
-        <v>83.90913036492218</v>
+        <v>92.48791270635535</v>
       </c>
       <c r="I8">
-        <v>555.8979886676094</v>
+        <v>612.7324216796042</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -726,13 +726,13 @@
         <v>14</v>
       </c>
       <c r="G9">
-        <v>118545049.2883738</v>
+        <v>130664972.0080659</v>
       </c>
       <c r="H9">
-        <v>105.8437940074766</v>
+        <v>116.6651535786303</v>
       </c>
       <c r="I9">
-        <v>701.2151352995327</v>
+        <v>772.9066424584256</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -761,13 +761,13 @@
         <v>14</v>
       </c>
       <c r="G10">
-        <v>132818111.5042001</v>
+        <v>146397297.2809968</v>
       </c>
       <c r="H10">
-        <v>118.5875995573216</v>
+        <v>130.7118725723186</v>
       </c>
       <c r="I10">
-        <v>785.6428470672554</v>
+        <v>865.9661557916108</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -796,13 +796,13 @@
         <v>14</v>
       </c>
       <c r="G11">
-        <v>153191180.2763729</v>
+        <v>168853287.4451971</v>
       </c>
       <c r="H11">
-        <v>136.7778395324759</v>
+        <v>150.7618637903546</v>
       </c>
       <c r="I11">
-        <v>906.1531869026526</v>
+        <v>998.7973476110994</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -831,13 +831,13 @@
         <v>14</v>
       </c>
       <c r="G12">
-        <v>142492340.6521559</v>
+        <v>157060609.5694943</v>
       </c>
       <c r="H12">
-        <v>127.2253041537106</v>
+        <v>140.2326871156199</v>
       </c>
       <c r="I12">
-        <v>842.8676400183327</v>
+        <v>929.041552140982</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -866,13 +866,13 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>151261100.0769039</v>
+        <v>166725877.8506939</v>
       </c>
       <c r="H13">
-        <v>135.0545536400928</v>
+        <v>148.8623909381196</v>
       </c>
       <c r="I13">
-        <v>894.736417865615</v>
+        <v>986.2133399650426</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -901,13 +901,13 @@
         <v>14</v>
       </c>
       <c r="G14">
-        <v>120618098.3915072</v>
+        <v>132949967.4984582</v>
       </c>
       <c r="H14">
-        <v>107.6947307067029</v>
+        <v>118.7053281236234</v>
       </c>
       <c r="I14">
-        <v>713.4775909319065</v>
+        <v>786.4227988190052</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -936,13 +936,13 @@
         <v>14</v>
       </c>
       <c r="G15">
-        <v>100983702.288267</v>
+        <v>111308171.1296851</v>
       </c>
       <c r="H15">
-        <v>90.1640199002384</v>
+        <v>99.38229565150455</v>
       </c>
       <c r="I15">
-        <v>597.3366318390794</v>
+        <v>658.4077086912176</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -971,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="G16">
-        <v>95264946.14169218</v>
+        <v>105004735.2941201</v>
       </c>
       <c r="H16">
-        <v>85.05798762651088</v>
+        <v>93.75422794117867</v>
       </c>
       <c r="I16">
-        <v>563.5091680256346</v>
+        <v>621.1217601103087</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -1006,13 +1006,13 @@
         <v>14</v>
       </c>
       <c r="G17">
-        <v>75582893.73723051</v>
+        <v>83310410.29338393</v>
       </c>
       <c r="H17">
-        <v>67.48472655109867</v>
+        <v>74.38429490480709</v>
       </c>
       <c r="I17">
-        <v>447.0863134010287</v>
+        <v>492.795953744347</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
@@ -1041,13 +1041,13 @@
         <v>14</v>
       </c>
       <c r="G18">
-        <v>47560988.6190139</v>
+        <v>52423574.69911548</v>
       </c>
       <c r="H18">
-        <v>42.46516840983384</v>
+        <v>46.80676312421026</v>
       </c>
       <c r="I18">
-        <v>281.3317407151492</v>
+        <v>310.094805697893</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
@@ -1076,13 +1076,13 @@
         <v>14</v>
       </c>
       <c r="G19">
-        <v>46869972.25130278</v>
+        <v>51661909.53565139</v>
       </c>
       <c r="H19">
-        <v>41.84818951009178</v>
+        <v>46.12670494254589</v>
       </c>
       <c r="I19">
-        <v>277.244255504358</v>
+        <v>305.5894202443665</v>
       </c>
       <c r="J19" t="s">
         <v>14</v>
@@ -1111,13 +1111,13 @@
         <v>14</v>
       </c>
       <c r="G20">
-        <v>79300085.23250413</v>
+        <v>87407643.58650117</v>
       </c>
       <c r="H20">
-        <v>70.80364752902156</v>
+        <v>78.04253891651891</v>
       </c>
       <c r="I20">
-        <v>469.0741648797679</v>
+        <v>517.0318203219377</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
@@ -1146,13 +1146,13 @@
         <v>14</v>
       </c>
       <c r="G21">
-        <v>48514114.64344303</v>
+        <v>53474147.33837631</v>
       </c>
       <c r="H21">
-        <v>43.31617378878843</v>
+        <v>47.74477440926457</v>
       </c>
       <c r="I21">
-        <v>286.9696513507234</v>
+        <v>316.3091304613778</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
@@ -1181,13 +1181,13 @@
         <v>14</v>
       </c>
       <c r="G22">
-        <v>41556294.66511034</v>
+        <v>45804967.07177225</v>
       </c>
       <c r="H22">
-        <v>37.10383452241996</v>
+        <v>40.89729202836808</v>
       </c>
       <c r="I22">
-        <v>245.8129037110322</v>
+        <v>270.9445596879385</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -1216,13 +1216,13 @@
         <v>14</v>
       </c>
       <c r="G23">
-        <v>57568811.87551983</v>
+        <v>63454587.41135421</v>
       </c>
       <c r="H23">
-        <v>51.400724888857</v>
+        <v>56.65588161728055</v>
       </c>
       <c r="I23">
-        <v>340.5298023886776</v>
+        <v>375.3452157144836</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
@@ -1251,13 +1251,13 @@
         <v>14</v>
       </c>
       <c r="G24">
-        <v>45607080.26893417</v>
+        <v>50269900.78863078</v>
       </c>
       <c r="H24">
-        <v>40.72060738297694</v>
+        <v>44.88383998984892</v>
       </c>
       <c r="I24">
-        <v>269.7740239122223</v>
+        <v>297.3554399327491</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
@@ -1286,13 +1286,13 @@
         <v>14</v>
       </c>
       <c r="G25">
-        <v>53422713.66925308</v>
+        <v>58884596.4305696</v>
       </c>
       <c r="H25">
-        <v>47.69885149040454</v>
+        <v>52.57553252729429</v>
       </c>
       <c r="I25">
-        <v>316.0048911239301</v>
+        <v>348.3129029933247</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -1321,13 +1321,13 @@
         <v>14</v>
       </c>
       <c r="G26">
-        <v>53541854.42230672</v>
+        <v>59015918.0104772</v>
       </c>
       <c r="H26">
-        <v>47.80522716277387</v>
+        <v>52.69278393792608</v>
       </c>
       <c r="I26">
-        <v>316.7096299533769</v>
+        <v>349.0896935887603</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
@@ -1356,13 +1356,13 @@
         <v>14</v>
       </c>
       <c r="G27">
-        <v>54137558.18757493</v>
+        <v>59672525.91001521</v>
       </c>
       <c r="H27">
-        <v>48.33710552462048</v>
+        <v>53.27904099108502</v>
       </c>
       <c r="I27">
-        <v>320.2333241006107</v>
+        <v>352.9736465659382</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
@@ -1391,13 +1391,13 @@
         <v>14</v>
       </c>
       <c r="G28">
-        <v>36290273.38013936</v>
+        <v>40000553.23985615</v>
       </c>
       <c r="H28">
-        <v>32.40202980369586</v>
+        <v>35.714779678443</v>
       </c>
       <c r="I28">
-        <v>214.6634474494851</v>
+        <v>236.6104153696849</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
@@ -1426,13 +1426,13 @@
         <v>14</v>
       </c>
       <c r="G29">
-        <v>28069561.41943806</v>
+        <v>30939364.22623148</v>
       </c>
       <c r="H29">
-        <v>25.06210841021256</v>
+        <v>27.62443234484954</v>
       </c>
       <c r="I29">
-        <v>166.0364682176582</v>
+        <v>183.0118642846282</v>
       </c>
       <c r="J29" t="s">
         <v>14</v>
@@ -1461,13 +1461,13 @@
         <v>14</v>
       </c>
       <c r="G30">
-        <v>19253145.69346855</v>
+        <v>21221567.3130688</v>
       </c>
       <c r="H30">
-        <v>17.19030865488264</v>
+        <v>18.94782795809714</v>
       </c>
       <c r="I30">
-        <v>113.8857948385975</v>
+        <v>125.5293602223935</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
@@ -1496,13 +1496,13 @@
         <v>14</v>
       </c>
       <c r="G31">
-        <v>11818762.70292129</v>
+        <v>13027100.72683431</v>
       </c>
       <c r="H31">
-        <v>10.55246669903687</v>
+        <v>11.63133993467349</v>
       </c>
       <c r="I31">
-        <v>69.91009188111924</v>
+        <v>77.05762706721188</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
@@ -1531,13 +1531,13 @@
         <v>14</v>
       </c>
       <c r="G32">
-        <v>9793369.901009373</v>
+        <v>10794633.86840504</v>
       </c>
       <c r="H32">
-        <v>8.744080268758371</v>
+        <v>9.638065953933072</v>
       </c>
       <c r="I32">
-        <v>57.92953178052421</v>
+        <v>63.8521869448066</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
@@ -1566,13 +1566,13 @@
         <v>14</v>
       </c>
       <c r="G33">
-        <v>9721885.449177189</v>
+        <v>10715840.92046048</v>
       </c>
       <c r="H33">
-        <v>8.680254865336776</v>
+        <v>9.567715107554001</v>
       </c>
       <c r="I33">
-        <v>57.50668848285614</v>
+        <v>63.38611258754526</v>
       </c>
       <c r="J33" t="s">
         <v>14</v>
@@ -1601,13 +1601,13 @@
         <v>14</v>
       </c>
       <c r="G34">
-        <v>7982430.454594016</v>
+        <v>8798545.853809463</v>
       </c>
       <c r="H34">
-        <v>7.127170048744658</v>
+        <v>7.855844512329879</v>
       </c>
       <c r="I34">
-        <v>47.21750157293336</v>
+        <v>52.04496989418545</v>
       </c>
       <c r="J34" t="s">
         <v>14</v>
@@ -1636,13 +1636,13 @@
         <v>14</v>
       </c>
       <c r="G35">
-        <v>6195319.158789386</v>
+        <v>6828722.155195404</v>
       </c>
       <c r="H35">
-        <v>5.53153496320481</v>
+        <v>6.09707335285304</v>
       </c>
       <c r="I35">
-        <v>36.64641913123187</v>
+        <v>40.39311096265139</v>
       </c>
       <c r="J35" t="s">
         <v>14</v>
@@ -1671,13 +1671,13 @@
         <v>14</v>
       </c>
       <c r="G36">
-        <v>5051567.929474422</v>
+        <v>5568034.988082406</v>
       </c>
       <c r="H36">
-        <v>4.510328508459306</v>
+        <v>4.971459810787863</v>
       </c>
       <c r="I36">
-        <v>29.8809263685429</v>
+        <v>32.93592124646959</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
@@ -1706,13 +1706,13 @@
         <v>14</v>
       </c>
       <c r="G37">
-        <v>5242193.134360249</v>
+        <v>5778149.515934573</v>
       </c>
       <c r="H37">
-        <v>4.680529584250223</v>
+        <v>5.159062067798726</v>
       </c>
       <c r="I37">
-        <v>31.00850849565773</v>
+        <v>34.17878619916656</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
@@ -1741,13 +1741,13 @@
         <v>14</v>
       </c>
       <c r="G38">
-        <v>5528130.94168899</v>
+        <v>6093321.307712822</v>
       </c>
       <c r="H38">
-        <v>4.935831197936599</v>
+        <v>5.440465453315021</v>
       </c>
       <c r="I38">
-        <v>32.69988168632997</v>
+        <v>36.04308362821201</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
@@ -1776,13 +1776,13 @@
         <v>14</v>
       </c>
       <c r="G39">
-        <v>5242193.134360249</v>
+        <v>5778149.515934573</v>
       </c>
       <c r="H39">
-        <v>4.680529584250223</v>
+        <v>5.159062067798726</v>
       </c>
       <c r="I39">
-        <v>31.00850849565773</v>
+        <v>34.17878619916656</v>
       </c>
       <c r="J39" t="s">
         <v>14</v>
@@ -1811,13 +1811,13 @@
         <v>14</v>
       </c>
       <c r="G40">
-        <v>4860942.724588594</v>
+        <v>5357920.46023024</v>
       </c>
       <c r="H40">
-        <v>4.340127432668388</v>
+        <v>4.783857553777001</v>
       </c>
       <c r="I40">
-        <v>28.75334424142807</v>
+        <v>31.69305629377263</v>
       </c>
       <c r="J40" t="s">
         <v>14</v>
@@ -1846,13 +1846,13 @@
         <v>14</v>
       </c>
       <c r="G41">
-        <v>3836332.248327273</v>
+        <v>4228554.873024846</v>
       </c>
       <c r="H41">
-        <v>3.425296650292209</v>
+        <v>3.775495422343613</v>
       </c>
       <c r="I41">
-        <v>22.69259030818588</v>
+        <v>25.01265717302644</v>
       </c>
       <c r="J41" t="s">
         <v>14</v>
@@ -1881,13 +1881,13 @@
         <v>14</v>
       </c>
       <c r="G42">
-        <v>3121487.730005421</v>
+        <v>3440625.393579223</v>
       </c>
       <c r="H42">
-        <v>2.78704261607627</v>
+        <v>3.071986958552878</v>
       </c>
       <c r="I42">
-        <v>18.46415733150529</v>
+        <v>20.35191360041281</v>
       </c>
       <c r="J42" t="s">
         <v>14</v>
@@ -1916,13 +1916,13 @@
         <v>14</v>
       </c>
       <c r="G43">
-        <v>3383597.386723433</v>
+        <v>3729532.869375951</v>
       </c>
       <c r="H43">
-        <v>3.02106909528878</v>
+        <v>3.329940061942814</v>
       </c>
       <c r="I43">
-        <v>20.01458275628817</v>
+        <v>22.06085291037114</v>
       </c>
       <c r="J43" t="s">
         <v>14</v>
@@ -1951,13 +1951,13 @@
         <v>14</v>
       </c>
       <c r="G44">
-        <v>3598050.742219989</v>
+        <v>3965911.713209638</v>
       </c>
       <c r="H44">
-        <v>3.212545305553562</v>
+        <v>3.540992601080034</v>
       </c>
       <c r="I44">
-        <v>21.28311264929235</v>
+        <v>23.45907598215523</v>
       </c>
       <c r="J44" t="s">
         <v>14</v>
@@ -1986,13 +1986,13 @@
         <v>14</v>
       </c>
       <c r="G45">
-        <v>3502738.139777075</v>
+        <v>3860854.449283555</v>
       </c>
       <c r="H45">
-        <v>3.127444767658103</v>
+        <v>3.447191472574603</v>
       </c>
       <c r="I45">
-        <v>20.71932158573494</v>
+        <v>22.83764350580674</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
@@ -2021,13 +2021,13 @@
         <v>14</v>
       </c>
       <c r="G46">
-        <v>3526566.290387804</v>
+        <v>3887118.765265075</v>
       </c>
       <c r="H46">
-        <v>3.148719902131968</v>
+        <v>3.47064175470096</v>
       </c>
       <c r="I46">
-        <v>20.86026935162429</v>
+        <v>22.99300162489386</v>
       </c>
       <c r="J46" t="s">
         <v>14</v>
@@ -2056,13 +2056,13 @@
         <v>14</v>
       </c>
       <c r="G47">
-        <v>4146098.206266742</v>
+        <v>4569990.980784616</v>
       </c>
       <c r="H47">
-        <v>3.701873398452449</v>
+        <v>4.080349089986265</v>
       </c>
       <c r="I47">
-        <v>24.52491126474748</v>
+        <v>27.032312721159</v>
       </c>
       <c r="J47" t="s">
         <v>14</v>
@@ -2091,13 +2091,13 @@
         <v>14</v>
       </c>
       <c r="G48">
-        <v>3383597.386723433</v>
+        <v>3729532.869375951</v>
       </c>
       <c r="H48">
-        <v>3.02106909528878</v>
+        <v>3.329940061942814</v>
       </c>
       <c r="I48">
-        <v>20.01458275628817</v>
+        <v>22.06085291037114</v>
       </c>
       <c r="J48" t="s">
         <v>14</v>
@@ -2126,13 +2126,13 @@
         <v>14</v>
       </c>
       <c r="G49">
-        <v>4169926.356877471</v>
+        <v>4596255.296766137</v>
       </c>
       <c r="H49">
-        <v>3.723148532926314</v>
+        <v>4.103799372112623</v>
       </c>
       <c r="I49">
-        <v>24.66585903063683</v>
+        <v>27.18767084024613</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
@@ -2161,13 +2161,13 @@
         <v>14</v>
       </c>
       <c r="G50">
-        <v>2883206.223898137</v>
+        <v>3177982.233764015</v>
       </c>
       <c r="H50">
-        <v>2.574291271337623</v>
+        <v>2.837484137289299</v>
       </c>
       <c r="I50">
-        <v>17.05467967261175</v>
+        <v>18.79833240954161</v>
       </c>
       <c r="J50" t="s">
         <v>14</v>
@@ -2196,13 +2196,13 @@
         <v>14</v>
       </c>
       <c r="G51">
-        <v>3073831.428783964</v>
+        <v>3388096.761616181</v>
       </c>
       <c r="H51">
-        <v>2.74449234712854</v>
+        <v>3.025086394300162</v>
       </c>
       <c r="I51">
-        <v>18.18226179972658</v>
+        <v>20.04119736223857</v>
       </c>
       <c r="J51" t="s">
         <v>14</v>
@@ -2231,13 +2231,13 @@
         <v>14</v>
       </c>
       <c r="G52">
-        <v>2692581.01901231</v>
+        <v>2967867.705911849</v>
       </c>
       <c r="H52">
-        <v>2.404090195546706</v>
+        <v>2.649881880278437</v>
       </c>
       <c r="I52">
-        <v>15.92709754549693</v>
+        <v>17.55546745684464</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
@@ -2266,13 +2266,13 @@
         <v>14</v>
       </c>
       <c r="G53">
-        <v>2835549.92267668</v>
+        <v>3125453.601800973</v>
       </c>
       <c r="H53">
-        <v>2.531741002389893</v>
+        <v>2.790583573036584</v>
       </c>
       <c r="I53">
-        <v>16.77278414083304</v>
+        <v>18.48761617136737</v>
       </c>
       <c r="J53" t="s">
         <v>14</v>
@@ -2301,13 +2301,13 @@
         <v>14</v>
       </c>
       <c r="G54">
-        <v>1477345.337865161</v>
+        <v>1628387.590854289</v>
       </c>
       <c r="H54">
-        <v>1.319058337379608</v>
+        <v>1.453917491834186</v>
       </c>
       <c r="I54">
-        <v>8.738761485139905</v>
+        <v>9.632203383401485</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
@@ -2336,13 +2336,13 @@
         <v>14</v>
       </c>
       <c r="G55">
-        <v>2025392.801911915</v>
+        <v>2232466.858429267</v>
       </c>
       <c r="H55">
-        <v>1.808386430278496</v>
+        <v>1.993273980740417</v>
       </c>
       <c r="I55">
-        <v>11.98056010059503</v>
+        <v>13.20544012240526</v>
       </c>
       <c r="J55" t="s">
         <v>14</v>
@@ -2371,13 +2371,13 @@
         <v>14</v>
       </c>
       <c r="G56">
-        <v>2168361.705576285</v>
+        <v>2390052.754318391</v>
       </c>
       <c r="H56">
-        <v>1.936037237121683</v>
+        <v>2.133975673498564</v>
       </c>
       <c r="I56">
-        <v>12.82624669593115</v>
+        <v>14.13758883692798</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
@@ -2406,13 +2406,13 @@
         <v>14</v>
       </c>
       <c r="G57">
-        <v>3240628.483059064</v>
+        <v>3571946.973486827</v>
       </c>
       <c r="H57">
-        <v>2.893418288445593</v>
+        <v>3.189238369184667</v>
       </c>
       <c r="I57">
-        <v>19.16889616095205</v>
+        <v>21.12870419584842</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
@@ -2441,13 +2441,13 @@
         <v>14</v>
       </c>
       <c r="G58">
-        <v>2716409.169623038</v>
+        <v>2994132.021893369</v>
       </c>
       <c r="H58">
-        <v>2.42536533002057</v>
+        <v>2.673332162404794</v>
       </c>
       <c r="I58">
-        <v>16.06804531138628</v>
+        <v>17.71082557593176</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
@@ -2476,13 +2476,13 @@
         <v>14</v>
       </c>
       <c r="G59">
-        <v>2263674.308019198</v>
+        <v>2495110.018244475</v>
       </c>
       <c r="H59">
-        <v>2.021137775017142</v>
+        <v>2.227776802003996</v>
       </c>
       <c r="I59">
-        <v>13.39003775948856</v>
+        <v>14.75902131327647</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
@@ -2511,13 +2511,13 @@
         <v>14</v>
       </c>
       <c r="G60">
-        <v>7958602.303983288</v>
+        <v>8772281.537827943</v>
       </c>
       <c r="H60">
-        <v>7.105894914270793</v>
+        <v>7.832394230203521</v>
       </c>
       <c r="I60">
-        <v>47.07655380704401</v>
+        <v>51.88961177509832</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
@@ -2546,13 +2546,13 @@
         <v>14</v>
       </c>
       <c r="G61">
-        <v>10960949.28093507</v>
+        <v>12081585.35149956</v>
       </c>
       <c r="H61">
-        <v>9.786561857977739</v>
+        <v>10.78712977812461</v>
       </c>
       <c r="I61">
-        <v>64.83597230910253</v>
+        <v>71.46473478007553</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
@@ -2581,13 +2581,13 @@
         <v>14</v>
       </c>
       <c r="G62">
-        <v>19086348.63919345</v>
+        <v>21037717.10119815</v>
       </c>
       <c r="H62">
-        <v>17.04138271356559</v>
+        <v>18.78367598321264</v>
       </c>
       <c r="I62">
-        <v>112.899160477372</v>
+        <v>124.4418533887837</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
@@ -2616,13 +2616,13 @@
         <v>14</v>
       </c>
       <c r="G63">
-        <v>29904329.01646415</v>
+        <v>32961716.55680858</v>
       </c>
       <c r="H63">
-        <v>26.70029376470014</v>
+        <v>29.43010406857909</v>
       </c>
       <c r="I63">
-        <v>176.8894461911384</v>
+        <v>194.9744394543365</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
@@ -2651,13 +2651,13 @@
         <v>14</v>
       </c>
       <c r="G64">
-        <v>46869972.25130278</v>
+        <v>51661909.53565139</v>
       </c>
       <c r="H64">
-        <v>41.84818951009178</v>
+        <v>46.12670494254589</v>
       </c>
       <c r="I64">
-        <v>277.244255504358</v>
+        <v>305.5894202443665</v>
       </c>
       <c r="J64" t="s">
         <v>14</v>
@@ -2686,13 +2686,13 @@
         <v>14</v>
       </c>
       <c r="G65">
-        <v>74367658.05608335</v>
+        <v>81970930.17832637</v>
       </c>
       <c r="H65">
-        <v>66.39969469293158</v>
+        <v>73.18833051636284</v>
       </c>
       <c r="I65">
-        <v>439.8979773406717</v>
+        <v>484.8726896709038</v>
       </c>
       <c r="J65" t="s">
         <v>14</v>
@@ -2721,13 +2721,13 @@
         <v>14</v>
       </c>
       <c r="G66">
-        <v>90523144.17015721</v>
+        <v>99778136.41379745</v>
       </c>
       <c r="H66">
-        <v>80.82423586621181</v>
+        <v>89.08762179803345</v>
       </c>
       <c r="I66">
-        <v>535.4605626136532</v>
+        <v>590.2054944119716</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
@@ -2756,13 +2756,13 @@
         <v>14</v>
       </c>
       <c r="G67">
-        <v>121380599.2110505</v>
+        <v>133790425.6098669</v>
       </c>
       <c r="H67">
-        <v>108.3755350098666</v>
+        <v>119.4557371516669</v>
       </c>
       <c r="I67">
-        <v>717.9879194403659</v>
+        <v>791.3942586297929</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
@@ -2791,13 +2791,13 @@
         <v>14</v>
       </c>
       <c r="G68">
-        <v>137488429.0239029</v>
+        <v>151545103.2133749</v>
       </c>
       <c r="H68">
-        <v>122.757525914199</v>
+        <v>135.3081278690848</v>
       </c>
       <c r="I68">
-        <v>813.2686091815685</v>
+        <v>896.4163471326865</v>
       </c>
       <c r="J68" t="s">
         <v>14</v>
@@ -2826,13 +2826,13 @@
         <v>14</v>
       </c>
       <c r="G69">
-        <v>152786101.7159905</v>
+        <v>168406794.0735113</v>
       </c>
       <c r="H69">
-        <v>136.4161622464201</v>
+        <v>150.3632089942065</v>
       </c>
       <c r="I69">
-        <v>903.7570748825334</v>
+        <v>996.1562595866183</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
@@ -2861,13 +2861,13 @@
         <v>14</v>
       </c>
       <c r="G70">
-        <v>133389987.1188576</v>
+        <v>147027640.8645533</v>
       </c>
       <c r="H70">
-        <v>119.0982027846943</v>
+        <v>131.2746793433512</v>
       </c>
       <c r="I70">
-        <v>789.0255934485998</v>
+        <v>869.6947506497017</v>
       </c>
       <c r="J70" t="s">
         <v>14</v>
@@ -2896,13 +2896,13 @@
         <v>14</v>
       </c>
       <c r="G71">
-        <v>139704447.0307007</v>
+        <v>153987684.5996564</v>
       </c>
       <c r="H71">
-        <v>124.7361134202685</v>
+        <v>137.4890041068361</v>
       </c>
       <c r="I71">
-        <v>826.3767514092785</v>
+        <v>910.8646522077889</v>
       </c>
       <c r="J71" t="s">
         <v>14</v>
@@ -2931,13 +2931,13 @@
         <v>14</v>
       </c>
       <c r="G72">
-        <v>105320425.6994195</v>
+        <v>116088276.6383219</v>
       </c>
       <c r="H72">
-        <v>94.03609437448175</v>
+        <v>103.6502469985017</v>
       </c>
       <c r="I72">
-        <v>622.9891252309416</v>
+        <v>686.6828863650736</v>
       </c>
       <c r="J72" t="s">
         <v>14</v>
@@ -2966,13 +2966,13 @@
         <v>14</v>
       </c>
       <c r="G73">
-        <v>89093455.13351351</v>
+        <v>98202277.45490621</v>
       </c>
       <c r="H73">
-        <v>79.54772779777993</v>
+        <v>87.68060487045199</v>
       </c>
       <c r="I73">
-        <v>527.003696660292</v>
+        <v>580.8840072667444</v>
       </c>
       <c r="J73" t="s">
         <v>14</v>
@@ -3001,13 +3001,13 @@
         <v>14</v>
       </c>
       <c r="G74">
-        <v>96313384.76856421</v>
+        <v>106160365.197307</v>
       </c>
       <c r="H74">
-        <v>85.99409354336092</v>
+        <v>94.7860403547384</v>
       </c>
       <c r="I74">
-        <v>569.7108697247661</v>
+        <v>627.9575173501419</v>
       </c>
       <c r="J74" t="s">
         <v>14</v>
@@ -3036,13 +3036,13 @@
         <v>14</v>
       </c>
       <c r="G75">
-        <v>81992666.25151645</v>
+        <v>90375511.29241301</v>
       </c>
       <c r="H75">
-        <v>73.20773772456826</v>
+        <v>80.69242079679734</v>
       </c>
       <c r="I75">
-        <v>485.0012624252647</v>
+        <v>534.5872877787823</v>
       </c>
       <c r="J75" t="s">
         <v>14</v>
@@ -3071,13 +3071,13 @@
         <v>14</v>
       </c>
       <c r="G76">
-        <v>51921540.18077719</v>
+        <v>57229944.52373378</v>
       </c>
       <c r="H76">
-        <v>46.35851801855107</v>
+        <v>51.09816475333373</v>
       </c>
       <c r="I76">
-        <v>307.1251818729008</v>
+        <v>338.525341490836</v>
       </c>
       <c r="J76" t="s">
         <v>14</v>
@@ -3106,13 +3106,13 @@
         <v>14</v>
       </c>
       <c r="G77">
-        <v>48347317.58916793</v>
+        <v>53290297.12650567</v>
       </c>
       <c r="H77">
-        <v>43.16724784747137</v>
+        <v>47.58062243438006</v>
       </c>
       <c r="I77">
-        <v>285.9830169894979</v>
+        <v>315.2216236277679</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
@@ -3141,13 +3141,13 @@
         <v>14</v>
       </c>
       <c r="G78">
-        <v>80777430.5703693</v>
+        <v>89036031.17735545</v>
       </c>
       <c r="H78">
-        <v>72.12270586640116</v>
+        <v>79.4964564083531</v>
       </c>
       <c r="I78">
-        <v>477.8129263649077</v>
+        <v>526.6640237053392</v>
       </c>
       <c r="J78" t="s">
         <v>14</v>
@@ -3176,13 +3176,13 @@
         <v>14</v>
       </c>
       <c r="G79">
-        <v>48442630.19161084</v>
+        <v>53395354.39043175</v>
       </c>
       <c r="H79">
-        <v>43.25234838536683</v>
+        <v>47.67442356288549</v>
       </c>
       <c r="I79">
-        <v>286.5468080530553</v>
+        <v>315.8430561041164</v>
       </c>
       <c r="J79" t="s">
         <v>14</v>
@@ -3211,13 +3211,13 @@
         <v>14</v>
       </c>
       <c r="G80">
-        <v>42676217.74381457</v>
+        <v>47039389.92290372</v>
       </c>
       <c r="H80">
-        <v>38.10376584269159</v>
+        <v>41.9994552883069</v>
       </c>
       <c r="I80">
-        <v>252.4374487078318</v>
+        <v>278.2463912850333</v>
       </c>
       <c r="J80" t="s">
         <v>14</v>
@@ -3246,13 +3246,13 @@
         <v>14</v>
       </c>
       <c r="G81">
-        <v>64240694.04652379</v>
+        <v>70808595.88618004</v>
       </c>
       <c r="H81">
-        <v>57.3577625415391</v>
+        <v>63.22196061266077</v>
       </c>
       <c r="I81">
-        <v>379.9951768376965</v>
+        <v>418.8454890588775</v>
       </c>
       <c r="J81" t="s">
         <v>14</v>
@@ -3281,13 +3281,13 @@
         <v>14</v>
       </c>
       <c r="G82">
-        <v>48919193.20382541</v>
+        <v>53920640.71006217</v>
       </c>
       <c r="H82">
-        <v>43.67785107484413</v>
+        <v>48.14342920541265</v>
       </c>
       <c r="I82">
-        <v>289.3657633708423</v>
+        <v>318.9502184858588</v>
       </c>
       <c r="J82" t="s">
         <v>14</v>
@@ -3316,13 +3316,13 @@
         <v>14</v>
       </c>
       <c r="G83">
-        <v>54828574.55528606</v>
+        <v>60434191.07347932</v>
       </c>
       <c r="H83">
-        <v>48.95408442436257</v>
+        <v>53.9590991727494</v>
       </c>
       <c r="I83">
-        <v>324.320809311402</v>
+        <v>357.4790320194648</v>
       </c>
       <c r="J83" t="s">
         <v>14</v>
@@ -3351,13 +3351,13 @@
         <v>14</v>
       </c>
       <c r="G84">
-        <v>50015288.13191893</v>
+        <v>55128799.24521213</v>
       </c>
       <c r="H84">
-        <v>44.65650726064191</v>
+        <v>49.22214218322512</v>
       </c>
       <c r="I84">
-        <v>295.8493606017527</v>
+        <v>326.0966919638664</v>
       </c>
       <c r="J84" t="s">
         <v>14</v>
@@ -3386,13 +3386,13 @@
         <v>14</v>
       </c>
       <c r="G85">
-        <v>48180520.53489283</v>
+        <v>53106446.91463502</v>
       </c>
       <c r="H85">
-        <v>43.01832190615432</v>
+        <v>47.41647045949556</v>
       </c>
       <c r="I85">
-        <v>284.9963826282724</v>
+        <v>314.134116794158</v>
       </c>
       <c r="J85" t="s">
         <v>14</v>
@@ -3421,13 +3421,13 @@
         <v>14</v>
       </c>
       <c r="G86">
-        <v>23232446.8454602</v>
+        <v>25607708.08198276</v>
       </c>
       <c r="H86">
-        <v>20.74325611201803</v>
+        <v>22.8640250731989</v>
       </c>
       <c r="I86">
-        <v>137.4240717421195</v>
+        <v>151.4741661099427</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
@@ -3456,13 +3456,13 @@
         <v>14</v>
       </c>
       <c r="G87">
-        <v>17799628.50621412</v>
+        <v>19619444.03819602</v>
       </c>
       <c r="H87">
-        <v>15.89252545197689</v>
+        <v>17.51736074838931</v>
       </c>
       <c r="I87">
-        <v>105.2879811193469</v>
+        <v>116.0525149580792</v>
       </c>
       <c r="J87" t="s">
         <v>14</v>
@@ -3491,13 +3491,13 @@
         <v>14</v>
       </c>
       <c r="G88">
-        <v>12628919.82368606</v>
+        <v>13920087.47020602</v>
       </c>
       <c r="H88">
-        <v>11.27582127114827</v>
+        <v>12.42864952696966</v>
       </c>
       <c r="I88">
-        <v>74.70231592135725</v>
+        <v>82.339803116174</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
@@ -3526,13 +3526,13 @@
         <v>14</v>
       </c>
       <c r="G89">
-        <v>8173055.659479843</v>
+        <v>9008660.381661629</v>
       </c>
       <c r="H89">
-        <v>7.297371124535576</v>
+        <v>8.043446769340742</v>
       </c>
       <c r="I89">
-        <v>48.34508370004819</v>
+        <v>53.28783484688241</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
@@ -3561,13 +3561,13 @@
         <v>14</v>
       </c>
       <c r="G90">
-        <v>7767977.099097461</v>
+        <v>8562167.009975776</v>
       </c>
       <c r="H90">
-        <v>6.935693838479876</v>
+        <v>7.644791973192659</v>
       </c>
       <c r="I90">
-        <v>45.94897167992918</v>
+        <v>50.64674682240136</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
@@ -3596,13 +3596,13 @@
         <v>14</v>
       </c>
       <c r="G91">
-        <v>6791022.924057595</v>
+        <v>7485330.054733423</v>
       </c>
       <c r="H91">
-        <v>6.063413325051425</v>
+        <v>6.683330406011986</v>
       </c>
       <c r="I91">
-        <v>40.17011327846568</v>
+        <v>44.2770639398294</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
@@ -3631,13 +3631,13 @@
         <v>14</v>
       </c>
       <c r="G92">
-        <v>5933209.502071373</v>
+        <v>6539814.679398675</v>
       </c>
       <c r="H92">
-        <v>5.297508483992297</v>
+        <v>5.839120249463103</v>
       </c>
       <c r="I92">
-        <v>35.09599370644897</v>
+        <v>38.68417165269306</v>
       </c>
       <c r="J92" t="s">
         <v>14</v>
@@ -3666,13 +3666,13 @@
         <v>14</v>
       </c>
       <c r="G93">
-        <v>4980083.477642236</v>
+        <v>5489242.040137843</v>
       </c>
       <c r="H93">
-        <v>4.446503105037711</v>
+        <v>4.901108964408789</v>
       </c>
       <c r="I93">
-        <v>29.45808307087484</v>
+        <v>32.46984688920823</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
@@ -3701,13 +3701,13 @@
         <v>14</v>
       </c>
       <c r="G94">
-        <v>3764847.796495088</v>
+        <v>4149761.925080284</v>
       </c>
       <c r="H94">
-        <v>3.361471246870614</v>
+        <v>3.70514457596454</v>
       </c>
       <c r="I94">
-        <v>22.26974701051782</v>
+        <v>24.54658281576508</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
@@ -3736,13 +3736,13 @@
         <v>14</v>
       </c>
       <c r="G95">
-        <v>4551176.766649125</v>
+        <v>5016484.35247047</v>
       </c>
       <c r="H95">
-        <v>4.063550684508148</v>
+        <v>4.479003886134349</v>
       </c>
       <c r="I95">
-        <v>26.92102328486648</v>
+        <v>29.67340074564006</v>
       </c>
       <c r="J95" t="s">
         <v>14</v>
@@ -3771,13 +3771,13 @@
         <v>14</v>
       </c>
       <c r="G96">
-        <v>5289849.435581706</v>
+        <v>5830678.147897614</v>
       </c>
       <c r="H96">
-        <v>4.723079853197953</v>
+        <v>5.205962632051442</v>
       </c>
       <c r="I96">
-        <v>31.29040402743644</v>
+        <v>34.4895024373408</v>
       </c>
       <c r="J96" t="s">
         <v>14</v>
@@ -3806,13 +3806,13 @@
         <v>14</v>
       </c>
       <c r="G97">
-        <v>4074613.754434558</v>
+        <v>4491198.032840054</v>
       </c>
       <c r="H97">
-        <v>3.638047995030856</v>
+        <v>4.009998243607193</v>
       </c>
       <c r="I97">
-        <v>24.10206796707942</v>
+        <v>26.56623836389765</v>
       </c>
       <c r="J97" t="s">
         <v>14</v>
@@ -3841,13 +3841,13 @@
         <v>14</v>
       </c>
       <c r="G98">
-        <v>3145315.88061615</v>
+        <v>3466889.709560744</v>
       </c>
       <c r="H98">
-        <v>2.808317750550134</v>
+        <v>3.095437240679236</v>
       </c>
       <c r="I98">
-        <v>18.60510509739464</v>
+        <v>20.50727171949994</v>
       </c>
       <c r="J98" t="s">
         <v>14</v>
@@ -3876,13 +3876,13 @@
         <v>14</v>
       </c>
       <c r="G99">
-        <v>3145315.88061615</v>
+        <v>3466889.709560744</v>
       </c>
       <c r="H99">
-        <v>2.808317750550134</v>
+        <v>3.095437240679236</v>
       </c>
       <c r="I99">
-        <v>18.60510509739464</v>
+        <v>20.50727171949994</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
@@ -3911,13 +3911,13 @@
         <v>14</v>
       </c>
       <c r="G100">
-        <v>2883206.223898137</v>
+        <v>3177982.233764015</v>
       </c>
       <c r="H100">
-        <v>2.574291271337623</v>
+        <v>2.837484137289299</v>
       </c>
       <c r="I100">
-        <v>17.05467967261175</v>
+        <v>18.79833240954161</v>
       </c>
       <c r="J100" t="s">
         <v>14</v>
@@ -3946,13 +3946,13 @@
         <v>14</v>
       </c>
       <c r="G101">
-        <v>3574222.591609261</v>
+        <v>3939647.397228117</v>
       </c>
       <c r="H101">
-        <v>3.191270171079697</v>
+        <v>3.517542318953677</v>
       </c>
       <c r="I101">
-        <v>21.14216488340299</v>
+        <v>23.30371786306811</v>
       </c>
       <c r="J101" t="s">
         <v>14</v>
@@ -3981,13 +3981,13 @@
         <v>14</v>
       </c>
       <c r="G102">
-        <v>2549612.11534794</v>
+        <v>2810281.810022724</v>
       </c>
       <c r="H102">
-        <v>2.276439388703518</v>
+        <v>2.509180187520289</v>
       </c>
       <c r="I102">
-        <v>15.08141095016081</v>
+        <v>16.62331874232192</v>
       </c>
       <c r="J102" t="s">
         <v>14</v>
@@ -4016,13 +4016,13 @@
         <v>14</v>
       </c>
       <c r="G103">
-        <v>3216800.332448335</v>
+        <v>3545682.657505306</v>
       </c>
       <c r="H103">
-        <v>2.872143153971728</v>
+        <v>3.165788087058309</v>
       </c>
       <c r="I103">
-        <v>19.0279483950627</v>
+        <v>20.9733460767613</v>
       </c>
       <c r="J103" t="s">
         <v>14</v>
@@ -4051,13 +4051,13 @@
         <v>14</v>
       </c>
       <c r="G104">
-        <v>3883988.54954873</v>
+        <v>4281083.504987888</v>
       </c>
       <c r="H104">
-        <v>3.467846919239938</v>
+        <v>3.822395986596329</v>
       </c>
       <c r="I104">
-        <v>22.97448583996459</v>
+        <v>25.32337341120068</v>
       </c>
       <c r="J104" t="s">
         <v>14</v>
@@ -4086,13 +4086,13 @@
         <v>14</v>
       </c>
       <c r="G105">
-        <v>2716409.169623038</v>
+        <v>2994132.021893369</v>
       </c>
       <c r="H105">
-        <v>2.42536533002057</v>
+        <v>2.673332162404794</v>
       </c>
       <c r="I105">
-        <v>16.06804531138628</v>
+        <v>17.71082557593176</v>
       </c>
       <c r="J105" t="s">
         <v>14</v>
@@ -4121,13 +4121,13 @@
         <v>14</v>
       </c>
       <c r="G106">
-        <v>3478909.989166347</v>
+        <v>3834590.133302034</v>
       </c>
       <c r="H106">
-        <v>3.106169633184239</v>
+        <v>3.423741190448245</v>
       </c>
       <c r="I106">
-        <v>20.57837381984558</v>
+        <v>22.68228538671962</v>
       </c>
       <c r="J106" t="s">
         <v>14</v>
@@ -4156,13 +4156,13 @@
         <v>14</v>
       </c>
       <c r="G107">
-        <v>3836332.248327273</v>
+        <v>4228554.873024846</v>
       </c>
       <c r="H107">
-        <v>3.425296650292209</v>
+        <v>3.775495422343613</v>
       </c>
       <c r="I107">
-        <v>22.69259030818588</v>
+        <v>25.01265717302644</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
@@ -4191,13 +4191,13 @@
         <v>14</v>
       </c>
       <c r="G108">
-        <v>1953908.350079729</v>
+        <v>2153673.910484704</v>
       </c>
       <c r="H108">
-        <v>1.744561026856901</v>
+        <v>1.922923134361343</v>
       </c>
       <c r="I108">
-        <v>11.55771680292697</v>
+        <v>12.7393657651439</v>
       </c>
       <c r="J108" t="s">
         <v>14</v>
@@ -4226,13 +4226,13 @@
         <v>14</v>
       </c>
       <c r="G109">
-        <v>3883988.54954873</v>
+        <v>4281083.504987888</v>
       </c>
       <c r="H109">
-        <v>3.467846919239938</v>
+        <v>3.822395986596329</v>
       </c>
       <c r="I109">
-        <v>22.97448583996459</v>
+        <v>25.32337341120068</v>
       </c>
       <c r="J109" t="s">
         <v>14</v>
@@ -4261,13 +4261,13 @@
         <v>14</v>
       </c>
       <c r="G110">
-        <v>3097659.579394693</v>
+        <v>3414361.077597702</v>
       </c>
       <c r="H110">
-        <v>2.765767481602405</v>
+        <v>3.04853667642652</v>
       </c>
       <c r="I110">
-        <v>18.32320956561593</v>
+        <v>20.1965554813257</v>
       </c>
       <c r="J110" t="s">
         <v>14</v>
@@ -4296,13 +4296,13 @@
         <v>14</v>
       </c>
       <c r="G111">
-        <v>2025392.801911915</v>
+        <v>2232466.858429267</v>
       </c>
       <c r="H111">
-        <v>1.808386430278496</v>
+        <v>1.993273980740417</v>
       </c>
       <c r="I111">
-        <v>11.98056010059503</v>
+        <v>13.20544012240526</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
@@ -4331,13 +4331,13 @@
         <v>14</v>
       </c>
       <c r="G112">
-        <v>3073831.428783964</v>
+        <v>3388096.761616181</v>
       </c>
       <c r="H112">
-        <v>2.74449234712854</v>
+        <v>3.025086394300162</v>
       </c>
       <c r="I112">
-        <v>18.18226179972658</v>
+        <v>20.04119736223857</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
@@ -4366,13 +4366,13 @@
         <v>14</v>
       </c>
       <c r="G113">
-        <v>2740237.320233767</v>
+        <v>3020396.33787489</v>
       </c>
       <c r="H113">
-        <v>2.446640464494435</v>
+        <v>2.696782444531152</v>
       </c>
       <c r="I113">
-        <v>16.20899307727563</v>
+        <v>17.86618369501888</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
@@ -4401,13 +4401,13 @@
         <v>14</v>
       </c>
       <c r="G114">
-        <v>2692581.01901231</v>
+        <v>2967867.705911849</v>
       </c>
       <c r="H114">
-        <v>2.404090195546706</v>
+        <v>2.649881880278437</v>
       </c>
       <c r="I114">
-        <v>15.92709754549693</v>
+        <v>17.55546745684464</v>
       </c>
       <c r="J114" t="s">
         <v>14</v>
@@ -4436,13 +4436,13 @@
         <v>14</v>
       </c>
       <c r="G115">
-        <v>3335941.085501977</v>
+        <v>3677004.23741291</v>
       </c>
       <c r="H115">
-        <v>2.978518826341051</v>
+        <v>3.283039497690099</v>
       </c>
       <c r="I115">
-        <v>19.73268722450947</v>
+        <v>21.7501366721969</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
@@ -4471,13 +4471,13 @@
         <v>14</v>
       </c>
       <c r="G116">
-        <v>3097659.579394693</v>
+        <v>3414361.077597702</v>
       </c>
       <c r="H116">
-        <v>2.765767481602405</v>
+        <v>3.04853667642652</v>
       </c>
       <c r="I116">
-        <v>18.32320956561593</v>
+        <v>20.1965554813257</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
@@ -4506,13 +4506,13 @@
         <v>14</v>
       </c>
       <c r="G117">
-        <v>2930862.525119594</v>
+        <v>3230510.865727056</v>
       </c>
       <c r="H117">
-        <v>2.616841540285352</v>
+        <v>2.884384701542015</v>
       </c>
       <c r="I117">
-        <v>17.33657520439046</v>
+        <v>19.10904864771585</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
@@ -4541,13 +4541,13 @@
         <v>14</v>
       </c>
       <c r="G118">
-        <v>7577351.894211633</v>
+        <v>8352052.48212361</v>
       </c>
       <c r="H118">
-        <v>6.765492762688959</v>
+        <v>7.457189716181795</v>
       </c>
       <c r="I118">
-        <v>44.82138955281435</v>
+        <v>49.40388186970439</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
@@ -4576,13 +4576,13 @@
         <v>14</v>
       </c>
       <c r="G119">
-        <v>10937121.13032434</v>
+        <v>12055321.03551804</v>
       </c>
       <c r="H119">
-        <v>9.765286723503875</v>
+        <v>10.76367949599825</v>
       </c>
       <c r="I119">
-        <v>64.69502454321318</v>
+        <v>71.30937666098842</v>
       </c>
       <c r="J119" t="s">
         <v>14</v>
@@ -4611,13 +4611,13 @@
         <v>14</v>
       </c>
       <c r="G120">
-        <v>17037127.68667081</v>
+        <v>18778985.92678736</v>
       </c>
       <c r="H120">
-        <v>15.21172114881323</v>
+        <v>16.76695172034586</v>
       </c>
       <c r="I120">
-        <v>100.7776526108876</v>
+        <v>111.0810551472913</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
@@ -4646,13 +4646,13 @@
         <v>14</v>
       </c>
       <c r="G121">
-        <v>31167220.99883275</v>
+        <v>34353725.30382919</v>
       </c>
       <c r="H121">
-        <v>27.82787589181497</v>
+        <v>30.67296902127606</v>
       </c>
       <c r="I121">
-        <v>184.3596777832742</v>
+        <v>203.2084197659539</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
@@ -4681,13 +4681,13 @@
         <v>14</v>
       </c>
       <c r="G122">
-        <v>47608644.92023535</v>
+        <v>52476103.33107852</v>
       </c>
       <c r="H122">
-        <v>42.50771867878156</v>
+        <v>46.85366368846297</v>
       </c>
       <c r="I122">
-        <v>281.6136362469279</v>
+        <v>310.4055219360672</v>
       </c>
       <c r="J122" t="s">
         <v>14</v>
@@ -4716,13 +4716,13 @@
         <v>14</v>
       </c>
       <c r="G123">
-        <v>75749690.79150559</v>
+        <v>83494260.50525457</v>
       </c>
       <c r="H123">
-        <v>67.63365249241571</v>
+        <v>74.54844687969158</v>
       </c>
       <c r="I123">
-        <v>448.072947762254</v>
+        <v>493.8834605779567</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
@@ -4751,13 +4751,13 @@
         <v>14</v>
       </c>
       <c r="G124">
-        <v>94240335.66543084</v>
+        <v>103875369.7069147</v>
       </c>
       <c r="H124">
-        <v>84.14315684413469</v>
+        <v>92.74586580974527</v>
       </c>
       <c r="I124">
-        <v>557.4484140923923</v>
+        <v>614.4413609895624</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
@@ -4786,13 +4786,13 @@
         <v>14</v>
       </c>
       <c r="G125">
-        <v>125741150.7728138</v>
+        <v>138596795.4344852</v>
       </c>
       <c r="H125">
-        <v>112.2688846185838</v>
+        <v>123.7471387807903</v>
       </c>
       <c r="I125">
-        <v>743.7813605981174</v>
+        <v>819.824794422736</v>
       </c>
       <c r="J125" t="s">
         <v>14</v>
@@ -4821,13 +4821,13 @@
         <v>14</v>
       </c>
       <c r="G126">
-        <v>129124748.1595372</v>
+        <v>142326328.3038611</v>
       </c>
       <c r="H126">
-        <v>115.2899537138725</v>
+        <v>127.0770788427331</v>
       </c>
       <c r="I126">
-        <v>763.7959433544056</v>
+        <v>841.885647333107</v>
       </c>
       <c r="J126" t="s">
         <v>14</v>
@@ -4856,13 +4856,13 @@
         <v>14</v>
       </c>
       <c r="G127">
-        <v>154215790.7526343</v>
+        <v>169982653.0324025</v>
       </c>
       <c r="H127">
-        <v>137.692670314852</v>
+        <v>151.770225921788</v>
       </c>
       <c r="I127">
-        <v>912.2139408358946</v>
+        <v>1005.477746731845</v>
       </c>
       <c r="J127" t="s">
         <v>14</v>
@@ -4891,13 +4891,13 @@
         <v>14</v>
       </c>
       <c r="G128">
-        <v>133223190.0645825</v>
+        <v>146843790.6526827</v>
       </c>
       <c r="H128">
-        <v>118.9492768433773</v>
+        <v>131.1105273684667</v>
       </c>
       <c r="I128">
-        <v>788.0389590873745</v>
+        <v>868.6072438160919</v>
       </c>
       <c r="J128" t="s">
         <v>14</v>
@@ -4926,13 +4926,13 @@
         <v>14</v>
       </c>
       <c r="G129">
-        <v>140705229.3563512</v>
+        <v>155090785.8708802</v>
       </c>
       <c r="H129">
-        <v>125.6296690681707</v>
+        <v>138.4739159561431</v>
       </c>
       <c r="I129">
-        <v>832.2965575766311</v>
+        <v>917.3896932094477</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
@@ -4961,13 +4961,13 @@
         <v>14</v>
       </c>
       <c r="G130">
-        <v>88712204.72374184</v>
+        <v>97782048.39920187</v>
       </c>
       <c r="H130">
-        <v>79.20732564619809</v>
+        <v>87.30540035643025</v>
       </c>
       <c r="I130">
-        <v>524.7485324060623</v>
+        <v>578.3982773613504</v>
       </c>
       <c r="J130" t="s">
         <v>14</v>
@@ -4996,13 +4996,13 @@
         <v>14</v>
       </c>
       <c r="G131">
-        <v>80324695.70876545</v>
+        <v>88537009.17370656</v>
       </c>
       <c r="H131">
-        <v>71.71847831139773</v>
+        <v>79.05090104795231</v>
       </c>
       <c r="I131">
-        <v>475.13491881301</v>
+        <v>523.712219442684</v>
       </c>
       <c r="J131" t="s">
         <v>14</v>
@@ -5031,13 +5031,13 @@
         <v>14</v>
       </c>
       <c r="G132">
-        <v>88831345.47679549</v>
+        <v>97913369.97910948</v>
       </c>
       <c r="H132">
-        <v>79.31370131856742</v>
+        <v>87.42265176706205</v>
       </c>
       <c r="I132">
-        <v>525.4532712355092</v>
+        <v>579.1750679567861</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
@@ -5066,13 +5066,13 @@
         <v>14</v>
       </c>
       <c r="G133">
-        <v>69196949.37355529</v>
+        <v>76271573.61033635</v>
       </c>
       <c r="H133">
-        <v>61.78299051210295</v>
+        <v>68.09961929494318</v>
       </c>
       <c r="I133">
-        <v>409.3123121426821</v>
+        <v>451.1599778289986</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
@@ -5101,13 +5101,13 @@
         <v>14</v>
       </c>
       <c r="G134">
-        <v>49848491.07764383</v>
+        <v>54944949.03334148</v>
       </c>
       <c r="H134">
-        <v>44.50758131932485</v>
+        <v>49.05799020834062</v>
       </c>
       <c r="I134">
-        <v>294.8627262405271</v>
+        <v>325.0091851302566</v>
       </c>
       <c r="J134" t="s">
         <v>14</v>
@@ -5136,13 +5136,13 @@
         <v>14</v>
       </c>
       <c r="G135">
-        <v>45678564.72076635</v>
+        <v>50348693.73657534</v>
       </c>
       <c r="H135">
-        <v>40.78443278639853</v>
+        <v>44.95419083622799</v>
       </c>
       <c r="I135">
-        <v>270.1968672098903</v>
+        <v>297.8215142900104</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
@@ -5171,13 +5171,13 @@
         <v>14</v>
       </c>
       <c r="G136">
-        <v>79633679.34105434</v>
+        <v>87775344.01024246</v>
       </c>
       <c r="H136">
-        <v>71.10149941165567</v>
+        <v>78.37084286628793</v>
       </c>
       <c r="I136">
-        <v>471.0474336022188</v>
+        <v>519.2068339891575</v>
       </c>
       <c r="J136" t="s">
         <v>14</v>
@@ -5206,13 +5206,13 @@
         <v>14</v>
       </c>
       <c r="G137">
-        <v>46703175.19702768</v>
+        <v>51478059.32378073</v>
       </c>
       <c r="H137">
-        <v>41.69926356877472</v>
+        <v>45.96255296766137</v>
       </c>
       <c r="I137">
-        <v>276.2576211431325</v>
+        <v>304.5019134107566</v>
       </c>
       <c r="J137" t="s">
         <v>14</v>
@@ -5241,13 +5241,13 @@
         <v>14</v>
       </c>
       <c r="G138">
-        <v>39101995.15220531</v>
+        <v>43099742.5256756</v>
       </c>
       <c r="H138">
-        <v>34.91249567161189</v>
+        <v>38.48191296935322</v>
       </c>
       <c r="I138">
-        <v>231.2952838244288</v>
+        <v>254.9426734219651</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
@@ -5276,13 +5276,13 @@
         <v>14</v>
       </c>
       <c r="G139">
-        <v>60023111.38842486</v>
+        <v>66159811.95745086</v>
       </c>
       <c r="H139">
-        <v>53.59206373966506</v>
+        <v>59.07126067629542</v>
       </c>
       <c r="I139">
-        <v>355.047422275281</v>
+        <v>391.3471019804571</v>
       </c>
       <c r="J139" t="s">
         <v>14</v>
@@ -5311,13 +5311,13 @@
         <v>14</v>
       </c>
       <c r="G140">
-        <v>49443412.51726145</v>
+        <v>54498455.66165563</v>
       </c>
       <c r="H140">
-        <v>44.14590403326915</v>
+        <v>48.65933541219253</v>
       </c>
       <c r="I140">
-        <v>292.4666142204081</v>
+        <v>322.3680971057755</v>
       </c>
       <c r="J140" t="s">
         <v>14</v>
@@ -5346,13 +5346,13 @@
         <v>14</v>
       </c>
       <c r="G141">
-        <v>49562553.27031509</v>
+        <v>54629777.24156323</v>
       </c>
       <c r="H141">
-        <v>44.25227970563848</v>
+        <v>48.77658682282432</v>
       </c>
       <c r="I141">
-        <v>293.1713530498549</v>
+        <v>323.1448877012111</v>
       </c>
       <c r="J141" t="s">
         <v>14</v>
@@ -5381,13 +5381,13 @@
         <v>14</v>
       </c>
       <c r="G142">
-        <v>46703175.19702768</v>
+        <v>51478059.32378073</v>
       </c>
       <c r="H142">
-        <v>41.69926356877472</v>
+        <v>45.96255296766137</v>
       </c>
       <c r="I142">
-        <v>276.2576211431325</v>
+        <v>304.5019134107566</v>
       </c>
       <c r="J142" t="s">
         <v>14</v>
@@ -5416,13 +5416,13 @@
         <v>14</v>
       </c>
       <c r="G143">
-        <v>39983636.72480226</v>
+        <v>44071522.21699187</v>
       </c>
       <c r="H143">
-        <v>35.69967564714488</v>
+        <v>39.34957340802846</v>
       </c>
       <c r="I143">
-        <v>236.5103511623348</v>
+        <v>260.6909238281885</v>
       </c>
       <c r="J143" t="s">
         <v>14</v>
@@ -5451,13 +5451,13 @@
         <v>14</v>
       </c>
       <c r="G144">
-        <v>18300019.66903942</v>
+        <v>20170994.67380796</v>
       </c>
       <c r="H144">
-        <v>16.33930327592805</v>
+        <v>18.00981667304283</v>
       </c>
       <c r="I144">
-        <v>108.2478842030233</v>
+        <v>119.3150354589087</v>
       </c>
       <c r="J144" t="s">
         <v>14</v>
@@ -5486,13 +5486,13 @@
         <v>14</v>
       </c>
       <c r="G145">
-        <v>18133222.61476432</v>
+        <v>19987144.46193732</v>
       </c>
       <c r="H145">
-        <v>16.190377334611</v>
+        <v>17.84566469815832</v>
       </c>
       <c r="I145">
-        <v>107.2612498417979</v>
+        <v>118.2275286252989</v>
       </c>
       <c r="J145" t="s">
         <v>14</v>
@@ -5521,13 +5521,13 @@
         <v>14</v>
       </c>
       <c r="G146">
-        <v>13033998.38406844</v>
+        <v>14366580.84189187</v>
       </c>
       <c r="H146">
-        <v>11.63749855720397</v>
+        <v>12.82730432311774</v>
       </c>
       <c r="I146">
-        <v>77.09842794147627</v>
+        <v>84.98089114065505</v>
       </c>
       <c r="J146" t="s">
         <v>14</v>
@@ -5556,13 +5556,13 @@
         <v>14</v>
       </c>
       <c r="G147">
-        <v>9030869.081466066</v>
+        <v>9954175.756996376</v>
       </c>
       <c r="H147">
-        <v>8.063275965594704</v>
+        <v>8.887656925889623</v>
       </c>
       <c r="I147">
-        <v>53.41920327206491</v>
+        <v>58.88072713401875</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
@@ -5591,13 +5591,13 @@
         <v>14</v>
       </c>
       <c r="G148">
-        <v>7625008.19543309</v>
+        <v>8404581.11408665</v>
       </c>
       <c r="H148">
-        <v>6.808043031636688</v>
+        <v>7.50409028043451</v>
       </c>
       <c r="I148">
-        <v>45.10328508459305</v>
+        <v>49.71459810787863</v>
       </c>
       <c r="J148" t="s">
         <v>14</v>
@@ -5626,13 +5626,13 @@
         <v>14</v>
       </c>
       <c r="G149">
-        <v>5337505.736803163</v>
+        <v>5883206.779860656</v>
       </c>
       <c r="H149">
-        <v>4.765630122145682</v>
+        <v>5.252863196304157</v>
       </c>
       <c r="I149">
-        <v>31.57229955921514</v>
+        <v>34.80021867551504</v>
       </c>
       <c r="J149" t="s">
         <v>14</v>
@@ -5661,13 +5661,13 @@
         <v>14</v>
       </c>
       <c r="G150">
-        <v>5980865.80329283</v>
+        <v>6592343.311361717</v>
       </c>
       <c r="H150">
-        <v>5.340058752940027</v>
+        <v>5.88602081371582</v>
       </c>
       <c r="I150">
-        <v>35.37788923822767</v>
+        <v>38.99488789086731</v>
       </c>
       <c r="J150" t="s">
         <v>14</v>
@@ -5696,13 +5696,13 @@
         <v>14</v>
       </c>
       <c r="G151">
-        <v>5456646.489856805</v>
+        <v>6014528.359768259</v>
       </c>
       <c r="H151">
-        <v>4.872005794515005</v>
+        <v>5.370114606935946</v>
       </c>
       <c r="I151">
-        <v>32.27703838866191</v>
+        <v>35.57700927095064</v>
       </c>
       <c r="J151" t="s">
         <v>14</v>
@@ -5731,13 +5731,13 @@
         <v>14</v>
       </c>
       <c r="G152">
-        <v>4980083.477642236</v>
+        <v>5489242.040137843</v>
       </c>
       <c r="H152">
-        <v>4.446503105037711</v>
+        <v>4.901108964408789</v>
       </c>
       <c r="I152">
-        <v>29.45808307087484</v>
+        <v>32.46984688920823</v>
       </c>
       <c r="J152" t="s">
         <v>14</v>
@@ -5766,13 +5766,13 @@
         <v>14</v>
       </c>
       <c r="G153">
-        <v>4670317.519702768</v>
+        <v>5147805.932378074</v>
       </c>
       <c r="H153">
-        <v>4.169926356877472</v>
+        <v>4.596255296766138</v>
       </c>
       <c r="I153">
-        <v>27.62576211431325</v>
+        <v>30.45019134107567</v>
       </c>
       <c r="J153" t="s">
         <v>14</v>
@@ -5801,13 +5801,13 @@
         <v>14</v>
       </c>
       <c r="G154">
-        <v>4837114.573977866</v>
+        <v>5331656.144248719</v>
       </c>
       <c r="H154">
-        <v>4.318852298194525</v>
+        <v>4.760407271650643</v>
       </c>
       <c r="I154">
-        <v>28.61239647553873</v>
+        <v>31.53769817468551</v>
       </c>
       <c r="J154" t="s">
         <v>14</v>
@@ -5836,13 +5836,13 @@
         <v>14</v>
       </c>
       <c r="G155">
-        <v>3860160.398938002</v>
+        <v>4254819.189006367</v>
       </c>
       <c r="H155">
-        <v>3.446571784766073</v>
+        <v>3.798945704469971</v>
       </c>
       <c r="I155">
-        <v>22.83353807407524</v>
+        <v>25.16801529211356</v>
       </c>
       <c r="J155" t="s">
         <v>14</v>
@@ -5871,13 +5871,13 @@
         <v>14</v>
       </c>
       <c r="G156">
-        <v>3764847.796495088</v>
+        <v>4149761.925080284</v>
       </c>
       <c r="H156">
-        <v>3.361471246870614</v>
+        <v>3.70514457596454</v>
       </c>
       <c r="I156">
-        <v>22.26974701051782</v>
+        <v>24.54658281576508</v>
       </c>
       <c r="J156" t="s">
         <v>14</v>
@@ -5906,13 +5906,13 @@
         <v>14</v>
       </c>
       <c r="G157">
-        <v>3860160.398938002</v>
+        <v>4254819.189006367</v>
       </c>
       <c r="H157">
-        <v>3.446571784766073</v>
+        <v>3.798945704469971</v>
       </c>
       <c r="I157">
-        <v>22.83353807407524</v>
+        <v>25.16801529211356</v>
       </c>
       <c r="J157" t="s">
         <v>14</v>
@@ -5941,13 +5941,13 @@
         <v>14</v>
       </c>
       <c r="G158">
-        <v>3645707.043441446</v>
+        <v>4018440.34517268</v>
       </c>
       <c r="H158">
-        <v>3.255095574501292</v>
+        <v>3.58789316533275</v>
       </c>
       <c r="I158">
-        <v>21.56500818107106</v>
+        <v>23.76979222032947</v>
       </c>
       <c r="J158" t="s">
         <v>14</v>
@@ -5976,13 +5976,13 @@
         <v>14</v>
       </c>
       <c r="G159">
-        <v>3860160.398938002</v>
+        <v>4254819.189006367</v>
       </c>
       <c r="H159">
-        <v>3.446571784766073</v>
+        <v>3.798945704469971</v>
       </c>
       <c r="I159">
-        <v>22.83353807407524</v>
+        <v>25.16801529211356</v>
       </c>
       <c r="J159" t="s">
         <v>14</v>
@@ -6011,13 +6011,13 @@
         <v>14</v>
       </c>
       <c r="G160">
-        <v>2430471.362294297</v>
+        <v>2678960.23011512</v>
       </c>
       <c r="H160">
-        <v>2.170063716334194</v>
+        <v>2.3919287768885</v>
       </c>
       <c r="I160">
-        <v>14.37667212071404</v>
+        <v>15.84652814688631</v>
       </c>
       <c r="J160" t="s">
         <v>14</v>
@@ -6046,13 +6046,13 @@
         <v>14</v>
       </c>
       <c r="G161">
-        <v>2287502.458629927</v>
+        <v>2521374.334225995</v>
       </c>
       <c r="H161">
-        <v>2.042412909491007</v>
+        <v>2.251227084130353</v>
       </c>
       <c r="I161">
-        <v>13.53098552537792</v>
+        <v>14.91437943236359</v>
       </c>
       <c r="J161" t="s">
         <v>14</v>
@@ -6081,13 +6081,13 @@
         <v>14</v>
       </c>
       <c r="G162">
-        <v>2954690.675730322</v>
+        <v>3256775.181708577</v>
       </c>
       <c r="H162">
-        <v>2.638116674759217</v>
+        <v>2.907834983668373</v>
       </c>
       <c r="I162">
-        <v>17.47752297027981</v>
+        <v>19.26440676680297</v>
       </c>
       <c r="J162" t="s">
         <v>14</v>
@@ -6116,13 +6116,13 @@
         <v>14</v>
       </c>
       <c r="G163">
-        <v>3026175.127562508</v>
+        <v>3335568.12965314</v>
       </c>
       <c r="H163">
-        <v>2.701942078180811</v>
+        <v>2.978185830047447</v>
       </c>
       <c r="I163">
-        <v>17.90036626794787</v>
+        <v>19.73048112406433</v>
       </c>
       <c r="J163" t="s">
         <v>14</v>
@@ -6151,13 +6151,13 @@
         <v>14</v>
       </c>
       <c r="G164">
-        <v>3526566.290387804</v>
+        <v>3887118.765265075</v>
       </c>
       <c r="H164">
-        <v>3.148719902131968</v>
+        <v>3.47064175470096</v>
       </c>
       <c r="I164">
-        <v>20.86026935162429</v>
+        <v>22.99300162489386</v>
       </c>
       <c r="J164" t="s">
         <v>14</v>
@@ -6186,13 +6186,13 @@
         <v>14</v>
       </c>
       <c r="G165">
-        <v>3240628.483059064</v>
+        <v>3571946.973486827</v>
       </c>
       <c r="H165">
-        <v>2.893418288445593</v>
+        <v>3.189238369184667</v>
       </c>
       <c r="I165">
-        <v>19.16889616095205</v>
+        <v>21.12870419584842</v>
       </c>
       <c r="J165" t="s">
         <v>14</v>
@@ -6221,13 +6221,13 @@
         <v>14</v>
       </c>
       <c r="G166">
-        <v>3073831.428783964</v>
+        <v>3388096.761616181</v>
       </c>
       <c r="H166">
-        <v>2.74449234712854</v>
+        <v>3.025086394300162</v>
       </c>
       <c r="I166">
-        <v>18.18226179972658</v>
+        <v>20.04119736223857</v>
       </c>
       <c r="J166" t="s">
         <v>14</v>
@@ -6256,13 +6256,13 @@
         <v>14</v>
       </c>
       <c r="G167">
-        <v>2740237.320233767</v>
+        <v>3020396.33787489</v>
       </c>
       <c r="H167">
-        <v>2.446640464494435</v>
+        <v>2.696782444531152</v>
       </c>
       <c r="I167">
-        <v>16.20899307727563</v>
+        <v>17.86618369501888</v>
       </c>
       <c r="J167" t="s">
         <v>14</v>
@@ -6291,13 +6291,13 @@
         <v>14</v>
       </c>
       <c r="G168">
-        <v>3192972.181837607</v>
+        <v>3519418.341523785</v>
       </c>
       <c r="H168">
-        <v>2.850868019497864</v>
+        <v>3.142337804931952</v>
       </c>
       <c r="I168">
-        <v>18.88700062917335</v>
+        <v>20.81798795767418</v>
       </c>
       <c r="J168" t="s">
         <v>14</v>
@@ -6326,13 +6326,13 @@
         <v>14</v>
       </c>
       <c r="G169">
-        <v>3693363.344662903</v>
+        <v>4070968.977135721</v>
       </c>
       <c r="H169">
-        <v>3.297645843449021</v>
+        <v>3.634793729585466</v>
       </c>
       <c r="I169">
-        <v>21.84690371284976</v>
+        <v>24.08050845850371</v>
       </c>
       <c r="J169" t="s">
         <v>14</v>
@@ -6361,13 +6361,13 @@
         <v>14</v>
       </c>
       <c r="G170">
-        <v>2406643.211683569</v>
+        <v>2652695.914133599</v>
       </c>
       <c r="H170">
-        <v>2.14878858186033</v>
+        <v>2.368478494762142</v>
       </c>
       <c r="I170">
-        <v>14.23572435482468</v>
+        <v>15.69117002779919</v>
       </c>
       <c r="J170" t="s">
         <v>14</v>
@@ -6396,13 +6396,13 @@
         <v>14</v>
       </c>
       <c r="G171">
-        <v>2501955.814126483</v>
+        <v>2757753.178059682</v>
       </c>
       <c r="H171">
-        <v>2.233889119755788</v>
+        <v>2.462279623267574</v>
       </c>
       <c r="I171">
-        <v>14.7995154183821</v>
+        <v>16.31260250414768</v>
       </c>
       <c r="J171" t="s">
         <v>14</v>
@@ -6431,13 +6431,13 @@
         <v>14</v>
       </c>
       <c r="G172">
-        <v>3073831.428783964</v>
+        <v>3388096.761616181</v>
       </c>
       <c r="H172">
-        <v>2.74449234712854</v>
+        <v>3.025086394300162</v>
       </c>
       <c r="I172">
-        <v>18.18226179972658</v>
+        <v>20.04119736223857</v>
       </c>
       <c r="J172" t="s">
         <v>14</v>
@@ -6466,13 +6466,13 @@
         <v>14</v>
       </c>
       <c r="G173">
-        <v>2287502.458629927</v>
+        <v>2521374.334225995</v>
       </c>
       <c r="H173">
-        <v>2.042412909491007</v>
+        <v>2.251227084130353</v>
       </c>
       <c r="I173">
-        <v>13.53098552537792</v>
+        <v>14.91437943236359</v>
       </c>
       <c r="J173" t="s">
         <v>14</v>
@@ -6501,13 +6501,13 @@
         <v>14</v>
       </c>
       <c r="G174">
-        <v>2382815.061072841</v>
+        <v>2626431.598152079</v>
       </c>
       <c r="H174">
-        <v>2.127513447386465</v>
+        <v>2.345028212635785</v>
       </c>
       <c r="I174">
-        <v>14.09477658893533</v>
+        <v>15.53581190871207</v>
       </c>
       <c r="J174" t="s">
         <v>14</v>
@@ -6536,13 +6536,13 @@
         <v>14</v>
       </c>
       <c r="G175">
-        <v>1930080.199469001</v>
+        <v>2127409.594503183</v>
       </c>
       <c r="H175">
-        <v>1.723285892383037</v>
+        <v>1.899472852234986</v>
       </c>
       <c r="I175">
-        <v>11.41676903703762</v>
+        <v>12.58400764605678</v>
       </c>
       <c r="J175" t="s">
         <v>14</v>
